--- a/Portfolio_Analyser.xlsx
+++ b/Portfolio_Analyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,125 +474,390 @@
           <t>HIGH_TO_LOW</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>THRESHOLD_LIMIT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SATYA</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>AWHCL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>673</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5211590444823749</v>
+        <v>1.283316880552813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9693609121810112</v>
+        <v>3.692006358742597</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5211590444823749</v>
+        <v>-3.188547659720509</v>
       </c>
       <c r="H2" t="n">
-        <v>1.50510990375576</v>
+        <v>5.16605429226181</v>
+      </c>
+      <c r="I2" t="n">
+        <v>490.3500061035156</v>
+      </c>
+      <c r="J2" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>513</v>
+      </c>
+      <c r="L2" t="n">
+        <v>487.7999877929688</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SATYA</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>111.35</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8278145486234312</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7243377300455023</v>
+        <v>2.725188097056468</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08278650744137524</v>
+        <v>-2.241276313039256</v>
       </c>
       <c r="H3" t="n">
-        <v>1.563477133447125</v>
+        <v>2.801535200885857</v>
+      </c>
+      <c r="I3" t="n">
+        <v>115.1500015258789</v>
+      </c>
+      <c r="J3" t="n">
+        <v>117.7900009155273</v>
+      </c>
+      <c r="K3" t="n">
+        <v>117.7900009155273</v>
+      </c>
+      <c r="L3" t="n">
+        <v>114.5800018310547</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAI KUMAR</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>592.22</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>1.157742402315485</v>
+        <v>0.1000561346364141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7120144039435601</v>
+        <v>3.076535309785487</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5065123010130246</v>
+        <v>-2.401194567046541</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88316521383158</v>
+        <v>3.277422505040323</v>
+      </c>
+      <c r="I4" t="n">
+        <v>390.2000122070312</v>
+      </c>
+      <c r="J4" t="n">
+        <v>399.7999877929688</v>
+      </c>
+      <c r="K4" t="n">
+        <v>400.2000122070312</v>
+      </c>
+      <c r="L4" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAI KUMAR</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>500</v>
+        <v>810.2</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8278145486234312</v>
+        <v>0.8357558139534883</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7243377300455023</v>
+        <v>2.892445409020712</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08278650744137524</v>
+        <v>-2.078486597815225</v>
       </c>
       <c r="H5" t="n">
-        <v>1.563477133447125</v>
+        <v>3.839249416461495</v>
+      </c>
+      <c r="I5" t="n">
+        <v>673.7000122070312</v>
+      </c>
+      <c r="J5" t="n">
+        <v>688</v>
+      </c>
+      <c r="K5" t="n">
+        <v>693.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>668.0999755859375</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GAIL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.665349858270328</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9198997042142332</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03171956676170167</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.609252064508176</v>
+      </c>
+      <c r="I6" t="n">
+        <v>189.0899963378906</v>
+      </c>
+      <c r="J6" t="n">
+        <v>189.1499938964844</v>
+      </c>
+      <c r="K6" t="n">
+        <v>192.3000030517578</v>
+      </c>
+      <c r="L6" t="n">
+        <v>187.4100036621094</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2411.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.400862068965517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9525904162176724</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.575993091537133</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2342.10009765625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2320</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2352.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2316</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1298.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7417991736135877</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.353780313837375</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2139800285306705</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.170199007601351</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1405</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1402</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1412.400024414062</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1369</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9364092326393129</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.677715223983983</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.6242678605196011</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.65873038098985</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.46999931335449</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25.6299991607666</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25.20000076293945</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_Analyser.xlsx
+++ b/Portfolio_Analyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,26 @@
           <t>THRESHOLD_LIMIT</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_CLOSE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ACTUAL_CLOSE%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,37 +533,48 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.283316880552813</v>
+        <v>1.294994600688371</v>
       </c>
       <c r="F2" t="n">
-        <v>3.692006358742597</v>
+        <v>0.938106667942926</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.188547659720509</v>
+        <v>-1.284776146386571</v>
       </c>
       <c r="H2" t="n">
-        <v>5.16605429226181</v>
+        <v>2.254248524350232</v>
       </c>
       <c r="I2" t="n">
+        <v>487.8999938964844</v>
+      </c>
+      <c r="J2" t="n">
+        <v>494.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>496.7000122070312</v>
+      </c>
+      <c r="L2" t="n">
+        <v>485.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
         <v>490.3500061035156</v>
       </c>
-      <c r="J2" t="n">
-        <v>506.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>513</v>
-      </c>
-      <c r="L2" t="n">
-        <v>487.7999877929688</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
+      <c r="O2" t="n">
+        <v>-0.4996455952962788</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,37 +589,48 @@
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.893183044974469</v>
       </c>
       <c r="F3" t="n">
-        <v>2.725188097056468</v>
+        <v>0.303950038630642</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.241276313039256</v>
+        <v>0.1475550475620339</v>
       </c>
       <c r="H3" t="n">
-        <v>2.801535200885857</v>
+        <v>2.203831630697971</v>
       </c>
       <c r="I3" t="n">
+        <v>115.379997253418</v>
+      </c>
+      <c r="J3" t="n">
+        <v>115.2099990844727</v>
+      </c>
+      <c r="K3" t="n">
+        <v>117.3300018310547</v>
+      </c>
+      <c r="L3" t="n">
+        <v>114.8000030517578</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
         <v>115.1500015258789</v>
       </c>
-      <c r="J3" t="n">
-        <v>117.7900009155273</v>
-      </c>
-      <c r="K3" t="n">
-        <v>117.7900009155273</v>
-      </c>
-      <c r="L3" t="n">
-        <v>114.5800018310547</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
+      <c r="O3" t="n">
+        <v>0.1997357572655986</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -608,37 +645,48 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1000561346364141</v>
+        <v>3.997943387469836</v>
       </c>
       <c r="F4" t="n">
-        <v>3.076535309785487</v>
+        <v>0.2690974571240555</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.401194567046541</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="H4" t="n">
-        <v>3.277422505040323</v>
+        <v>4.278554325485445</v>
       </c>
       <c r="I4" t="n">
+        <v>395</v>
+      </c>
+      <c r="J4" t="n">
+        <v>390</v>
+      </c>
+      <c r="K4" t="n">
+        <v>405.7999877929688</v>
+      </c>
+      <c r="L4" t="n">
+        <v>389.1499938964844</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
         <v>390.2000122070312</v>
       </c>
-      <c r="J4" t="n">
-        <v>399.7999877929688</v>
-      </c>
-      <c r="K4" t="n">
-        <v>400.2000122070312</v>
-      </c>
-      <c r="L4" t="n">
-        <v>387.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
+      <c r="O4" t="n">
+        <v>1.23013522368164</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -653,37 +701,48 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8357558139534883</v>
+        <v>1.677302595846801</v>
       </c>
       <c r="F5" t="n">
-        <v>2.892445409020712</v>
+        <v>-0.0148397779614077</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.078486597815225</v>
+        <v>0.9340926204972603</v>
       </c>
       <c r="H5" t="n">
-        <v>3.839249416461495</v>
+        <v>1.662216148699688</v>
       </c>
       <c r="I5" t="n">
+        <v>680.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>674.4500122070312</v>
+      </c>
+      <c r="K5" t="n">
+        <v>685</v>
+      </c>
+      <c r="L5" t="n">
+        <v>673.7999877929688</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
         <v>673.7000122070312</v>
       </c>
-      <c r="J5" t="n">
-        <v>688</v>
-      </c>
-      <c r="K5" t="n">
-        <v>693.75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>668.0999755859375</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
+      <c r="O5" t="n">
+        <v>1.046458017697387</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -698,37 +757,48 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.665349858270328</v>
+        <v>1.856264124810102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9198997042142332</v>
+        <v>0.7192345638006868</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03171956676170167</v>
+        <v>-0.2421087967722039</v>
       </c>
       <c r="H6" t="n">
-        <v>2.609252064508176</v>
+        <v>2.59415676067272</v>
       </c>
       <c r="I6" t="n">
+        <v>189.5399932861328</v>
+      </c>
+      <c r="J6" t="n">
+        <v>190</v>
+      </c>
+      <c r="K6" t="n">
+        <v>192.6000061035156</v>
+      </c>
+      <c r="L6" t="n">
+        <v>187.7299957275391</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
         <v>189.0899963378906</v>
       </c>
-      <c r="J6" t="n">
-        <v>189.1499938964844</v>
-      </c>
-      <c r="K6" t="n">
-        <v>192.3000030517578</v>
-      </c>
-      <c r="L6" t="n">
-        <v>187.4100036621094</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
+      <c r="O6" t="n">
+        <v>0.2379803040654114</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -743,37 +813,48 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.400862068965517</v>
+        <v>0.1238163282027077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1724137931034483</v>
+        <v>1.370568990128676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9525904162176724</v>
+        <v>-0.4370076211702474</v>
       </c>
       <c r="H7" t="n">
-        <v>1.575993091537133</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I7" t="n">
+        <v>2323.89990234375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2334.10009765625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2345</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2310</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
         <v>2342.10009765625</v>
       </c>
-      <c r="J7" t="n">
-        <v>2320</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2352.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2316</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
+      <c r="O7" t="n">
+        <v>-0.7770887047361049</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,37 +869,48 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7417991736135877</v>
+        <v>1.544480510453737</v>
       </c>
       <c r="F8" t="n">
-        <v>2.353780313837375</v>
+        <v>-0.2918132089635231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2139800285306705</v>
+        <v>0.5940611325362447</v>
       </c>
       <c r="H8" t="n">
-        <v>3.170199007601351</v>
+        <v>1.249022488884723</v>
       </c>
       <c r="I8" t="n">
+        <v>1422.400024414062</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1414</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1426.699951171875</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1409.099975585938</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
         <v>1405</v>
       </c>
-      <c r="J8" t="n">
-        <v>1402</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1412.400024414062</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1369</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
+      <c r="O8" t="n">
+        <v>1.238435901356761</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SWAMY</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -833,31 +925,2966 @@
         <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9364092326393129</v>
+        <v>0.9815469444041932</v>
       </c>
       <c r="F9" t="n">
-        <v>1.677715223983983</v>
+        <v>1.177853337841476</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6242678605196011</v>
+        <v>1.584784556884142</v>
       </c>
       <c r="H9" t="n">
-        <v>2.65873038098985</v>
+        <v>2.18513800315224</v>
       </c>
       <c r="I9" t="n">
+        <v>25.63999938964844</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25.23999977111816</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.71999931335449</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25.17000007629395</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
         <v>25.46999931335449</v>
       </c>
-      <c r="J9" t="n">
-        <v>25.6299991607666</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25.8700008392334</v>
-      </c>
-      <c r="L9" t="n">
-        <v>25.20000076293945</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0.6674522217392069</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>109.88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.893183044974469</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.303950038630642</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1475550475620339</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.203831630697971</v>
+      </c>
+      <c r="I10" t="n">
+        <v>115.379997253418</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115.2099990844727</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117.3300018310547</v>
+      </c>
+      <c r="L10" t="n">
+        <v>114.8000030517578</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>115.1500015258789</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1997357572655986</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COCHINSHIP</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1443</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4775653807555856</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.216411622253371</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-4.062698986089341</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.900606755822384</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1530.199951171875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1595</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1599</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1524.300048828125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1591.400024414062</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-3.845675022200703</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EXCELINDUS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7156959611269461</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.619745065141909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.08475604043413762</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.37389202519881</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1062.800048828125</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1061.900024414062</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1069.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1044.699951171875</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1061.900024414062</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.08475604043413762</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>379.85</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.34044065387349</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.066098081023454</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.471426827566964</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.454022988505748</v>
+      </c>
+      <c r="I13" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="J13" t="n">
+        <v>350</v>
+      </c>
+      <c r="K13" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>348</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9665938582755863</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HAPPSTMNDS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>573.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.622108207860018</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5945551323006577</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.765538380597583</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.253845901936815</v>
+      </c>
+      <c r="I14" t="n">
+        <v>596.5999755859375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>574.9500122070312</v>
+      </c>
+      <c r="K14" t="n">
+        <v>604</v>
+      </c>
+      <c r="L14" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>571.8499755859375</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.328058241961152</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2244</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1238163282027077</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.370568990128676</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.4370076211702474</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2323.89990234375</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2334.10009765625</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2345</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2310</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2342.10009765625</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.7770887047361049</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.696871654277082</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.09246040862703582</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.661541278545673</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.602005420805471</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66.08000183105469</v>
+      </c>
+      <c r="J16" t="n">
+        <v>65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.63999938964844</v>
+      </c>
+      <c r="L16" t="n">
+        <v>64.94999694824219</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>64.88999938964844</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.833876487285165</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KPIGREEN</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>420.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.503601386119635</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.258361032098139</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.064936650263799</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.809904775269815</v>
+      </c>
+      <c r="I17" t="n">
+        <v>380.8999938964844</v>
+      </c>
+      <c r="J17" t="n">
+        <v>385</v>
+      </c>
+      <c r="K17" t="n">
+        <v>391</v>
+      </c>
+      <c r="L17" t="n">
+        <v>376.6499938964844</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>381.4500122070312</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.1441914518142298</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MAHABANK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>46.28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.816032345861871</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6119253340401491</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.236451097309883</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.442906443315567</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50.63000106811523</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>51.58000183105469</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>50.65999984741211</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.05921590877858529</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1289.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.544480510453737</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.2918132089635231</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5940611325362447</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.249022488884723</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1422.400024414062</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1414</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1426.699951171875</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1409.099975585938</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1405</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.238435901356761</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SAIL</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>116.89</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.7965881019957</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.231203532803545</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.4221598420601218</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.078000116298849</v>
+      </c>
+      <c r="I20" t="n">
+        <v>113.2200012207031</v>
+      </c>
+      <c r="J20" t="n">
+        <v>113.6999969482422</v>
+      </c>
+      <c r="K20" t="n">
+        <v>116.8899993896484</v>
+      </c>
+      <c r="L20" t="n">
+        <v>112.3099975585938</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.7099990844727</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.4309188881494253</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9815469444041932</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.177853337841476</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.584784556884142</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.18513800315224</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.63999938964844</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25.23999977111816</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25.71999931335449</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25.17000007629395</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>25.46999931335449</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6674522217392069</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TATAMOTORS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>624.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.654245337359333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.350409345290066</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.71606864274571</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.059474201637957</v>
+      </c>
+      <c r="I22" t="n">
+        <v>652</v>
+      </c>
+      <c r="J22" t="n">
+        <v>641</v>
+      </c>
+      <c r="K22" t="n">
+        <v>661.3499755859375</v>
+      </c>
+      <c r="L22" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>644.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.202949165696547</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NILLA NAGRAJ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3280.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.094479814765005</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9757637214674734</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.786291728920651</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.090643274853801</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3444.699951171875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3472</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3491.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3420</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3453.699951171875</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.2605900954698225</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>nillanagaraju567@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BAJAJHIND</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.123393146729601</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.484899668875304</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.649482995445861</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.677752750711018</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.71999931335449</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.13999938964844</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19.23999977111816</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>19.53000068664551</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9728551972806855</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.715612721198091</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.698950218867168</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.068802112699639</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.620229130871083</v>
+      </c>
+      <c r="I25" t="n">
+        <v>161.7400054931641</v>
+      </c>
+      <c r="J25" t="n">
+        <v>168.6000061035156</v>
+      </c>
+      <c r="K25" t="n">
+        <v>173.4299926757812</v>
+      </c>
+      <c r="L25" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>165.6199951171875</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-2.342706036960138</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BANKBARODA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>238.45</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8642434783373176</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.444398614553441</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.3567131822238226</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.342476795267843</v>
+      </c>
+      <c r="I26" t="n">
+        <v>248.6100006103516</v>
+      </c>
+      <c r="J26" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>252.0899963378906</v>
+      </c>
+      <c r="L26" t="n">
+        <v>246.3200073242188</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>249.9299926757812</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.5281447221670718</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>59.35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.935284544401637</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.340148710637685</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.013931885421049</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.319925189662723</v>
+      </c>
+      <c r="I27" t="n">
+        <v>224.5399932861328</v>
+      </c>
+      <c r="J27" t="n">
+        <v>226.8399963378906</v>
+      </c>
+      <c r="K27" t="n">
+        <v>231.2299957275391</v>
+      </c>
+      <c r="L27" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.8399963378906</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-1.013931885421049</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BIGBLOC</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.848749840010016</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.254388621442365</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.8487701016287109</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.274800984495533</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>64.80000305175781</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66.66000366210938</v>
+      </c>
+      <c r="L28" t="n">
+        <v>63.31999969482422</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>65.44999694824219</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-1.833456079747634</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>106.68</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.559778676307445</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.026167297399837</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.666668231670673</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.61275723400307</v>
+      </c>
+      <c r="I29" t="n">
+        <v>96.84999847412109</v>
+      </c>
+      <c r="J29" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>98.97000122070312</v>
+      </c>
+      <c r="L29" t="n">
+        <v>96.44999694824219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>97.44999694824219</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.6156988126328685</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>COCHINSHIP</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1519.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4775653807555856</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.216411622253371</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.062698986089341</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.900606755822384</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1530.199951171875</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1595</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1599</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1524.300048828125</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1591.400024414062</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-3.845675022200703</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DELTACORP</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.635552780031655</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.004536926746771</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8387083648353494</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.677026798778531</v>
+      </c>
+      <c r="I31" t="n">
+        <v>93.77999877929688</v>
+      </c>
+      <c r="J31" t="n">
+        <v>93</v>
+      </c>
+      <c r="K31" t="n">
+        <v>95.01999664306641</v>
+      </c>
+      <c r="L31" t="n">
+        <v>91.65000152587891</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>92.58000183105469</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.296172957991523</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EMBDL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.020407229053731</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8775516432158801</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.5247191231816192</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.932468312565473</v>
+      </c>
+      <c r="I32" t="n">
+        <v>98.58000183105469</v>
+      </c>
+      <c r="J32" t="n">
+        <v>99.09999847412109</v>
+      </c>
+      <c r="K32" t="n">
+        <v>100.9599990844727</v>
+      </c>
+      <c r="L32" t="n">
+        <v>97.13999938964844</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>98</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5918386031170281</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.34044065387349</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.066098081023454</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.471426827566964</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.454022988505748</v>
+      </c>
+      <c r="I33" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="J33" t="n">
+        <v>350</v>
+      </c>
+      <c r="K33" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>348</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9665938582755863</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>380.35</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1447.09</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1258.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.373509151081815</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1681867143701822</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3854509710488302</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.544293161380366</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1432.400024414062</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1426.900024414062</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1446.599975585938</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1424.599975585938</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1427</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.37841796875</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IDBI</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.014653062777023</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7265461828275455</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02505231414302501</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.753942447505915</v>
+      </c>
+      <c r="I37" t="n">
+        <v>79.87000274658203</v>
+      </c>
+      <c r="J37" t="n">
+        <v>79.84999847412109</v>
+      </c>
+      <c r="K37" t="n">
+        <v>80.63999938964844</v>
+      </c>
+      <c r="L37" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>79.83000183105469</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.05010762195897005</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.685391678200277</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.264040410074605</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.9831417970412254</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.987191394629267</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.050000190734863</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.119999885559082</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7.239999771118164</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.03000020980835</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.119999885559082</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.9831417970412254</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>72</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.696871654277082</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.09246040862703582</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.661541278545673</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.602005420805471</v>
+      </c>
+      <c r="I39" t="n">
+        <v>66.08000183105469</v>
+      </c>
+      <c r="J39" t="n">
+        <v>65</v>
+      </c>
+      <c r="K39" t="n">
+        <v>66.63999938964844</v>
+      </c>
+      <c r="L39" t="n">
+        <v>64.94999694824219</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>64.88999938964844</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.833876487285165</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>144.59</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.912266494842634</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6409252332987408</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1786164050374283</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.569661336054469</v>
+      </c>
+      <c r="I40" t="n">
+        <v>190.6900024414062</v>
+      </c>
+      <c r="J40" t="n">
+        <v>190.3500061035156</v>
+      </c>
+      <c r="K40" t="n">
+        <v>193.9900054931641</v>
+      </c>
+      <c r="L40" t="n">
+        <v>189.1300048828125</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>190.3500061035156</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.1786164050374283</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>494.85</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.338659551536365</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.39924418463809</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.450128226355947</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.744870028291903</v>
+      </c>
+      <c r="I41" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="J41" t="n">
+        <v>424.1000061035156</v>
+      </c>
+      <c r="K41" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>424.1000061035156</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>425.7999877929688</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.045094489104336</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KALAMANDIR</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>269.35</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6058107691572595</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.871063858624791</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-3.600330854903593</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.757317226424809</v>
+      </c>
+      <c r="I42" t="n">
+        <v>116.7399978637695</v>
+      </c>
+      <c r="J42" t="n">
+        <v>121.0999984741211</v>
+      </c>
+      <c r="K42" t="n">
+        <v>122.8899993896484</v>
+      </c>
+      <c r="L42" t="n">
+        <v>116.1999969482422</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>122.1500015258789</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-4.428983704075684</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KPIGREEN</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>692.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.503601386119635</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.258361032098139</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1.064936650263799</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.809904775269815</v>
+      </c>
+      <c r="I43" t="n">
+        <v>380.8999938964844</v>
+      </c>
+      <c r="J43" t="n">
+        <v>385</v>
+      </c>
+      <c r="K43" t="n">
+        <v>391</v>
+      </c>
+      <c r="L43" t="n">
+        <v>376.6499938964844</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>381.4500122070312</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.1441914518142298</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>89.45</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>357.65</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.436283984257103</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1904486976167532</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.409435645155036</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.239665386105372</v>
+      </c>
+      <c r="I45" t="n">
+        <v>620.5499877929688</v>
+      </c>
+      <c r="J45" t="n">
+        <v>605.9500122070312</v>
+      </c>
+      <c r="K45" t="n">
+        <v>624.5999755859375</v>
+      </c>
+      <c r="L45" t="n">
+        <v>605</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.765589613682873</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NTPC</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9730679243587521</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.96022618212905</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.720483936245244</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.991942955658996</v>
+      </c>
+      <c r="I46" t="n">
+        <v>348.4500122070312</v>
+      </c>
+      <c r="J46" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="K46" t="n">
+        <v>358</v>
+      </c>
+      <c r="L46" t="n">
+        <v>347.6000061035156</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.720483936245244</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ONGC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.446965962363125</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.107674504034154</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.488971029085116</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.583254518068231</v>
+      </c>
+      <c r="I48" t="n">
+        <v>99.72000122070312</v>
+      </c>
+      <c r="J48" t="n">
+        <v>100.2099990844727</v>
+      </c>
+      <c r="K48" t="n">
+        <v>101.6600036621094</v>
+      </c>
+      <c r="L48" t="n">
+        <v>99.09999847412109</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>100.2099990844727</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.488971029085116</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PREMIERENE</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>450</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.545824847250509</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.527494908350306</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.209264121535434</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.136504653567735</v>
+      </c>
+      <c r="I49" t="n">
+        <v>999.2999877929688</v>
+      </c>
+      <c r="J49" t="n">
+        <v>977.7000122070312</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1007</v>
+      </c>
+      <c r="L49" t="n">
+        <v>967</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>982</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.761709551218813</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RPOWER</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.900968975036962</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.1750429904630665</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.521469771496357</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.719415408614911</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40.13000106811523</v>
+      </c>
+      <c r="J50" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.54999923706055</v>
+      </c>
+      <c r="L50" t="n">
+        <v>40.06000137329102</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39.9900016784668</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.3500859809261329</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>353.35</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.870284605767774</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.04437653903548901</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.220981174435833</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.82509815133872</v>
+      </c>
+      <c r="I51" t="n">
+        <v>800</v>
+      </c>
+      <c r="J51" t="n">
+        <v>790.3499755859375</v>
+      </c>
+      <c r="K51" t="n">
+        <v>803.4000244140625</v>
+      </c>
+      <c r="L51" t="n">
+        <v>789</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>788.6500244140625</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.439165058591117</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SUVEN</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.372551413143382</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.788233139935662</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-3.469705810903503</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9.723609755335385</v>
+      </c>
+      <c r="I52" t="n">
+        <v>122.6900024414062</v>
+      </c>
+      <c r="J52" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="K52" t="n">
+        <v>131.8000030517578</v>
+      </c>
+      <c r="L52" t="n">
+        <v>120.120002746582</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-3.772547104779412</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TATAMOTORS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>968.65</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.654245337359333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.350409345290066</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.71606864274571</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.059474201637957</v>
+      </c>
+      <c r="I53" t="n">
+        <v>652</v>
+      </c>
+      <c r="J53" t="n">
+        <v>641</v>
+      </c>
+      <c r="K53" t="n">
+        <v>661.3499755859375</v>
+      </c>
+      <c r="L53" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>644.25</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.202949165696547</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TECHM</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1141.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.064537591483699</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8782402642631405</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.578069845307309</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.959991288417775</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1496.300048828125</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1505</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1519</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1489.800048828125</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1503</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.4457718677228876</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TFCILTD</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.591952565243093</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.241426056044917</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.743717059418185</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.944199190199913</v>
+      </c>
+      <c r="I55" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="J55" t="n">
+        <v>199</v>
+      </c>
+      <c r="K55" t="n">
+        <v>207.8000030517578</v>
+      </c>
+      <c r="L55" t="n">
+        <v>198.0099945068359</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>202.5500030517578</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.925447463700015</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>UCOBANK</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>12</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.864736851610484</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9339742843941038</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.709679634340348</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.843952405823266</v>
+      </c>
+      <c r="I56" t="n">
+        <v>31.53000068664551</v>
+      </c>
+      <c r="J56" t="n">
+        <v>31</v>
+      </c>
+      <c r="K56" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="L56" t="n">
+        <v>30.76000022888184</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>31.04999923706055</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.545898426342125</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VAKRANGEE</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.020209804504464</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.222215372036072</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1.112240713174793</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.338843626578981</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.779999732971191</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9.890000343322754</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10.10000038146973</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.680000305175781</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-1.212120102858114</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VISAKAIND</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5641496920634254</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.949712772484301</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.4582631526831682</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.620661581670699</v>
+      </c>
+      <c r="I58" t="n">
+        <v>60.81999969482422</v>
+      </c>
+      <c r="J58" t="n">
+        <v>61.09999847412109</v>
+      </c>
+      <c r="K58" t="n">
+        <v>62.38999938964844</v>
+      </c>
+      <c r="L58" t="n">
+        <v>60.20999908447266</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>62.04000091552734</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.966475181656201</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VMM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>78</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3155104353281624</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.920473772263068</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.996103140101236</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1207.800048828125</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1232.400024414062</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1240</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1236.099975585938</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-2.289452901606744</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>WABAG</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.544554810008303</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.696360374442688</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.581397241400194</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.314097830563359</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1310.400024414062</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1290</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1317.800048828125</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1263.300048828125</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1285.099975585938</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.968722224633886</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>219.32</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.780539565945264</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3429192918847436</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.097612897926402</v>
+      </c>
+      <c r="I62" t="n">
+        <v>242.8699951171875</v>
+      </c>
+      <c r="J62" t="n">
+        <v>242.0399932861328</v>
+      </c>
+      <c r="K62" t="n">
+        <v>245.8000030517578</v>
+      </c>
+      <c r="L62" t="n">
+        <v>240.75</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.567285762810559</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D63" t="n">
+        <v>171</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.523704673962311</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5079015579874371</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.112858641026963</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.041977467320019</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="J63" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="K63" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="L63" t="n">
+        <v>17.6299991607666</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.112858641026963</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_Analyser.xlsx
+++ b/Portfolio_Analyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,37 +536,37 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1.294994600688371</v>
+        <v>4.271044721348819</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8871226775507196</v>
+        <v>0.4106776180698152</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.46686899342438</v>
+        <v>2.05071090941579</v>
       </c>
       <c r="I2" t="n">
-        <v>2.201648602269805</v>
+        <v>4.701028410921391</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>505.1000061035156</v>
       </c>
       <c r="K2" t="n">
-        <v>494.25</v>
+        <v>494.9500122070312</v>
       </c>
       <c r="L2" t="n">
-        <v>496.7000122070312</v>
+        <v>507.7999877929688</v>
       </c>
       <c r="M2" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>490.3500061035156</v>
+        <v>487</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.683186715981894</v>
+        <v>3.716633696820457</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -595,37 +595,37 @@
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>1.893183044974469</v>
+        <v>1.433911123885336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.303950038630642</v>
+        <v>0.3128535772193585</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1215167005997362</v>
+        <v>0.3968930788753654</v>
       </c>
       <c r="I3" t="n">
-        <v>2.203831630697971</v>
+        <v>1.75224666748563</v>
       </c>
       <c r="J3" t="n">
-        <v>115.0699996948242</v>
+        <v>116.3600006103516</v>
       </c>
       <c r="K3" t="n">
-        <v>115.2099990844727</v>
+        <v>115.9000015258789</v>
       </c>
       <c r="L3" t="n">
-        <v>117.3300018310547</v>
+        <v>116.7200012207031</v>
       </c>
       <c r="M3" t="n">
-        <v>114.8000030517578</v>
+        <v>114.7099990844727</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>115.1500015258789</v>
+        <v>115.0699996948242</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.06947618757669563</v>
+        <v>1.121057546665977</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -654,37 +654,37 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>3.997943387469836</v>
+        <v>2.276751904357151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2690974571240555</v>
+        <v>-0.01265325375448056</v>
       </c>
       <c r="H4" t="n">
-        <v>1.358971228966346</v>
+        <v>-0.5381711881062266</v>
       </c>
       <c r="I4" t="n">
-        <v>4.278554325485445</v>
+        <v>2.263812204699885</v>
       </c>
       <c r="J4" t="n">
-        <v>395.2999877929688</v>
+        <v>397.3500061035156</v>
       </c>
       <c r="K4" t="n">
-        <v>390</v>
+        <v>399.5</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7999877929688</v>
+        <v>404.2999877929688</v>
       </c>
       <c r="M4" t="n">
-        <v>389.1499938964844</v>
+        <v>395.3500061035156</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>390.2000122070312</v>
+        <v>395.2999877929688</v>
       </c>
       <c r="P4" t="n">
-        <v>1.307015742283362</v>
+        <v>0.518598121389403</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -713,37 +713,37 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.462071457245358</v>
+        <v>2.266042520202404</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0148397779614077</v>
+        <v>-0.3605079892651407</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7635796998585272</v>
+        <v>0.788324731979927</v>
       </c>
       <c r="I5" t="n">
-        <v>1.447016945182222</v>
+        <v>1.898689603226286</v>
       </c>
       <c r="J5" t="n">
-        <v>679.5999755859375</v>
+        <v>690.4000244140625</v>
       </c>
       <c r="K5" t="n">
-        <v>674.4500122070312</v>
+        <v>685</v>
       </c>
       <c r="L5" t="n">
-        <v>683.5499877929688</v>
+        <v>695</v>
       </c>
       <c r="M5" t="n">
-        <v>673.7999877929688</v>
+        <v>682.0499877929688</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>673.7000122070312</v>
+        <v>679.5999755859375</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8757552726736723</v>
+        <v>1.589177341981717</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -772,37 +772,37 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.856264124810102</v>
+        <v>2.483816993976415</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7192345638006868</v>
+        <v>0.6103353718607099</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8315799110814145</v>
+        <v>0.8705335094016572</v>
       </c>
       <c r="I6" t="n">
-        <v>2.59415676067272</v>
+        <v>3.113153040020527</v>
       </c>
       <c r="J6" t="n">
-        <v>188.4199981689453</v>
+        <v>191.1900024414062</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>189.5399932861328</v>
       </c>
       <c r="L6" t="n">
-        <v>192.6000061035156</v>
+        <v>193.1000061035156</v>
       </c>
       <c r="M6" t="n">
-        <v>187.7299957275391</v>
+        <v>187.2700042724609</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>189.0899963378906</v>
+        <v>188.4199981689453</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3543276650913211</v>
+        <v>1.470122226610593</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -831,37 +831,37 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1238163282027077</v>
+        <v>1.565591441326754</v>
       </c>
       <c r="G7" t="n">
-        <v>1.370568990128676</v>
+        <v>-0.02156473643322208</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6640674928879049</v>
+        <v>1.054171462954937</v>
       </c>
       <c r="I7" t="n">
-        <v>1.515151515151515</v>
+        <v>1.543693811391769</v>
       </c>
       <c r="J7" t="n">
-        <v>2318.60009765625</v>
+        <v>2348.60009765625</v>
       </c>
       <c r="K7" t="n">
-        <v>2334.10009765625</v>
+        <v>2324.10009765625</v>
       </c>
       <c r="L7" t="n">
-        <v>2345</v>
+        <v>2354.89990234375</v>
       </c>
       <c r="M7" t="n">
-        <v>2310</v>
+        <v>2319.10009765625</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2342.10009765625</v>
+        <v>2318.60009765625</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.003372999451072</v>
+        <v>1.293884185993325</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -890,37 +890,37 @@
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>1.544480510453737</v>
+        <v>1.387515882122624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2918132089635231</v>
+        <v>-0.5000686957151241</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4101873287217114</v>
+        <v>0.02096777275506639</v>
       </c>
       <c r="I8" t="n">
-        <v>1.249022488884723</v>
+        <v>0.8830314226893023</v>
       </c>
       <c r="J8" t="n">
-        <v>1419.800048828125</v>
+        <v>1431.300048828125</v>
       </c>
       <c r="K8" t="n">
-        <v>1414</v>
+        <v>1431</v>
       </c>
       <c r="L8" t="n">
-        <v>1426.699951171875</v>
+        <v>1439.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.099975585938</v>
+        <v>1426.900024414062</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1405</v>
+        <v>1419.800048828125</v>
       </c>
       <c r="P8" t="n">
-        <v>1.053384258229537</v>
+        <v>0.8099732078113304</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -949,37 +949,37 @@
         <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9815469444041932</v>
+        <v>0.625243636022131</v>
       </c>
       <c r="G9" t="n">
-        <v>1.177853337841476</v>
+        <v>0.8206369307115923</v>
       </c>
       <c r="H9" t="n">
-        <v>1.386689321091944</v>
+        <v>-0.7410243027762784</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18513800315224</v>
+        <v>1.457844174421252</v>
       </c>
       <c r="J9" t="n">
-        <v>25.59000015258789</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="K9" t="n">
-        <v>25.23999977111816</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="L9" t="n">
-        <v>25.71999931335449</v>
+        <v>25.75</v>
       </c>
       <c r="M9" t="n">
-        <v>25.17000007629395</v>
+        <v>25.3799991607666</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>25.46999931335449</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4711458283019243</v>
+        <v>-0.5470863181463463</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1008,37 +1008,37 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>1.893183044974469</v>
+        <v>1.433911123885336</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303950038630642</v>
+        <v>0.3128535772193585</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1215167005997362</v>
+        <v>0.3968930788753654</v>
       </c>
       <c r="I10" t="n">
-        <v>2.203831630697971</v>
+        <v>1.75224666748563</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0699996948242</v>
+        <v>116.3600006103516</v>
       </c>
       <c r="K10" t="n">
-        <v>115.2099990844727</v>
+        <v>115.9000015258789</v>
       </c>
       <c r="L10" t="n">
-        <v>117.3300018310547</v>
+        <v>116.7200012207031</v>
       </c>
       <c r="M10" t="n">
-        <v>114.8000030517578</v>
+        <v>114.7099990844727</v>
       </c>
       <c r="N10" t="n">
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>115.1500015258789</v>
+        <v>115.0699996948242</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.06947618757669563</v>
+        <v>1.121057546665977</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1067,37 +1067,37 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4775653807555856</v>
+        <v>1.579837472285545</v>
       </c>
       <c r="G11" t="n">
-        <v>4.109590512174469</v>
+        <v>1.53414278958786</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.962379383816614</v>
+        <v>0.2726355840230445</v>
       </c>
       <c r="I11" t="n">
-        <v>4.783748361730013</v>
+        <v>3.162497489072915</v>
       </c>
       <c r="J11" t="n">
-        <v>1531.800048828125</v>
+        <v>1544.699951171875</v>
       </c>
       <c r="K11" t="n">
-        <v>1595</v>
+        <v>1540.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1599</v>
+        <v>1556</v>
       </c>
       <c r="M11" t="n">
-        <v>1526</v>
+        <v>1508.300048828125</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1591.400024414062</v>
+        <v>1531.800048828125</v>
       </c>
       <c r="P11" t="n">
-        <v>-3.745128482568775</v>
+        <v>0.8421400922149616</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1126,37 +1126,37 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7156959611269461</v>
+        <v>1.117373184419014</v>
       </c>
       <c r="G12" t="n">
-        <v>1.619745065141909</v>
+        <v>1.53990839568662</v>
       </c>
       <c r="H12" t="n">
-        <v>0.291927254418137</v>
+        <v>0.9895361002913892</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37389202519881</v>
+        <v>2.698841263305531</v>
       </c>
       <c r="J12" t="n">
-        <v>1065</v>
+        <v>1061.400024414062</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.900024414062</v>
+        <v>1051</v>
       </c>
       <c r="L12" t="n">
-        <v>1069.5</v>
+        <v>1076.900024414062</v>
       </c>
       <c r="M12" t="n">
-        <v>1044.699951171875</v>
+        <v>1048.599975585938</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.900024414062</v>
+        <v>1065</v>
       </c>
       <c r="P12" t="n">
-        <v>0.291927254418137</v>
+        <v>-0.3380258766138498</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1185,37 +1185,37 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>3.34044065387349</v>
+        <v>3.352110956756162</v>
       </c>
       <c r="G13" t="n">
-        <v>1.066098081023454</v>
+        <v>0.267609072403169</v>
       </c>
       <c r="H13" t="n">
-        <v>1.428571428571429</v>
+        <v>2.276534607956529</v>
       </c>
       <c r="I13" t="n">
-        <v>4.454022988505748</v>
+        <v>3.629432720395879</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>366.1499938964844</v>
       </c>
       <c r="K13" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L13" t="n">
-        <v>363.5</v>
+        <v>366.8999938964844</v>
       </c>
       <c r="M13" t="n">
-        <v>348</v>
+        <v>354.0499877929688</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>351.75</v>
+        <v>355</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9239516702203269</v>
+        <v>3.140843351122359</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1244,37 +1244,37 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>5.045035910254782</v>
+        <v>2.716289488383365</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5945551323006577</v>
+        <v>0.8719000660907148</v>
       </c>
       <c r="H14" t="n">
-        <v>3.730761240388913</v>
+        <v>1.659856869532405</v>
       </c>
       <c r="I14" t="n">
-        <v>5.673322070095136</v>
+        <v>3.619750158498345</v>
       </c>
       <c r="J14" t="n">
-        <v>596.4000244140625</v>
+        <v>609.4000244140625</v>
       </c>
       <c r="K14" t="n">
-        <v>574.9500122070312</v>
+        <v>599.4500122070312</v>
       </c>
       <c r="L14" t="n">
-        <v>600.7000122070312</v>
+        <v>612.5999755859375</v>
       </c>
       <c r="M14" t="n">
-        <v>568.4500122070312</v>
+        <v>591.2000122070312</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>571.8499755859375</v>
+        <v>596.4000244140625</v>
       </c>
       <c r="P14" t="n">
-        <v>4.293092572570307</v>
+        <v>2.179745048262187</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1303,37 +1303,37 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1238163282027077</v>
+        <v>1.565591441326754</v>
       </c>
       <c r="G15" t="n">
-        <v>1.370568990128676</v>
+        <v>-0.02156473643322208</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6640674928879049</v>
+        <v>1.054171462954937</v>
       </c>
       <c r="I15" t="n">
-        <v>1.515151515151515</v>
+        <v>1.543693811391769</v>
       </c>
       <c r="J15" t="n">
-        <v>2318.60009765625</v>
+        <v>2348.60009765625</v>
       </c>
       <c r="K15" t="n">
-        <v>2334.10009765625</v>
+        <v>2324.10009765625</v>
       </c>
       <c r="L15" t="n">
-        <v>2345</v>
+        <v>2354.89990234375</v>
       </c>
       <c r="M15" t="n">
-        <v>2310</v>
+        <v>2319.10009765625</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>2342.10009765625</v>
+        <v>2318.60009765625</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.003372999451072</v>
+        <v>1.293884185993325</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1362,37 +1362,37 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>2.696871654277082</v>
+        <v>2.249053379274764</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09246040862703582</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.923076923076923</v>
+        <v>0.9489339647684922</v>
       </c>
       <c r="I16" t="n">
-        <v>2.602005420805471</v>
+        <v>2.249053379274764</v>
       </c>
       <c r="J16" t="n">
+        <v>67.01999664306641</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.38999938964844</v>
+      </c>
+      <c r="L16" t="n">
+        <v>67.73999786376953</v>
+      </c>
+      <c r="M16" t="n">
         <v>66.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>65</v>
-      </c>
-      <c r="L16" t="n">
-        <v>66.63999938964844</v>
-      </c>
-      <c r="M16" t="n">
-        <v>64.94999694824219</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>64.88999938964844</v>
+        <v>66.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.095855483346662</v>
+        <v>1.162259083873821</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1421,37 +1421,37 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2.503601386119635</v>
+        <v>5.706024954921772</v>
       </c>
       <c r="G17" t="n">
-        <v>1.258361032098139</v>
+        <v>0.3286878885414234</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.220782391436688</v>
+        <v>3.411459922790527</v>
       </c>
       <c r="I17" t="n">
-        <v>3.809904775269815</v>
+        <v>6.054613625147033</v>
       </c>
       <c r="J17" t="n">
-        <v>380.2999877929688</v>
+        <v>397.1000061035156</v>
       </c>
       <c r="K17" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L17" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M17" t="n">
-        <v>376.6499938964844</v>
+        <v>379.0499877929688</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4500122070312</v>
+        <v>380.2999877929688</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.3014875808781798</v>
+        <v>4.417570036760723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1480,37 +1480,37 @@
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>1.816032345861871</v>
+        <v>2.751384356796515</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6119253340401491</v>
+        <v>-0.03958918761371132</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4532010684459667</v>
+        <v>1.469147916177687</v>
       </c>
       <c r="I18" t="n">
-        <v>2.442906443315567</v>
+        <v>2.710722016358062</v>
       </c>
       <c r="J18" t="n">
-        <v>50.52000045776367</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="K18" t="n">
-        <v>50.75</v>
+        <v>51.04999923706055</v>
       </c>
       <c r="L18" t="n">
-        <v>51.58000183105469</v>
+        <v>51.90999984741211</v>
       </c>
       <c r="M18" t="n">
-        <v>50.34999847412109</v>
+        <v>50.54000091552734</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>50.65999984741211</v>
+        <v>50.52000045776367</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2763509476314954</v>
+        <v>2.533647600353834</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1539,37 +1539,37 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1.544480510453737</v>
+        <v>1.387515882122624</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2918132089635231</v>
+        <v>-0.5000686957151241</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4101873287217114</v>
+        <v>0.02096777275506639</v>
       </c>
       <c r="I19" t="n">
-        <v>1.249022488884723</v>
+        <v>0.8830314226893023</v>
       </c>
       <c r="J19" t="n">
-        <v>1419.800048828125</v>
+        <v>1431.300048828125</v>
       </c>
       <c r="K19" t="n">
-        <v>1414</v>
+        <v>1431</v>
       </c>
       <c r="L19" t="n">
-        <v>1426.699951171875</v>
+        <v>1439.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1409.099975585938</v>
+        <v>1426.900024414062</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1405</v>
+        <v>1419.800048828125</v>
       </c>
       <c r="P19" t="n">
-        <v>1.053384258229537</v>
+        <v>0.8099732078113304</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1598,37 +1598,37 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>2.7965881019957</v>
+        <v>2.078173360513444</v>
       </c>
       <c r="G20" t="n">
-        <v>1.231203532803545</v>
+        <v>-0.03537399617936553</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5452903551701328</v>
+        <v>0.692983259234512</v>
       </c>
       <c r="I20" t="n">
-        <v>4.078000116298849</v>
+        <v>2.042077000094086</v>
       </c>
       <c r="J20" t="n">
-        <v>113.0800018310547</v>
+        <v>114.7900009155273</v>
       </c>
       <c r="K20" t="n">
-        <v>113.6999969482422</v>
+        <v>114</v>
       </c>
       <c r="L20" t="n">
-        <v>116.8899993896484</v>
+        <v>115.4300003051758</v>
       </c>
       <c r="M20" t="n">
-        <v>112.3099975585938</v>
+        <v>113.120002746582</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>113.7099990844727</v>
+        <v>113.0800018310547</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.5540385704778326</v>
+        <v>1.512202915443397</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1657,37 +1657,37 @@
         <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9815469444041932</v>
+        <v>0.625243636022131</v>
       </c>
       <c r="G21" t="n">
-        <v>1.177853337841476</v>
+        <v>0.8206369307115923</v>
       </c>
       <c r="H21" t="n">
-        <v>1.386689321091944</v>
+        <v>-0.7410243027762784</v>
       </c>
       <c r="I21" t="n">
-        <v>2.18513800315224</v>
+        <v>1.457844174421252</v>
       </c>
       <c r="J21" t="n">
-        <v>25.59000015258789</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="K21" t="n">
-        <v>25.23999977111816</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="L21" t="n">
-        <v>25.71999931335449</v>
+        <v>25.75</v>
       </c>
       <c r="M21" t="n">
-        <v>25.17000007629395</v>
+        <v>25.3799991607666</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>25.46999931335449</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4711458283019243</v>
+        <v>-0.5470863181463463</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1716,37 +1716,37 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2.654245337359333</v>
+        <v>2.703751269175863</v>
       </c>
       <c r="G22" t="n">
-        <v>1.350409345290066</v>
+        <v>-1.039901441054104</v>
       </c>
       <c r="H22" t="n">
-        <v>1.263646737275741</v>
+        <v>-0.2111809922744657</v>
       </c>
       <c r="I22" t="n">
-        <v>4.059474201637957</v>
+        <v>1.646725505856155</v>
       </c>
       <c r="J22" t="n">
-        <v>649.0999755859375</v>
+        <v>661.5499877929688</v>
       </c>
       <c r="K22" t="n">
-        <v>641</v>
+        <v>662.9500122070312</v>
       </c>
       <c r="L22" t="n">
-        <v>661.3499755859375</v>
+        <v>666.6500244140625</v>
       </c>
       <c r="M22" t="n">
-        <v>635.5499877929688</v>
+        <v>655.8499755859375</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>644.25</v>
+        <v>649.0999755859375</v>
       </c>
       <c r="P22" t="n">
-        <v>0.752809559322856</v>
+        <v>1.918042316330812</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1775,37 +1775,37 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1.094479814765005</v>
+        <v>2.142232585252113</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9757637214674734</v>
+        <v>-0.448845885856893</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.180875576036866</v>
+        <v>0.1246390964673913</v>
       </c>
       <c r="I23" t="n">
-        <v>2.090643274853801</v>
+        <v>1.685819965835613</v>
       </c>
       <c r="J23" t="n">
-        <v>3431</v>
+        <v>3454.300048828125</v>
       </c>
       <c r="K23" t="n">
-        <v>3472</v>
+        <v>3450</v>
       </c>
       <c r="L23" t="n">
-        <v>3491.5</v>
+        <v>3504.5</v>
       </c>
       <c r="M23" t="n">
-        <v>3420</v>
+        <v>3446.39990234375</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>3453.699951171875</v>
+        <v>3431</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.657264715893246</v>
+        <v>0.6791037256812882</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1834,37 +1834,37 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>3.123393146729601</v>
+        <v>1.069796234332024</v>
       </c>
       <c r="G24" t="n">
-        <v>1.484899668875304</v>
+        <v>1.324494817365288</v>
       </c>
       <c r="H24" t="n">
-        <v>1.18556467401494</v>
+        <v>-0.3042569372796623</v>
       </c>
       <c r="I24" t="n">
-        <v>4.677752750711018</v>
+        <v>2.426428977754723</v>
       </c>
       <c r="J24" t="n">
-        <v>19.6299991607666</v>
+        <v>19.65999984741211</v>
       </c>
       <c r="K24" t="n">
-        <v>19.39999961853027</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="L24" t="n">
-        <v>20.13999938964844</v>
+        <v>19.84000015258789</v>
       </c>
       <c r="M24" t="n">
-        <v>19.23999977111816</v>
+        <v>19.3700008392334</v>
       </c>
       <c r="N24" t="n">
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>19.53000068664551</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5120249390952254</v>
+        <v>0.1528308096185176</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1893,37 +1893,37 @@
         <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>4.715612721198091</v>
+        <v>2.527653667635449</v>
       </c>
       <c r="G25" t="n">
-        <v>2.698950218867168</v>
+        <v>0.3090043925245983</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.027288433639202</v>
+        <v>1.475217252444011</v>
       </c>
       <c r="I25" t="n">
-        <v>7.620229130871083</v>
+        <v>2.845450627586408</v>
       </c>
       <c r="J25" t="n">
-        <v>161.8099975585938</v>
+        <v>164.3999938964844</v>
       </c>
       <c r="K25" t="n">
-        <v>168.6000061035156</v>
+        <v>162.0099945068359</v>
       </c>
       <c r="L25" t="n">
-        <v>173.4299926757812</v>
+        <v>165.8999938964844</v>
       </c>
       <c r="M25" t="n">
-        <v>161.1499938964844</v>
+        <v>161.3099975585938</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>165.6199951171875</v>
+        <v>161.8099975585938</v>
       </c>
       <c r="P25" t="n">
-        <v>-2.300445399661989</v>
+        <v>1.600640490061654</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1952,37 +1952,37 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8642434783373176</v>
+        <v>1.292458094258014</v>
       </c>
       <c r="G26" t="n">
-        <v>1.444398614553441</v>
+        <v>0.03231222272224098</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.765532529903557</v>
+        <v>0.2131933894950053</v>
       </c>
       <c r="I26" t="n">
-        <v>2.342476795267843</v>
+        <v>1.325198518076928</v>
       </c>
       <c r="J26" t="n">
-        <v>247.5899963378906</v>
+        <v>249.1300048828125</v>
       </c>
       <c r="K26" t="n">
-        <v>249.5</v>
+        <v>248.6000061035156</v>
       </c>
       <c r="L26" t="n">
-        <v>252.0899963378906</v>
+        <v>250.7899932861328</v>
       </c>
       <c r="M26" t="n">
-        <v>246.3200073242188</v>
+        <v>247.5099945068359</v>
       </c>
       <c r="N26" t="n">
         <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>249.9299926757812</v>
+        <v>247.5899963378906</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.9362607155861272</v>
+        <v>0.62199950228207</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2011,37 +2011,37 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1.935284544401637</v>
+        <v>2.072678745789038</v>
       </c>
       <c r="G27" t="n">
-        <v>1.137366369558406</v>
+        <v>-0.07561187010666628</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.8860847025592172</v>
+        <v>1.653333875868055</v>
       </c>
       <c r="I27" t="n">
-        <v>3.108000263725443</v>
+        <v>1.995557996961806</v>
       </c>
       <c r="J27" t="n">
-        <v>224.8300018310547</v>
+        <v>228.7200012207031</v>
       </c>
       <c r="K27" t="n">
-        <v>226.8399963378906</v>
+        <v>225</v>
       </c>
       <c r="L27" t="n">
-        <v>231.2299957275391</v>
+        <v>229.4900054931641</v>
       </c>
       <c r="M27" t="n">
-        <v>224.2599945068359</v>
+        <v>225</v>
       </c>
       <c r="N27" t="n">
         <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>226.8399963378906</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.8860847025592172</v>
+        <v>1.730195862637373</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2070,37 +2070,37 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1.848749840010016</v>
+        <v>4.015624523162842</v>
       </c>
       <c r="G28" t="n">
-        <v>3.254388621442365</v>
+        <v>0.7343769073486328</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.234572552595136</v>
+        <v>1.884462868334252</v>
       </c>
       <c r="I28" t="n">
-        <v>5.274800984495533</v>
+        <v>4.785142411364279</v>
       </c>
       <c r="J28" t="n">
-        <v>64</v>
+        <v>65.95999908447266</v>
       </c>
       <c r="K28" t="n">
-        <v>64.80000305175781</v>
+        <v>64.73999786376953</v>
       </c>
       <c r="L28" t="n">
-        <v>66.66000366210938</v>
+        <v>66.56999969482422</v>
       </c>
       <c r="M28" t="n">
-        <v>63.31999969482422</v>
+        <v>63.52999877929688</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>65.44999694824219</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
-        <v>-2.215427067764181</v>
+        <v>3.062498569488525</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2129,37 +2129,37 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1.559778676307445</v>
+        <v>1.11731239472683</v>
       </c>
       <c r="G29" t="n">
-        <v>1.026167297399837</v>
+        <v>0.01034775072576329</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.8615347055288461</v>
+        <v>0.1649522289787371</v>
       </c>
       <c r="I29" t="n">
-        <v>2.61275723400307</v>
+        <v>1.127776844989256</v>
       </c>
       <c r="J29" t="n">
-        <v>96.66000366210938</v>
+        <v>97.16000366210938</v>
       </c>
       <c r="K29" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="L29" t="n">
-        <v>98.97000122070312</v>
+        <v>97.73999786376953</v>
       </c>
       <c r="M29" t="n">
-        <v>96.44999694824219</v>
+        <v>96.65000152587891</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>97.44999694824219</v>
+        <v>96.66000366210938</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.8106652753949238</v>
+        <v>0.5172770339920849</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2188,37 +2188,37 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4775653807555856</v>
+        <v>1.579837472285545</v>
       </c>
       <c r="G30" t="n">
-        <v>4.109590512174469</v>
+        <v>1.53414278958786</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.962379383816614</v>
+        <v>0.2726355840230445</v>
       </c>
       <c r="I30" t="n">
-        <v>4.783748361730013</v>
+        <v>3.162497489072915</v>
       </c>
       <c r="J30" t="n">
-        <v>1531.800048828125</v>
+        <v>1544.699951171875</v>
       </c>
       <c r="K30" t="n">
-        <v>1595</v>
+        <v>1540.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1599</v>
+        <v>1556</v>
       </c>
       <c r="M30" t="n">
-        <v>1526</v>
+        <v>1508.300048828125</v>
       </c>
       <c r="N30" t="n">
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1591.400024414062</v>
+        <v>1531.800048828125</v>
       </c>
       <c r="P30" t="n">
-        <v>-3.745128482568775</v>
+        <v>0.8421400922149616</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2247,37 +2247,37 @@
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>2.635552780031655</v>
+        <v>0.2009332131047441</v>
       </c>
       <c r="G31" t="n">
-        <v>1.004536926746771</v>
+        <v>2.167930917186212</v>
       </c>
       <c r="H31" t="n">
-        <v>1.677416729670699</v>
+        <v>-0.7454787713116245</v>
       </c>
       <c r="I31" t="n">
-        <v>3.677026798778531</v>
+        <v>2.42135748788645</v>
       </c>
       <c r="J31" t="n">
-        <v>94.55999755859375</v>
+        <v>93.19999694824219</v>
       </c>
       <c r="K31" t="n">
-        <v>93</v>
+        <v>93.90000152587891</v>
       </c>
       <c r="L31" t="n">
-        <v>95.01999664306641</v>
+        <v>94.75</v>
       </c>
       <c r="M31" t="n">
-        <v>91.65000152587891</v>
+        <v>92.51000213623047</v>
       </c>
       <c r="N31" t="n">
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>92.58000183105469</v>
+        <v>94.55999755859375</v>
       </c>
       <c r="P31" t="n">
-        <v>2.138686204772681</v>
+        <v>-1.43824095332579</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2306,37 +2306,37 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>3.020407229053731</v>
+        <v>1.673769015247799</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8775516432158801</v>
+        <v>1.907085461445245</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.5247191231816192</v>
+        <v>-2.197802451374629</v>
       </c>
       <c r="I32" t="n">
-        <v>3.932468312565473</v>
+        <v>3.650472099374327</v>
       </c>
       <c r="J32" t="n">
-        <v>98.58000183105469</v>
+        <v>97.01000213623047</v>
       </c>
       <c r="K32" t="n">
-        <v>99.09999847412109</v>
+        <v>99.19000244140625</v>
       </c>
       <c r="L32" t="n">
-        <v>100.9599990844727</v>
+        <v>100.2300033569336</v>
       </c>
       <c r="M32" t="n">
-        <v>97.13999938964844</v>
+        <v>96.69999694824219</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>98</v>
+        <v>98.58000183105469</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5918386031170281</v>
+        <v>-1.592614795762397</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2365,37 +2365,37 @@
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>3.34044065387349</v>
+        <v>3.352110956756162</v>
       </c>
       <c r="G33" t="n">
-        <v>1.066098081023454</v>
+        <v>0.267609072403169</v>
       </c>
       <c r="H33" t="n">
-        <v>1.428571428571429</v>
+        <v>2.276534607956529</v>
       </c>
       <c r="I33" t="n">
-        <v>4.454022988505748</v>
+        <v>3.629432720395879</v>
       </c>
       <c r="J33" t="n">
-        <v>355</v>
+        <v>366.1499938964844</v>
       </c>
       <c r="K33" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L33" t="n">
-        <v>363.5</v>
+        <v>366.8999938964844</v>
       </c>
       <c r="M33" t="n">
-        <v>348</v>
+        <v>354.0499877929688</v>
       </c>
       <c r="N33" t="n">
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>351.75</v>
+        <v>355</v>
       </c>
       <c r="P33" t="n">
-        <v>0.9239516702203269</v>
+        <v>3.140843351122359</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2424,37 +2424,37 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1.15841301517748</v>
+        <v>2.846715328467153</v>
       </c>
       <c r="G34" t="n">
-        <v>1.607294523362784</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.8108855754282669</v>
+        <v>3.03296882154304</v>
       </c>
       <c r="I34" t="n">
-        <v>2.810886767614055</v>
+        <v>3.223443223443224</v>
       </c>
       <c r="J34" t="n">
-        <v>1370</v>
+        <v>1406.400024414062</v>
       </c>
       <c r="K34" t="n">
-        <v>1381.199951171875</v>
+        <v>1365</v>
       </c>
       <c r="L34" t="n">
-        <v>1397.199951171875</v>
+        <v>1409</v>
       </c>
       <c r="M34" t="n">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="N34" t="n">
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1381.199951171875</v>
+        <v>1370</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.8108855754282669</v>
+        <v>2.656936088617701</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2483,37 +2483,37 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8779233461850648</v>
+        <v>1.566157198791555</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2597402597402597</v>
+        <v>-0.5411324357120604</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.4093701012630716</v>
+        <v>-0.113458028461836</v>
       </c>
       <c r="I35" t="n">
-        <v>1.140626271565755</v>
+        <v>1.019507875281707</v>
       </c>
       <c r="J35" t="n">
-        <v>1921.900024414062</v>
+        <v>1936.800048828125</v>
       </c>
       <c r="K35" t="n">
-        <v>1929.800048828125</v>
+        <v>1939</v>
       </c>
       <c r="L35" t="n">
-        <v>1941.900024414062</v>
+        <v>1952</v>
       </c>
       <c r="M35" t="n">
-        <v>1920</v>
+        <v>1932.300048828125</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1925</v>
+        <v>1921.900024414062</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.161037692775974</v>
+        <v>0.7752757284346844</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2542,37 +2542,37 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1.373509151081815</v>
+        <v>1.167755648366135</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1681867143701822</v>
+        <v>0.2866915359716489</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2242589611832838</v>
+        <v>-0.7361094156901042</v>
       </c>
       <c r="I36" t="n">
-        <v>1.544293161380366</v>
+        <v>1.458628950078892</v>
       </c>
       <c r="J36" t="n">
-        <v>1430.099975585938</v>
+        <v>1429.400024414062</v>
       </c>
       <c r="K36" t="n">
-        <v>1426.900024414062</v>
+        <v>1440</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.599975585938</v>
+        <v>1446.800048828125</v>
       </c>
       <c r="M36" t="n">
-        <v>1424.599975585938</v>
+        <v>1426</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>1427</v>
+        <v>1430.099975585938</v>
       </c>
       <c r="P36" t="n">
-        <v>0.2172372519928171</v>
+        <v>-0.04894421256025947</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2601,37 +2601,37 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>1.014653062777023</v>
+        <v>3.185995041710429</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7265461828275455</v>
+        <v>-0.01258595438235246</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5510267005882517</v>
+        <v>1.011864494333662</v>
       </c>
       <c r="I37" t="n">
-        <v>1.753942447505915</v>
+        <v>3.173009733770437</v>
       </c>
       <c r="J37" t="n">
-        <v>79.41000366210938</v>
+        <v>80.86000061035156</v>
       </c>
       <c r="K37" t="n">
-        <v>79.84999847412109</v>
+        <v>80.05000305175781</v>
       </c>
       <c r="L37" t="n">
-        <v>80.63999938964844</v>
+        <v>81.94000244140625</v>
       </c>
       <c r="M37" t="n">
-        <v>79.25</v>
+        <v>79.41999816894531</v>
       </c>
       <c r="N37" t="n">
         <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>79.83000183105469</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.5261156949916652</v>
+        <v>1.825962575712682</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2660,37 +2660,37 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1.685391678200277</v>
+        <v>1.843966440945715</v>
       </c>
       <c r="G38" t="n">
-        <v>1.264040410074605</v>
+        <v>0.5673753300829047</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.9831417970412254</v>
+        <v>0.9887030002217159</v>
       </c>
       <c r="I38" t="n">
-        <v>2.987191394629267</v>
+        <v>2.425101196949657</v>
       </c>
       <c r="J38" t="n">
-        <v>7.050000190734863</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="K38" t="n">
-        <v>7.119999885559082</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="L38" t="n">
-        <v>7.239999771118164</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="M38" t="n">
-        <v>7.03000020980835</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="N38" t="n">
         <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>7.119999885559082</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.9831417970412254</v>
+        <v>1.418438325207262</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2719,37 +2719,37 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>2.696871654277082</v>
+        <v>2.249053379274764</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.09246040862703582</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.923076923076923</v>
+        <v>0.9489339647684922</v>
       </c>
       <c r="I39" t="n">
-        <v>2.602005420805471</v>
+        <v>2.249053379274764</v>
       </c>
       <c r="J39" t="n">
+        <v>67.01999664306641</v>
+      </c>
+      <c r="K39" t="n">
+        <v>66.38999938964844</v>
+      </c>
+      <c r="L39" t="n">
+        <v>67.73999786376953</v>
+      </c>
+      <c r="M39" t="n">
         <v>66.25</v>
-      </c>
-      <c r="K39" t="n">
-        <v>65</v>
-      </c>
-      <c r="L39" t="n">
-        <v>66.63999938964844</v>
-      </c>
-      <c r="M39" t="n">
-        <v>64.94999694824219</v>
       </c>
       <c r="N39" t="n">
         <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>64.88999938964844</v>
+        <v>66.25</v>
       </c>
       <c r="P39" t="n">
-        <v>2.095855483346662</v>
+        <v>1.162259083873821</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2778,37 +2778,37 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>1.912266494842634</v>
+        <v>3.128119850969529</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6409252332987408</v>
+        <v>0.1469578444816008</v>
       </c>
       <c r="H40" t="n">
-        <v>0.09455879695815028</v>
+        <v>1.90078297109579</v>
       </c>
       <c r="I40" t="n">
-        <v>2.569661336054469</v>
+        <v>3.279897762504107</v>
       </c>
       <c r="J40" t="n">
-        <v>190.5299987792969</v>
+        <v>195.1399993896484</v>
       </c>
       <c r="K40" t="n">
-        <v>190.3500061035156</v>
+        <v>191.5</v>
       </c>
       <c r="L40" t="n">
-        <v>193.9900054931641</v>
+        <v>196.4900054931641</v>
       </c>
       <c r="M40" t="n">
-        <v>189.1300048828125</v>
+        <v>190.25</v>
       </c>
       <c r="N40" t="n">
         <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>190.3500061035156</v>
+        <v>190.5299987792969</v>
       </c>
       <c r="P40" t="n">
-        <v>0.09455879695815028</v>
+        <v>2.419566808317478</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2837,37 +2837,37 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1.338659551536365</v>
+        <v>2.09545983701979</v>
       </c>
       <c r="G41" t="n">
-        <v>0.39924418463809</v>
+        <v>0.03492290954234575</v>
       </c>
       <c r="H41" t="n">
-        <v>1.273283145194374</v>
+        <v>1.557237003377397</v>
       </c>
       <c r="I41" t="n">
-        <v>1.744870028291903</v>
+        <v>2.131126998115921</v>
       </c>
       <c r="J41" t="n">
-        <v>429.5</v>
+        <v>436.9500122070312</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1000061035156</v>
+        <v>430.25</v>
       </c>
       <c r="L41" t="n">
-        <v>431.5</v>
+        <v>438.5</v>
       </c>
       <c r="M41" t="n">
-        <v>424.1000061035156</v>
+        <v>429.3500061035156</v>
       </c>
       <c r="N41" t="n">
         <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>425.7999877929688</v>
+        <v>429.5</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8689554516451182</v>
+        <v>1.734577929460128</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2896,37 +2896,37 @@
         <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6058107691572595</v>
+        <v>2.026856016759221</v>
       </c>
       <c r="G42" t="n">
-        <v>4.862875454117608</v>
+        <v>1.650560420883153</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.443433708908292</v>
+        <v>0.3399350149598898</v>
       </c>
       <c r="I42" t="n">
-        <v>5.748214747269821</v>
+        <v>3.739133088485054</v>
       </c>
       <c r="J42" t="n">
-        <v>116.9300003051758</v>
+        <v>118.0699996948242</v>
       </c>
       <c r="K42" t="n">
-        <v>121.0999984741211</v>
+        <v>117.6699981689453</v>
       </c>
       <c r="L42" t="n">
-        <v>122.8899993896484</v>
+        <v>119.3000030517578</v>
       </c>
       <c r="M42" t="n">
-        <v>116.2099990844727</v>
+        <v>115</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>122.1500015258789</v>
+        <v>116.9300003051758</v>
       </c>
       <c r="P42" t="n">
-        <v>-4.273435248052131</v>
+        <v>0.974941748630079</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2955,37 +2955,37 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>2.503601386119635</v>
+        <v>5.706024954921772</v>
       </c>
       <c r="G43" t="n">
-        <v>1.258361032098139</v>
+        <v>0.3286878885414234</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.220782391436688</v>
+        <v>3.411459922790527</v>
       </c>
       <c r="I43" t="n">
-        <v>3.809904775269815</v>
+        <v>6.054613625147033</v>
       </c>
       <c r="J43" t="n">
-        <v>380.2999877929688</v>
+        <v>397.1000061035156</v>
       </c>
       <c r="K43" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L43" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
-        <v>376.6499938964844</v>
+        <v>379.0499877929688</v>
       </c>
       <c r="N43" t="n">
         <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>381.4500122070312</v>
+        <v>380.2999877929688</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.3014875808781798</v>
+        <v>4.417570036760723</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3014,37 +3014,37 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2.637511043034024</v>
+        <v>1.308047898643409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4446584246092474</v>
+        <v>0.258015075675938</v>
       </c>
       <c r="H44" t="n">
-        <v>1.313072135020896</v>
+        <v>0.1919660048452835</v>
       </c>
       <c r="I44" t="n">
-        <v>3.095935807029723</v>
+        <v>1.570114105416636</v>
       </c>
       <c r="J44" t="n">
-        <v>166.6600036621094</v>
+        <v>167.0200042724609</v>
       </c>
       <c r="K44" t="n">
-        <v>164.5</v>
+        <v>166.6999969482422</v>
       </c>
       <c r="L44" t="n">
-        <v>168.5</v>
+        <v>168.8399963378906</v>
       </c>
       <c r="M44" t="n">
-        <v>163.4400024414062</v>
+        <v>166.2299957275391</v>
       </c>
       <c r="N44" t="n">
         <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>164.1699981689453</v>
+        <v>166.6600036621094</v>
       </c>
       <c r="P44" t="n">
-        <v>1.516723835619239</v>
+        <v>0.2160090018247189</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3073,37 +3073,37 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>3.436283984257103</v>
+        <v>1.727759150321226</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1904486976167532</v>
+        <v>0.6943303532578513</v>
       </c>
       <c r="H45" t="n">
-        <v>2.20314800181509</v>
+        <v>-0.6912052663108882</v>
       </c>
       <c r="I45" t="n">
-        <v>3.239665386105372</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="J45" t="n">
-        <v>619.2999877929688</v>
+        <v>617.7999877929688</v>
       </c>
       <c r="K45" t="n">
-        <v>605.9500122070312</v>
+        <v>622.0999755859375</v>
       </c>
       <c r="L45" t="n">
-        <v>624.5999755859375</v>
+        <v>630</v>
       </c>
       <c r="M45" t="n">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="N45" t="n">
         <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>603.8499755859375</v>
+        <v>619.2999877929688</v>
       </c>
       <c r="P45" t="n">
-        <v>2.558584554390276</v>
+        <v>-0.2422089503579077</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3132,37 +3132,37 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9730679243587521</v>
+        <v>0.9463687058919491</v>
       </c>
       <c r="G46" t="n">
-        <v>1.96022618212905</v>
+        <v>0.9033622895866886</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.649972017303653</v>
+        <v>-0.6837589448673433</v>
       </c>
       <c r="I46" t="n">
-        <v>2.991942955658996</v>
+        <v>1.866593093586124</v>
       </c>
       <c r="J46" t="n">
-        <v>348.7000122070312</v>
+        <v>348.6000061035156</v>
       </c>
       <c r="K46" t="n">
-        <v>354.5499877929688</v>
+        <v>351</v>
       </c>
       <c r="L46" t="n">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6000061035156</v>
+        <v>345.5499877929688</v>
       </c>
       <c r="N46" t="n">
         <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>354.5499877929688</v>
+        <v>348.7000122070312</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.649972017303653</v>
+        <v>-0.02867969601797693</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3191,37 +3191,37 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7445315389404988</v>
+        <v>-0.6550265966457947</v>
       </c>
       <c r="G47" t="n">
-        <v>2.229493563624844</v>
+        <v>3.394580747587613</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7219939805660011</v>
+        <v>-0.3333346048990886</v>
       </c>
       <c r="I47" t="n">
-        <v>3.04184279182466</v>
+        <v>2.83581829274387</v>
       </c>
       <c r="J47" t="n">
-        <v>242.7400054931641</v>
+        <v>239.1999969482422</v>
       </c>
       <c r="K47" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L47" t="n">
-        <v>246.2700042724609</v>
+        <v>241.1499938964844</v>
       </c>
       <c r="M47" t="n">
-        <v>239</v>
+        <v>234.5</v>
       </c>
       <c r="N47" t="n">
         <v>4</v>
       </c>
       <c r="O47" t="n">
-        <v>244.4499969482422</v>
+        <v>242.7400054931641</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.6995260693090475</v>
+        <v>-1.458353985668657</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3250,37 +3250,37 @@
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>1.446965962363125</v>
+        <v>1.075376577712783</v>
       </c>
       <c r="G48" t="n">
-        <v>1.107674504034154</v>
+        <v>0.3015106047817211</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.7085112174027244</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.583254518068231</v>
+        <v>1.381051198314888</v>
       </c>
       <c r="J48" t="n">
-        <v>99.5</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="K48" t="n">
-        <v>100.2099990844727</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="L48" t="n">
-        <v>101.6600036621094</v>
+        <v>100.5699996948242</v>
       </c>
       <c r="M48" t="n">
-        <v>99.09999847412109</v>
+        <v>99.19999694824219</v>
       </c>
       <c r="N48" t="n">
         <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>100.2099990844727</v>
+        <v>99.5</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.7085112174027244</v>
+        <v>-0.1005009790161746</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3309,37 +3309,37 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1.165989023119272</v>
+        <v>3.609557702084393</v>
       </c>
       <c r="G49" t="n">
-        <v>1.527494908350306</v>
+        <v>-0.1575991655280884</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5932277509004044</v>
+        <v>-0.970292296547701</v>
       </c>
       <c r="I49" t="n">
-        <v>2.735264964532704</v>
+        <v>3.446526839018309</v>
       </c>
       <c r="J49" t="n">
-        <v>983.5</v>
+        <v>990</v>
       </c>
       <c r="K49" t="n">
-        <v>977.7000122070312</v>
+        <v>999.7000122070312</v>
       </c>
       <c r="L49" t="n">
-        <v>993.4500122070312</v>
+        <v>1019</v>
       </c>
       <c r="M49" t="n">
-        <v>967</v>
+        <v>985.0499877929688</v>
       </c>
       <c r="N49" t="n">
         <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>982</v>
+        <v>983.5</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1527494908350305</v>
+        <v>0.6609049313675649</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3368,37 +3368,37 @@
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>3.900968975036962</v>
+        <v>2.411139029929017</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.325074388501383</v>
+        <v>0.8451408313612685</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.276074742978336</v>
+        <v>-0.1225771903366491</v>
       </c>
       <c r="I50" t="n">
-        <v>3.564307934313802</v>
+        <v>3.284034578428609</v>
       </c>
       <c r="J50" t="n">
-        <v>40.22999954223633</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="K50" t="n">
-        <v>40.75</v>
+        <v>40.79000091552734</v>
       </c>
       <c r="L50" t="n">
-        <v>41.54999923706055</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="M50" t="n">
-        <v>40.11999893188477</v>
+        <v>39.88999938964844</v>
       </c>
       <c r="N50" t="n">
         <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>39.9900016784668</v>
+        <v>40.22999954223633</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6001446704083577</v>
+        <v>1.267715988152155</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3427,37 +3427,37 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1.870284605767774</v>
+        <v>0.2886893131327169</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.04437653903548901</v>
+        <v>1.845112587146703</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8034461716008858</v>
+        <v>1.023017902813299</v>
       </c>
       <c r="I51" t="n">
-        <v>1.82509815133872</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="J51" t="n">
-        <v>796.7000122070312</v>
+        <v>790</v>
       </c>
       <c r="K51" t="n">
-        <v>790.3499755859375</v>
+        <v>782</v>
       </c>
       <c r="L51" t="n">
-        <v>803.4000244140625</v>
+        <v>799</v>
       </c>
       <c r="M51" t="n">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N51" t="n">
         <v>4</v>
       </c>
       <c r="O51" t="n">
-        <v>788.6500244140625</v>
+        <v>796.7000122070312</v>
       </c>
       <c r="P51" t="n">
-        <v>1.020730050563251</v>
+        <v>-0.8409705164269757</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3486,37 +3486,37 @@
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>3.372551413143382</v>
+        <v>7.662763943635848</v>
       </c>
       <c r="G52" t="n">
-        <v>5.788233139935662</v>
+        <v>-0.4819837596927151</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.690003830304255</v>
+        <v>6.359644271432188</v>
       </c>
       <c r="I52" t="n">
-        <v>9.723609755335385</v>
+        <v>7.146336004986026</v>
       </c>
       <c r="J52" t="n">
-        <v>122.4100036621094</v>
+        <v>130.9499969482422</v>
       </c>
       <c r="K52" t="n">
-        <v>127.0999984741211</v>
+        <v>123.120002746582</v>
       </c>
       <c r="L52" t="n">
-        <v>131.8000030517578</v>
+        <v>131.7899932861328</v>
       </c>
       <c r="M52" t="n">
-        <v>120.120002746582</v>
+        <v>123</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
       </c>
       <c r="O52" t="n">
-        <v>127.5</v>
+        <v>122.4100036621094</v>
       </c>
       <c r="P52" t="n">
-        <v>-3.992153990502451</v>
+        <v>6.976548509634814</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3545,37 +3545,37 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>2.654245337359333</v>
+        <v>2.703751269175863</v>
       </c>
       <c r="G53" t="n">
-        <v>1.350409345290066</v>
+        <v>-1.039901441054104</v>
       </c>
       <c r="H53" t="n">
-        <v>1.263646737275741</v>
+        <v>-0.2111809922744657</v>
       </c>
       <c r="I53" t="n">
-        <v>4.059474201637957</v>
+        <v>1.646725505856155</v>
       </c>
       <c r="J53" t="n">
-        <v>649.0999755859375</v>
+        <v>661.5499877929688</v>
       </c>
       <c r="K53" t="n">
-        <v>641</v>
+        <v>662.9500122070312</v>
       </c>
       <c r="L53" t="n">
-        <v>661.3499755859375</v>
+        <v>666.6500244140625</v>
       </c>
       <c r="M53" t="n">
-        <v>635.5499877929688</v>
+        <v>655.8499755859375</v>
       </c>
       <c r="N53" t="n">
         <v>4</v>
       </c>
       <c r="O53" t="n">
-        <v>644.25</v>
+        <v>649.0999755859375</v>
       </c>
       <c r="P53" t="n">
-        <v>0.752809559322856</v>
+        <v>1.918042316330812</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3604,37 +3604,37 @@
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>1.064537591483699</v>
+        <v>0.8299327097706172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8782402642631405</v>
+        <v>0.2409460976348458</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.724254113891196</v>
+        <v>-0.2935306480361908</v>
       </c>
       <c r="I54" t="n">
-        <v>1.959991288417775</v>
+        <v>1.073465280107347</v>
       </c>
       <c r="J54" t="n">
-        <v>1494.099975585938</v>
+        <v>1494.599975585938</v>
       </c>
       <c r="K54" t="n">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="L54" t="n">
-        <v>1519</v>
+        <v>1506.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1489.800048828125</v>
+        <v>1490.5</v>
       </c>
       <c r="N54" t="n">
         <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1503</v>
+        <v>1494.099975585938</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.5921506596182634</v>
+        <v>0.03346496273142072</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3663,37 +3663,37 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2.591952565243093</v>
+        <v>3.646651308691142</v>
       </c>
       <c r="G55" t="n">
-        <v>2.241426056044917</v>
+        <v>0.3266371806232418</v>
       </c>
       <c r="H55" t="n">
-        <v>3.075374430747488</v>
+        <v>1.866537985197942</v>
       </c>
       <c r="I55" t="n">
-        <v>4.944199190199913</v>
+        <v>3.986309257483953</v>
       </c>
       <c r="J55" t="n">
-        <v>205.1199951171875</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="K55" t="n">
-        <v>199</v>
+        <v>206.8000030517578</v>
       </c>
       <c r="L55" t="n">
-        <v>207.8000030517578</v>
+        <v>212.6000061035156</v>
       </c>
       <c r="M55" t="n">
-        <v>198.0099945068359</v>
+        <v>204.4499969482422</v>
       </c>
       <c r="N55" t="n">
         <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>202.5500030517578</v>
+        <v>205.1199951171875</v>
       </c>
       <c r="P55" t="n">
-        <v>1.268818576503786</v>
+        <v>2.700862264430536</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3722,37 +3722,37 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>3.864736851610484</v>
+        <v>0.8617952710538446</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9339742843941038</v>
+        <v>0.9575462425505799</v>
       </c>
       <c r="H56" t="n">
-        <v>1.064515882922757</v>
+        <v>-0.3488760163527466</v>
       </c>
       <c r="I56" t="n">
-        <v>4.843952405823266</v>
+        <v>1.836930977154414</v>
       </c>
       <c r="J56" t="n">
-        <v>31.32999992370605</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K56" t="n">
-        <v>31</v>
+        <v>31.53000068664551</v>
       </c>
       <c r="L56" t="n">
-        <v>32.25</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="M56" t="n">
-        <v>30.76000022888184</v>
+        <v>31.03000068664551</v>
       </c>
       <c r="N56" t="n">
         <v>4</v>
       </c>
       <c r="O56" t="n">
-        <v>31.04999923706055</v>
+        <v>31.32999992370605</v>
       </c>
       <c r="P56" t="n">
-        <v>0.9017735701304159</v>
+        <v>0.2872650903512815</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3781,37 +3781,37 @@
         <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>2.020209804504464</v>
+        <v>1.323830127097015</v>
       </c>
       <c r="G57" t="n">
-        <v>2.222215372036072</v>
+        <v>0.9164985273403479</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.7077921746059006</v>
+        <v>-1.608038698283415</v>
       </c>
       <c r="I57" t="n">
-        <v>4.338843626578981</v>
+        <v>2.261051154975122</v>
       </c>
       <c r="J57" t="n">
-        <v>9.819999694824219</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="K57" t="n">
-        <v>9.890000343322754</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="L57" t="n">
-        <v>10.10000038146973</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="M57" t="n">
-        <v>9.680000305175781</v>
+        <v>9.729999542236328</v>
       </c>
       <c r="N57" t="n">
         <v>4</v>
       </c>
       <c r="O57" t="n">
-        <v>9.899999618530273</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.8080800685720759</v>
+        <v>-0.3054962719296542</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3840,37 +3840,37 @@
         <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5641496920634254</v>
+        <v>1.500411911818039</v>
       </c>
       <c r="G58" t="n">
-        <v>2.949712772484301</v>
+        <v>1.368510816443314</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.7364925687073196</v>
+        <v>1.070836413528513</v>
       </c>
       <c r="I58" t="n">
-        <v>3.620661581670699</v>
+        <v>2.908728999236933</v>
       </c>
       <c r="J58" t="n">
-        <v>60.65000152587891</v>
+        <v>61.34999847412109</v>
       </c>
       <c r="K58" t="n">
-        <v>61.09999847412109</v>
+        <v>60.70000076293945</v>
       </c>
       <c r="L58" t="n">
-        <v>62.38999938964844</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="M58" t="n">
-        <v>60.20999908447266</v>
+        <v>59.81999969482422</v>
       </c>
       <c r="N58" t="n">
         <v>4</v>
       </c>
       <c r="O58" t="n">
-        <v>62.04000091552734</v>
+        <v>60.65000152587891</v>
       </c>
       <c r="P58" t="n">
-        <v>-2.240488989581154</v>
+        <v>1.154158170867488</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3899,37 +3899,37 @@
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>2.970962646297403</v>
+        <v>4.790421023423904</v>
       </c>
       <c r="G59" t="n">
-        <v>2.717759224738144</v>
+        <v>3.127074662040468</v>
       </c>
       <c r="H59" t="n">
-        <v>3.699871520861114</v>
+        <v>1.762440825910898</v>
       </c>
       <c r="I59" t="n">
-        <v>5.847646832249104</v>
+        <v>8.173073805547515</v>
       </c>
       <c r="J59" t="n">
-        <v>120.2399978637695</v>
+        <v>124.1399993896484</v>
       </c>
       <c r="K59" t="n">
-        <v>115.9499969482422</v>
+        <v>121.9899978637695</v>
       </c>
       <c r="L59" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M59" t="n">
-        <v>115.2600021362305</v>
+        <v>116.4800033569336</v>
       </c>
       <c r="N59" t="n">
         <v>4</v>
       </c>
       <c r="O59" t="n">
-        <v>118.4800033569336</v>
+        <v>120.2399978637695</v>
       </c>
       <c r="P59" t="n">
-        <v>1.485478103451573</v>
+        <v>3.243514300705129</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3958,37 +3958,37 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3155104353281624</v>
+        <v>3.938187551971924</v>
       </c>
       <c r="G60" t="n">
-        <v>2.920473772263068</v>
+        <v>-0.9388541922015162</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.336907518467294</v>
+        <v>1.747337885818294</v>
       </c>
       <c r="I60" t="n">
-        <v>3.333333333333333</v>
+        <v>2.971435909168597</v>
       </c>
       <c r="J60" t="n">
-        <v>1203.599975585938</v>
+        <v>1240.300048828125</v>
       </c>
       <c r="K60" t="n">
-        <v>1232.400024414062</v>
+        <v>1219</v>
       </c>
       <c r="L60" t="n">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="M60" t="n">
-        <v>1200</v>
+        <v>1214.900024414062</v>
       </c>
       <c r="N60" t="n">
         <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>1236.099975585938</v>
+        <v>1203.599975585938</v>
       </c>
       <c r="P60" t="n">
-        <v>-2.629237168667875</v>
+        <v>3.04919192311558</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -4017,37 +4017,37 @@
         <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>2.544554810008303</v>
+        <v>1.842468942869762</v>
       </c>
       <c r="G61" t="n">
-        <v>1.696360374442688</v>
+        <v>0.5834466243190944</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9767422934835271</v>
+        <v>0.7621951219512195</v>
       </c>
       <c r="I61" t="n">
-        <v>4.314097830563359</v>
+        <v>2.440152554898649</v>
       </c>
       <c r="J61" t="n">
-        <v>1302.599975585938</v>
+        <v>1322</v>
       </c>
       <c r="K61" t="n">
-        <v>1290</v>
+        <v>1312</v>
       </c>
       <c r="L61" t="n">
-        <v>1317.800048828125</v>
+        <v>1326.599975585938</v>
       </c>
       <c r="M61" t="n">
-        <v>1263.300048828125</v>
+        <v>1295</v>
       </c>
       <c r="N61" t="n">
         <v>4</v>
       </c>
       <c r="O61" t="n">
-        <v>1285.099975585938</v>
+        <v>1302.599975585938</v>
       </c>
       <c r="P61" t="n">
-        <v>1.361761756475089</v>
+        <v>1.489330936409388</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4076,37 +4076,37 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>1.780539565945264</v>
+        <v>2.147468801179892</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3105590062111801</v>
+        <v>-0.4220474608460016</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.148736002453107</v>
+        <v>-0.1762265064677254</v>
       </c>
       <c r="I62" t="n">
-        <v>2.097612897926402</v>
+        <v>1.718169848116891</v>
       </c>
       <c r="J62" t="n">
-        <v>241.6799926757812</v>
+        <v>243.5700073242188</v>
       </c>
       <c r="K62" t="n">
-        <v>242.0399932861328</v>
+        <v>244</v>
       </c>
       <c r="L62" t="n">
-        <v>245.8000030517578</v>
+        <v>246.8699951171875</v>
       </c>
       <c r="M62" t="n">
-        <v>240.75</v>
+        <v>242.6999969482422</v>
       </c>
       <c r="N62" t="n">
         <v>4</v>
       </c>
       <c r="O62" t="n">
-        <v>241.5</v>
+        <v>241.6799926757812</v>
       </c>
       <c r="P62" t="n">
-        <v>0.07453112868788819</v>
+        <v>0.7820319040529738</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4135,28 +4135,28 @@
         <v>171</v>
       </c>
       <c r="F63" t="n">
-        <v>1.523704673962311</v>
+        <v>0.6772056652562117</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5079015579874371</v>
+        <v>1.185096459424762</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.1694846214904517</v>
       </c>
       <c r="I63" t="n">
-        <v>2.041977467320019</v>
+        <v>1.884636889734227</v>
       </c>
       <c r="J63" t="n">
-        <v>17.71999931335449</v>
+        <v>17.72999954223633</v>
       </c>
       <c r="K63" t="n">
-        <v>17.71999931335449</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="L63" t="n">
-        <v>17.98999977111816</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="M63" t="n">
-        <v>17.6299991607666</v>
+        <v>17.51000022888184</v>
       </c>
       <c r="N63" t="n">
         <v>4</v>
@@ -4165,11 +4165,129 @@
         <v>17.71999931335449</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.05643470242292487</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HARSH VARDHAN</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>STERTOOLS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>356.45</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.077920034946162</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9881703720336572</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.4996736724608087</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.106671316203346</v>
+      </c>
+      <c r="J64" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="K64" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="L64" t="n">
+        <v>318.1499938964844</v>
+      </c>
+      <c r="M64" t="n">
+        <v>305.6000061035156</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>308.6499938964844</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.004375883628013</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>nunna.harshavardhan2001@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>HARSH VARDHAN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TATAMOTORS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>873.5667</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.703751269175863</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.039901441054104</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.2111809922744657</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.646725505856155</v>
+      </c>
+      <c r="J65" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="K65" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="L65" t="n">
+        <v>666.6500244140625</v>
+      </c>
+      <c r="M65" t="n">
+        <v>655.8499755859375</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="n">
+        <v>649.0999755859375</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.918042316330812</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>nunna.harshavardhan2001@gmail.com</t>
         </is>
       </c>
     </row>

--- a/Portfolio_Analyser.xlsx
+++ b/Portfolio_Analyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>EMAIL</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>REF_SYMBOL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -521,56 +526,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AWHCL</t>
+          <t>BAJAJHIND.BO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>673</v>
+        <v>10.05</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>4.271044721348819</v>
+        <v>3.255072667032191</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4106776180698152</v>
+        <v>4.108860550523518</v>
       </c>
       <c r="H2" t="n">
-        <v>2.05071090941579</v>
+        <v>6.121315656658128</v>
       </c>
       <c r="I2" t="n">
-        <v>4.701028410921391</v>
+        <v>7.679472013611485</v>
       </c>
       <c r="J2" t="n">
-        <v>505.1000061035156</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="K2" t="n">
-        <v>494.9500122070312</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="L2" t="n">
-        <v>507.7999877929688</v>
+        <v>19.35000038146973</v>
       </c>
       <c r="M2" t="n">
-        <v>485</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>487</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="P2" t="n">
-        <v>3.716633696820457</v>
+        <v>1.760938781945164</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>BAJAJHIND</t>
         </is>
       </c>
     </row>
@@ -580,56 +590,61 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BANDHANBNK.BO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>111.35</v>
+        <v>199.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.433911123885336</v>
+        <v>0.4132192523038297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3128535772193585</v>
+        <v>2.701843558516388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3968930788753654</v>
+        <v>2.180983536204356</v>
       </c>
       <c r="I3" t="n">
-        <v>1.75224666748563</v>
+        <v>3.201564063234494</v>
       </c>
       <c r="J3" t="n">
-        <v>116.3600006103516</v>
+        <v>156.9499969482422</v>
       </c>
       <c r="K3" t="n">
-        <v>115.9000015258789</v>
+        <v>153.6000061035156</v>
       </c>
       <c r="L3" t="n">
-        <v>116.7200012207031</v>
+        <v>157.9499969482422</v>
       </c>
       <c r="M3" t="n">
-        <v>114.7099990844727</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>115.0699996948242</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="P3" t="n">
-        <v>1.121057546665977</v>
+        <v>-0.2225086438176733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
@@ -639,56 +654,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>BANKBARODA.NS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>592.22</v>
+        <v>238.45</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.276751904357151</v>
+        <v>1.486627543620141</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01265325375448056</v>
+        <v>2.172412725128936</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5381711881062266</v>
+        <v>3.333485450778317</v>
       </c>
       <c r="I4" t="n">
-        <v>2.263812204699885</v>
+        <v>3.740294911360831</v>
       </c>
       <c r="J4" t="n">
-        <v>397.3500061035156</v>
+        <v>220.0899963378906</v>
       </c>
       <c r="K4" t="n">
-        <v>399.5</v>
+        <v>212.9900054931641</v>
       </c>
       <c r="L4" t="n">
-        <v>404.2999877929688</v>
+        <v>220.5</v>
       </c>
       <c r="M4" t="n">
-        <v>395.3500061035156</v>
+        <v>212.5500030517578</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>395.2999877929688</v>
+        <v>217.2700042724609</v>
       </c>
       <c r="P4" t="n">
-        <v>0.518598121389403</v>
+        <v>1.297920564264067</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
@@ -698,56 +718,61 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>BHEL.BO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>810.2</v>
+        <v>59.35</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.266042520202404</v>
+        <v>0.2760482299875388</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3605079892651407</v>
+        <v>3.19761307194131</v>
       </c>
       <c r="H5" t="n">
-        <v>0.788324731979927</v>
+        <v>3.018063824963699</v>
       </c>
       <c r="I5" t="n">
-        <v>1.898689603226286</v>
+        <v>3.588404596376734</v>
       </c>
       <c r="J5" t="n">
-        <v>690.4000244140625</v>
+        <v>216.75</v>
       </c>
       <c r="K5" t="n">
-        <v>685</v>
+        <v>210.3999938964844</v>
       </c>
       <c r="L5" t="n">
-        <v>695</v>
+        <v>217.9499969482422</v>
       </c>
       <c r="M5" t="n">
-        <v>682.0499877929688</v>
+        <v>210.3999938964844</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>679.5999755859375</v>
+        <v>217.3500061035156</v>
       </c>
       <c r="P5" t="n">
-        <v>1.589177341981717</v>
+        <v>-0.276055250364182</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
@@ -757,56 +782,61 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>BIGBLOC.NS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>189.75</v>
+        <v>19.95</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2.483816993976415</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6103353718607099</v>
+        <v>4.59824894162633</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8705335094016572</v>
+        <v>3.224202260999097</v>
       </c>
       <c r="I6" t="n">
-        <v>3.113153040020527</v>
+        <v>4.819878975609986</v>
       </c>
       <c r="J6" t="n">
-        <v>191.1900024414062</v>
+        <v>62.11000061035156</v>
       </c>
       <c r="K6" t="n">
-        <v>189.5399932861328</v>
+        <v>60.16999816894531</v>
       </c>
       <c r="L6" t="n">
-        <v>193.1000061035156</v>
+        <v>62.84999847412109</v>
       </c>
       <c r="M6" t="n">
-        <v>187.2700042724609</v>
+        <v>59.95999908447266</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>188.4199981689453</v>
+        <v>62.84999847412109</v>
       </c>
       <c r="P6" t="n">
-        <v>1.470122226610593</v>
+        <v>-1.177403153118978</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>BIGBLOC</t>
         </is>
       </c>
     </row>
@@ -816,56 +846,61 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>CANBK.BO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2411.2</v>
+        <v>106.68</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.565591441326754</v>
+        <v>3.166286810049908</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02156473643322208</v>
+        <v>1.803306396349217</v>
       </c>
       <c r="H7" t="n">
-        <v>1.054171462954937</v>
+        <v>4.260087238693655</v>
       </c>
       <c r="I7" t="n">
-        <v>1.543693811391769</v>
+        <v>5.060855945372039</v>
       </c>
       <c r="J7" t="n">
-        <v>2348.60009765625</v>
+        <v>97.65000152587891</v>
       </c>
       <c r="K7" t="n">
-        <v>2324.10009765625</v>
+        <v>93.66000366210938</v>
       </c>
       <c r="L7" t="n">
-        <v>2354.89990234375</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="M7" t="n">
-        <v>2319.10009765625</v>
+        <v>93.66000366210938</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>2318.60009765625</v>
+        <v>95.37999725341797</v>
       </c>
       <c r="P7" t="n">
-        <v>1.293884185993325</v>
+        <v>2.379958416679019</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
@@ -875,56 +910,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>COCHINSHIP.BO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1298.7</v>
+        <v>1519.5</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1.387515882122624</v>
+        <v>3.296168990420764</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5000686957151241</v>
+        <v>1.983936354713798</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02096777275506639</v>
+        <v>3.442510412129791</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8830314226893023</v>
+        <v>5.386979591674812</v>
       </c>
       <c r="J8" t="n">
-        <v>1431.300048828125</v>
+        <v>1484.400024414062</v>
       </c>
       <c r="K8" t="n">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="L8" t="n">
-        <v>1439.5</v>
+        <v>1491.699951171875</v>
       </c>
       <c r="M8" t="n">
-        <v>1426.900024414062</v>
+        <v>1415.449951171875</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1419.800048828125</v>
+        <v>1444.099975585938</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8099732078113304</v>
+        <v>2.790668894774645</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>COCHINSHIP</t>
         </is>
       </c>
     </row>
@@ -934,56 +974,61 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>DELTACORP.BO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24.17</v>
+        <v>140.4</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.625243636022131</v>
+        <v>-0.8922531142517761</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8206369307115923</v>
+        <v>7.82697112437059</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7410243027762784</v>
+        <v>3.908837663948778</v>
       </c>
       <c r="I9" t="n">
-        <v>1.457844174421252</v>
+        <v>7.523586991457059</v>
       </c>
       <c r="J9" t="n">
-        <v>25.45000076293945</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="K9" t="n">
-        <v>25.63999938964844</v>
+        <v>81.61000061035156</v>
       </c>
       <c r="L9" t="n">
-        <v>25.75</v>
+        <v>87.75</v>
       </c>
       <c r="M9" t="n">
-        <v>25.3799991607666</v>
+        <v>81.61000061035156</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>25.59000015258789</v>
+        <v>88.54000091552734</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5470863181463463</v>
+        <v>-4.224077055677604</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>DELTACORP</t>
         </is>
       </c>
     </row>
@@ -993,56 +1038,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>EMBDL.NS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>109.88</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1.433911123885336</v>
+        <v>0.5788540775765122</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3128535772193585</v>
+        <v>2.555697248018324</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3968930788753654</v>
+        <v>1.433334350585938</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75224666748563</v>
+        <v>3.216762024120585</v>
       </c>
       <c r="J10" t="n">
-        <v>116.3600006103516</v>
+        <v>91.29000091552734</v>
       </c>
       <c r="K10" t="n">
-        <v>115.9000015258789</v>
+        <v>90</v>
       </c>
       <c r="L10" t="n">
-        <v>116.7200012207031</v>
+        <v>92.08999633789062</v>
       </c>
       <c r="M10" t="n">
-        <v>114.7099990844727</v>
+        <v>89.22000122070312</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>115.0699996948242</v>
+        <v>91.55999755859375</v>
       </c>
       <c r="P10" t="n">
-        <v>1.121057546665977</v>
+        <v>-0.2948849391281625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>EMBDL</t>
         </is>
       </c>
     </row>
@@ -1052,56 +1102,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COCHINSHIP</t>
+          <t>EXIDEIND.NS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1443</v>
+        <v>316.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.579837472285545</v>
+        <v>0.3741183540754476</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53414278958786</v>
+        <v>2.868229438396229</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2726355840230445</v>
+        <v>2.981458546941869</v>
       </c>
       <c r="I11" t="n">
-        <v>3.162497489072915</v>
+        <v>3.338091927826319</v>
       </c>
       <c r="J11" t="n">
-        <v>1544.699951171875</v>
+        <v>360.9500122070312</v>
       </c>
       <c r="K11" t="n">
-        <v>1540.5</v>
+        <v>350.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1556</v>
+        <v>362.2000122070312</v>
       </c>
       <c r="M11" t="n">
-        <v>1508.300048828125</v>
+        <v>350.5</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1531.800048828125</v>
+        <v>360.8500061035156</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8421400922149616</v>
+        <v>0.02771403680867243</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
@@ -1111,56 +1166,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EXCELINDUS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1051</v>
+        <v>380.35</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1.117373184419014</v>
+        <v>-0.3312476680045449</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53990839568662</v>
+        <v>2.537176642509839</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9895361002913892</v>
+        <v>0.2293871807795699</v>
       </c>
       <c r="I12" t="n">
-        <v>2.698841263305531</v>
+        <v>2.263354270390901</v>
       </c>
       <c r="J12" t="n">
-        <v>1061.400024414062</v>
+        <v>1398.199951171875</v>
       </c>
       <c r="K12" t="n">
-        <v>1051</v>
+        <v>1395</v>
       </c>
       <c r="L12" t="n">
-        <v>1076.900024414062</v>
+        <v>1414.199951171875</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.599975585938</v>
+        <v>1382.900024414062</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1065</v>
+        <v>1418.900024414062</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3380258766138498</v>
+        <v>-1.458881731342251</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
@@ -1170,56 +1230,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>HDFCBANK.NS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>379.85</v>
+        <v>1447.1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>3.352110956756162</v>
+        <v>-0.4926108374384237</v>
       </c>
       <c r="G13" t="n">
-        <v>0.267609072403169</v>
+        <v>2.162299775570391</v>
       </c>
       <c r="H13" t="n">
-        <v>2.276534607956529</v>
+        <v>-1.068008202440013</v>
       </c>
       <c r="I13" t="n">
-        <v>3.629432720395879</v>
+        <v>1.706590541582512</v>
       </c>
       <c r="J13" t="n">
-        <v>366.1499938964844</v>
+        <v>1889.699951171875</v>
       </c>
       <c r="K13" t="n">
-        <v>358</v>
+        <v>1910.099975585938</v>
       </c>
       <c r="L13" t="n">
-        <v>366.8999938964844</v>
+        <v>1919</v>
       </c>
       <c r="M13" t="n">
-        <v>354.0499877929688</v>
+        <v>1886.800048828125</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>355</v>
+        <v>1928.5</v>
       </c>
       <c r="P13" t="n">
-        <v>3.140843351122359</v>
+        <v>-2.011928899565725</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
         </is>
       </c>
     </row>
@@ -1229,56 +1294,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HAPPSTMNDS</t>
+          <t>ICICIBANK.NS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>573.6</v>
+        <v>1258.1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2.716289488383365</v>
+        <v>-1.086727661855625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8719000660907148</v>
+        <v>3.378613723441309</v>
       </c>
       <c r="H14" t="n">
-        <v>1.659856869532405</v>
+        <v>-1.858389461929708</v>
       </c>
       <c r="I14" t="n">
-        <v>3.619750158498345</v>
+        <v>2.372027715505588</v>
       </c>
       <c r="J14" t="n">
-        <v>609.4000244140625</v>
+        <v>1388.900024414062</v>
       </c>
       <c r="K14" t="n">
-        <v>599.4500122070312</v>
+        <v>1415.199951171875</v>
       </c>
       <c r="L14" t="n">
-        <v>612.5999755859375</v>
+        <v>1419.900024414062</v>
       </c>
       <c r="M14" t="n">
-        <v>591.2000122070312</v>
+        <v>1387</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>596.4000244140625</v>
+        <v>1435.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.179745048262187</v>
+        <v>-3.246253959312957</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
@@ -1288,56 +1358,61 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>IDBI.NS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2244</v>
+        <v>31.55</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.565591441326754</v>
+        <v>-0.2601854696116969</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02156473643322208</v>
+        <v>2.432682034300018</v>
       </c>
       <c r="H15" t="n">
-        <v>1.054171462954937</v>
+        <v>1.05960669106995</v>
       </c>
       <c r="I15" t="n">
-        <v>1.543693811391769</v>
+        <v>2.226664225260417</v>
       </c>
       <c r="J15" t="n">
-        <v>2348.60009765625</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="K15" t="n">
-        <v>2324.10009765625</v>
+        <v>75.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2354.89990234375</v>
+        <v>76.66999816894531</v>
       </c>
       <c r="M15" t="n">
-        <v>2319.10009765625</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.60009765625</v>
+        <v>76.87000274658203</v>
       </c>
       <c r="P15" t="n">
-        <v>1.293884185993325</v>
+        <v>-0.7415112195368867</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>IDBI</t>
         </is>
       </c>
     </row>
@@ -1347,56 +1422,61 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>IDEA.BO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60.12</v>
+        <v>11.45</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.249053379274764</v>
+        <v>0.8968601235628331</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.437967370796197</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9489339647684922</v>
+        <v>2.914111315587141</v>
       </c>
       <c r="I16" t="n">
-        <v>2.249053379274764</v>
+        <v>4.489163469667916</v>
       </c>
       <c r="J16" t="n">
-        <v>67.01999664306641</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="K16" t="n">
-        <v>66.38999938964844</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="L16" t="n">
-        <v>67.73999786376953</v>
+        <v>6.75</v>
       </c>
       <c r="M16" t="n">
-        <v>66.25</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>66.25</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="P16" t="n">
-        <v>1.162259083873821</v>
+        <v>0.2989533745209443</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
@@ -1406,56 +1486,61 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KPIGREEN</t>
+          <t>IDFCFIRSTB.BO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>420.05</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>5.706024954921772</v>
+        <v>0.6772078228795506</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3286878885414234</v>
+        <v>2.407823246955648</v>
       </c>
       <c r="H17" t="n">
-        <v>3.411459922790527</v>
+        <v>2.097148253433316</v>
       </c>
       <c r="I17" t="n">
-        <v>6.054613625147033</v>
+        <v>3.16114587508569</v>
       </c>
       <c r="J17" t="n">
-        <v>397.1000061035156</v>
+        <v>66.20999908447266</v>
       </c>
       <c r="K17" t="n">
-        <v>384</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="L17" t="n">
-        <v>402</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="M17" t="n">
-        <v>379.0499877929688</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>380.2999877929688</v>
+        <v>66.44999694824219</v>
       </c>
       <c r="P17" t="n">
-        <v>4.417570036760723</v>
+        <v>-0.3611706166916234</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
@@ -1465,56 +1550,61 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAHABANK</t>
+          <t>IEX.NS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46.28</v>
+        <v>144.59</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>2.751384356796515</v>
+        <v>0.07899376518948621</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03958918761371132</v>
+        <v>4.160081174510574</v>
       </c>
       <c r="H18" t="n">
-        <v>1.469147916177687</v>
+        <v>4.054947737809066</v>
       </c>
       <c r="I18" t="n">
-        <v>2.710722016358062</v>
+        <v>4.42307859986693</v>
       </c>
       <c r="J18" t="n">
-        <v>51.79999923706055</v>
+        <v>189.3800048828125</v>
       </c>
       <c r="K18" t="n">
-        <v>51.04999923706055</v>
+        <v>182</v>
       </c>
       <c r="L18" t="n">
-        <v>51.90999984741211</v>
+        <v>190.0500030517578</v>
       </c>
       <c r="M18" t="n">
-        <v>50.54000091552734</v>
+        <v>182</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>50.52000045776367</v>
+        <v>189.8999938964844</v>
       </c>
       <c r="P18" t="n">
-        <v>2.533647600353834</v>
+        <v>-0.2738225541783451</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>IEX</t>
         </is>
       </c>
     </row>
@@ -1524,56 +1614,61 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ITC.NS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1289.5</v>
+        <v>494.85</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1.387515882122624</v>
+        <v>-0.3367422634644991</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5000686957151241</v>
+        <v>1.764980491358515</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02096777275506639</v>
+        <v>-0.5634521294240457</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8830314226893023</v>
+        <v>1.453899266308363</v>
       </c>
       <c r="J19" t="n">
-        <v>1431.300048828125</v>
+        <v>423.5499877929688</v>
       </c>
       <c r="K19" t="n">
-        <v>1431</v>
+        <v>425.9500122070312</v>
       </c>
       <c r="L19" t="n">
-        <v>1439.5</v>
+        <v>429.1499938964844</v>
       </c>
       <c r="M19" t="n">
-        <v>1426.900024414062</v>
+        <v>423</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1419.800048828125</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8099732078113304</v>
+        <v>-1.637254577477191</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>ITC</t>
         </is>
       </c>
     </row>
@@ -1583,56 +1678,61 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>JPPOWER.BO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>116.89</v>
+        <v>5.4</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.078173360513444</v>
+        <v>1.055802316982638</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03537399617936553</v>
+        <v>4.901965014968947</v>
       </c>
       <c r="H20" t="n">
-        <v>0.692983259234512</v>
+        <v>5.313244207260283</v>
       </c>
       <c r="I20" t="n">
-        <v>2.042077000094086</v>
+        <v>6.26486901952219</v>
       </c>
       <c r="J20" t="n">
-        <v>114.7900009155273</v>
+        <v>13.27999973297119</v>
       </c>
       <c r="K20" t="n">
-        <v>114</v>
+        <v>12.60999965667725</v>
       </c>
       <c r="L20" t="n">
-        <v>115.4300003051758</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="M20" t="n">
-        <v>113.120002746582</v>
+        <v>12.60999965667725</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>113.0800018310547</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="P20" t="n">
-        <v>1.512202915443397</v>
+        <v>0.1508258200915729</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>JPPOWER</t>
         </is>
       </c>
     </row>
@@ -1642,56 +1742,61 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOUTHBANK</t>
+          <t>KALAMANDIR.NS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23.86</v>
+        <v>269.35</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>0.625243636022131</v>
+        <v>0.09583604419013425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8206369307115923</v>
+        <v>1.550791774026345</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.7410243027762784</v>
+        <v>0.4513293240977599</v>
       </c>
       <c r="I21" t="n">
-        <v>1.457844174421252</v>
+        <v>1.67256583154729</v>
       </c>
       <c r="J21" t="n">
-        <v>25.45000076293945</v>
+        <v>113.5100021362305</v>
       </c>
       <c r="K21" t="n">
-        <v>25.63999938964844</v>
+        <v>113</v>
       </c>
       <c r="L21" t="n">
-        <v>25.75</v>
+        <v>114.8899993896484</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3799991607666</v>
+        <v>113</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>25.59000015258789</v>
+        <v>114.7799987792969</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.5470863181463463</v>
+        <v>-1.106461627960462</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>KALAMANDIR</t>
         </is>
       </c>
     </row>
@@ -1701,56 +1806,61 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>KPIGREEN.NS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>624.4</v>
+        <v>692.95</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2.703751269175863</v>
+        <v>-2.018093249826026</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.039901441054104</v>
+        <v>6.471816283924843</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2111809922744657</v>
+        <v>3.675597054617746</v>
       </c>
       <c r="I22" t="n">
-        <v>1.646725505856155</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="J22" t="n">
-        <v>661.5499877929688</v>
+        <v>348.3500061035156</v>
       </c>
       <c r="K22" t="n">
-        <v>662.9500122070312</v>
+        <v>336</v>
       </c>
       <c r="L22" t="n">
-        <v>666.6500244140625</v>
+        <v>352</v>
       </c>
       <c r="M22" t="n">
-        <v>655.8499755859375</v>
+        <v>336</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>649.0999755859375</v>
+        <v>359.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.918042316330812</v>
+        <v>-3.034097118019311</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>KPIGREEN</t>
         </is>
       </c>
     </row>
@@ -1760,56 +1870,61 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NILLA NAGRAJ</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>LTF.NS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3280.3</v>
+        <v>89.45</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2.142232585252113</v>
+        <v>0.3913651283714571</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.448845885856893</v>
+        <v>2.366535281646102</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1246390964673913</v>
+        <v>1.120566686226522</v>
       </c>
       <c r="I23" t="n">
-        <v>1.685819965835613</v>
+        <v>2.824749093943715</v>
       </c>
       <c r="J23" t="n">
-        <v>3454.300048828125</v>
+        <v>161.5299987792969</v>
       </c>
       <c r="K23" t="n">
-        <v>3450</v>
+        <v>159.7400054931641</v>
       </c>
       <c r="L23" t="n">
-        <v>3504.5</v>
+        <v>164.1699981689453</v>
       </c>
       <c r="M23" t="n">
-        <v>3446.39990234375</v>
+        <v>159.6600036621094</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>3431</v>
+        <v>163.5299987792969</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6791037256812882</v>
+        <v>-1.223017192520889</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>nillanagaraju567@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>LTF</t>
         </is>
       </c>
     </row>
@@ -1824,51 +1939,56 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BAJAJHIND</t>
+          <t>LAURUSLABS.NS</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.05</v>
+        <v>357.65</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1.069796234332024</v>
+        <v>0.6911831570263344</v>
       </c>
       <c r="G24" t="n">
-        <v>1.324494817365288</v>
+        <v>2.338085488799458</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3042569372796623</v>
+        <v>1.868509998783521</v>
       </c>
       <c r="I24" t="n">
-        <v>2.426428977754723</v>
+        <v>3.101791175185671</v>
       </c>
       <c r="J24" t="n">
-        <v>19.65999984741211</v>
+        <v>588.7999877929688</v>
       </c>
       <c r="K24" t="n">
-        <v>19.71999931335449</v>
+        <v>578</v>
       </c>
       <c r="L24" t="n">
-        <v>19.84000015258789</v>
+        <v>590</v>
       </c>
       <c r="M24" t="n">
-        <v>19.3700008392334</v>
+        <v>572.25</v>
       </c>
       <c r="N24" t="n">
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>19.6299991607666</v>
+        <v>585.9500122070312</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1528308096185176</v>
+        <v>0.4863854469774344</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>
@@ -1883,51 +2003,56 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>NTPC.NS</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>199.2</v>
+        <v>170.2</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2.527653667635449</v>
+        <v>-0.3676470588235294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3090043925245983</v>
+        <v>2.764704087201287</v>
       </c>
       <c r="H25" t="n">
-        <v>1.475217252444011</v>
+        <v>0.1645684538838502</v>
       </c>
       <c r="I25" t="n">
-        <v>2.845450627586408</v>
+        <v>2.465212869334459</v>
       </c>
       <c r="J25" t="n">
-        <v>164.3999938964844</v>
+        <v>334.75</v>
       </c>
       <c r="K25" t="n">
-        <v>162.0099945068359</v>
+        <v>334.2000122070312</v>
       </c>
       <c r="L25" t="n">
-        <v>165.8999938964844</v>
+        <v>338.75</v>
       </c>
       <c r="M25" t="n">
-        <v>161.3099975585938</v>
+        <v>330.6000061035156</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>161.8099975585938</v>
+        <v>340</v>
       </c>
       <c r="P25" t="n">
-        <v>1.600640490061654</v>
+        <v>-1.544117647058824</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
@@ -1942,51 +2067,56 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>ONGC.NS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>238.45</v>
+        <v>122.3</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1.292458094258014</v>
+        <v>0.8918625418779237</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03231222272224098</v>
+        <v>2.045280956819368</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2131933894950053</v>
+        <v>2.557835204816103</v>
       </c>
       <c r="I26" t="n">
-        <v>1.325198518076928</v>
+        <v>2.99847064785366</v>
       </c>
       <c r="J26" t="n">
-        <v>249.1300048828125</v>
+        <v>234.9600067138672</v>
       </c>
       <c r="K26" t="n">
-        <v>248.6000061035156</v>
+        <v>229.1000061035156</v>
       </c>
       <c r="L26" t="n">
-        <v>250.7899932861328</v>
+        <v>235.3000030517578</v>
       </c>
       <c r="M26" t="n">
-        <v>247.5099945068359</v>
+        <v>228.4499969482422</v>
       </c>
       <c r="N26" t="n">
         <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>247.5899963378906</v>
+        <v>233.2200012207031</v>
       </c>
       <c r="P26" t="n">
-        <v>0.62199950228207</v>
+        <v>0.7460790172612352</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
@@ -2001,51 +2131,56 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>PNB.NS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59.35</v>
+        <v>36.92</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>2.072678745789038</v>
+        <v>1.083622873419026</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07561187010666628</v>
+        <v>2.090634467326133</v>
       </c>
       <c r="H27" t="n">
-        <v>1.653333875868055</v>
+        <v>2.188890245225695</v>
       </c>
       <c r="I27" t="n">
-        <v>1.995557996961806</v>
+        <v>3.242036472686426</v>
       </c>
       <c r="J27" t="n">
-        <v>228.7200012207031</v>
+        <v>91.97000122070312</v>
       </c>
       <c r="K27" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="L27" t="n">
-        <v>229.4900054931641</v>
+        <v>92.34999847412109</v>
       </c>
       <c r="M27" t="n">
-        <v>225</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="N27" t="n">
         <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>224.8300018310547</v>
+        <v>91.36000061035156</v>
       </c>
       <c r="P27" t="n">
-        <v>1.730195862637373</v>
+        <v>0.6676889298120761</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PNB</t>
         </is>
       </c>
     </row>
@@ -2060,51 +2195,56 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BIGBLOC</t>
+          <t>PREMIERENE.NS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19.95</v>
+        <v>450</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>4.015624523162842</v>
+        <v>0.9844381997245762</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7343769073486328</v>
+        <v>2.926857632770199</v>
       </c>
       <c r="H28" t="n">
-        <v>1.884462868334252</v>
+        <v>2.565078569854935</v>
       </c>
       <c r="I28" t="n">
-        <v>4.785142411364279</v>
+        <v>4.029225527384556</v>
       </c>
       <c r="J28" t="n">
-        <v>65.95999908447266</v>
+        <v>945.6500244140625</v>
       </c>
       <c r="K28" t="n">
-        <v>64.73999786376953</v>
+        <v>922</v>
       </c>
       <c r="L28" t="n">
-        <v>66.56999969482422</v>
+        <v>954</v>
       </c>
       <c r="M28" t="n">
-        <v>63.52999877929688</v>
+        <v>917.0499877929688</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>64</v>
+        <v>944.7000122070312</v>
       </c>
       <c r="P28" t="n">
-        <v>3.062498569488525</v>
+        <v>0.1005623155240369</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PREMIERENE</t>
         </is>
       </c>
     </row>
@@ -2119,51 +2259,56 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>RPOWER.BO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>106.68</v>
+        <v>23.95</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>1.11731239472683</v>
+        <v>1.462516440856652</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01034775072576329</v>
+        <v>3.369028165795168</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1649522289787371</v>
+        <v>4.065703179982638</v>
       </c>
       <c r="I29" t="n">
-        <v>1.127776844989256</v>
+        <v>4.999995876002957</v>
       </c>
       <c r="J29" t="n">
-        <v>97.16000366210938</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="K29" t="n">
-        <v>97</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="L29" t="n">
-        <v>97.73999786376953</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="M29" t="n">
-        <v>96.65000152587891</v>
+        <v>37</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>96.66000366210938</v>
+        <v>38.29000091552734</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5172770339920849</v>
+        <v>0.9401948334913077</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>RPOWER</t>
         </is>
       </c>
     </row>
@@ -2178,51 +2323,56 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COCHINSHIP</t>
+          <t>SBIN.NS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1519.5</v>
+        <v>353.35</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1.579837472285545</v>
+        <v>1.65149703602487</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53414278958786</v>
+        <v>1.755526657997399</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2726355840230445</v>
+        <v>3.007270323859881</v>
       </c>
       <c r="I30" t="n">
-        <v>3.162497489072915</v>
+        <v>3.467903667376737</v>
       </c>
       <c r="J30" t="n">
-        <v>1544.699951171875</v>
+        <v>779.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1540.5</v>
+        <v>756.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1556</v>
+        <v>781.7000122070312</v>
       </c>
       <c r="M30" t="n">
-        <v>1508.300048828125</v>
+        <v>755.5</v>
       </c>
       <c r="N30" t="n">
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1531.800048828125</v>
+        <v>769</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8421400922149616</v>
+        <v>1.332899869960988</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
@@ -2237,51 +2387,56 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DELTACORP</t>
+          <t>SUVEN.NS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>140.4</v>
+        <v>94.7</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2009332131047441</v>
+        <v>4.498292727182752</v>
       </c>
       <c r="G31" t="n">
-        <v>2.167930917186212</v>
+        <v>4.237100965179561</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.7454787713116245</v>
+        <v>3.985685988858935</v>
       </c>
       <c r="I31" t="n">
-        <v>2.42135748788645</v>
+        <v>9.121897708199111</v>
       </c>
       <c r="J31" t="n">
-        <v>93.19999694824219</v>
+        <v>142.4499969482422</v>
       </c>
       <c r="K31" t="n">
-        <v>93.90000152587891</v>
+        <v>136.9900054931641</v>
       </c>
       <c r="L31" t="n">
-        <v>94.75</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="M31" t="n">
-        <v>92.51000213623047</v>
+        <v>131.9900054931641</v>
       </c>
       <c r="N31" t="n">
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>94.55999755859375</v>
+        <v>137.8300018310547</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.43824095332579</v>
+        <v>3.351951720098259</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>SUVEN</t>
         </is>
       </c>
     </row>
@@ -2296,51 +2451,56 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EMBDL</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>77.15000000000001</v>
+        <v>968.65</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1.673769015247799</v>
+        <v>4.122431781579493</v>
       </c>
       <c r="G32" t="n">
-        <v>1.907085461445245</v>
+        <v>2.467595546368575</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.197802451374629</v>
+        <v>6.142322097378277</v>
       </c>
       <c r="I32" t="n">
-        <v>3.650472099374327</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="J32" t="n">
-        <v>97.01000213623047</v>
+        <v>708.5</v>
       </c>
       <c r="K32" t="n">
-        <v>99.19000244140625</v>
+        <v>667.5</v>
       </c>
       <c r="L32" t="n">
-        <v>100.2300033569336</v>
+        <v>711</v>
       </c>
       <c r="M32" t="n">
-        <v>96.69999694824219</v>
+        <v>666</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>98.58000183105469</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="P32" t="n">
-        <v>-1.592614795762397</v>
+        <v>3.756319152249045</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
@@ -2355,51 +2515,56 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>TECHM.NS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>316.3</v>
+        <v>1141.1</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>3.352110956756162</v>
+        <v>-0.09981367788547063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.267609072403169</v>
+        <v>1.643603436228824</v>
       </c>
       <c r="H33" t="n">
-        <v>2.276534607956529</v>
+        <v>0.9256723764780406</v>
       </c>
       <c r="I33" t="n">
-        <v>3.629432720395879</v>
+        <v>1.569587553304079</v>
       </c>
       <c r="J33" t="n">
-        <v>366.1499938964844</v>
+        <v>1493.699951171875</v>
       </c>
       <c r="K33" t="n">
-        <v>358</v>
+        <v>1480</v>
       </c>
       <c r="L33" t="n">
-        <v>366.8999938964844</v>
+        <v>1501.300048828125</v>
       </c>
       <c r="M33" t="n">
-        <v>354.0499877929688</v>
+        <v>1478.099975585938</v>
       </c>
       <c r="N33" t="n">
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>355</v>
+        <v>1502.800048828125</v>
       </c>
       <c r="P33" t="n">
-        <v>3.140843351122359</v>
+        <v>-0.6055428107915092</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
@@ -2414,51 +2579,56 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>TFCILTD.BO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>380.35</v>
+        <v>181.9</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.846715328467153</v>
+        <v>0.3279561883359567</v>
       </c>
       <c r="G34" t="n">
-        <v>0.364963503649635</v>
+        <v>6.659938017904826</v>
       </c>
       <c r="H34" t="n">
-        <v>3.03296882154304</v>
+        <v>0.666668231670673</v>
       </c>
       <c r="I34" t="n">
-        <v>3.223443223443224</v>
+        <v>7.486489785684122</v>
       </c>
       <c r="J34" t="n">
-        <v>1406.400024414062</v>
+        <v>196.3000030517578</v>
       </c>
       <c r="K34" t="n">
-        <v>1365</v>
+        <v>195</v>
       </c>
       <c r="L34" t="n">
-        <v>1409</v>
+        <v>198.8500061035156</v>
       </c>
       <c r="M34" t="n">
-        <v>1365</v>
+        <v>185</v>
       </c>
       <c r="N34" t="n">
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1370</v>
+        <v>198.1999969482422</v>
       </c>
       <c r="P34" t="n">
-        <v>2.656936088617701</v>
+        <v>-0.9586245841267789</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>TFCILTD</t>
         </is>
       </c>
     </row>
@@ -2473,51 +2643,56 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>UCOBANK.BO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1447.09</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1.566157198791555</v>
+        <v>-0.300094203567728</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.5411324357120604</v>
+        <v>3.134373770144821</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.113458028461836</v>
+        <v>0.7833771711681653</v>
       </c>
       <c r="I35" t="n">
-        <v>1.019507875281707</v>
+        <v>2.925991062971658</v>
       </c>
       <c r="J35" t="n">
-        <v>1936.800048828125</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="K35" t="n">
-        <v>1939</v>
+        <v>29.36000061035156</v>
       </c>
       <c r="L35" t="n">
-        <v>1952</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="M35" t="n">
-        <v>1932.300048828125</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1921.900024414062</v>
+        <v>29.98999786376953</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7752757284346844</v>
+        <v>-1.333770389043181</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>UCOBANK</t>
         </is>
       </c>
     </row>
@@ -2532,51 +2707,56 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>VAKRANGEE.NS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1258.1</v>
+        <v>1.11</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>1.167755648366135</v>
+        <v>-0.5417035703171076</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2866915359716489</v>
+        <v>4.44203540353341</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.7361094156901042</v>
+        <v>-1.777776082356771</v>
       </c>
       <c r="I36" t="n">
-        <v>1.458628950078892</v>
+        <v>4.081639714373451</v>
       </c>
       <c r="J36" t="n">
-        <v>1429.400024414062</v>
+        <v>8.840000152587891</v>
       </c>
       <c r="K36" t="n">
-        <v>1440</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.800048828125</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="M36" t="n">
-        <v>1426</v>
+        <v>8.819999694824219</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>1430.099975585938</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.04894421256025947</v>
+        <v>-4.225345709539926</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>VAKRANGEE</t>
         </is>
       </c>
     </row>
@@ -2591,51 +2771,56 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>VISAKAIND.NS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>31.55</v>
+        <v>92.8</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>3.185995041710429</v>
+        <v>-1.22730253506132</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01258595438235246</v>
+        <v>4.152658439328323</v>
       </c>
       <c r="H37" t="n">
-        <v>1.011864494333662</v>
+        <v>2.087357439820824</v>
       </c>
       <c r="I37" t="n">
-        <v>3.173009733770437</v>
+        <v>3.052099157507925</v>
       </c>
       <c r="J37" t="n">
-        <v>80.86000061035156</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="K37" t="n">
-        <v>80.05000305175781</v>
+        <v>57.0099983215332</v>
       </c>
       <c r="L37" t="n">
-        <v>81.94000244140625</v>
+        <v>58.75</v>
       </c>
       <c r="M37" t="n">
-        <v>79.41999816894531</v>
+        <v>57.0099983215332</v>
       </c>
       <c r="N37" t="n">
         <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>79.41000366210938</v>
+        <v>59.47999954223633</v>
       </c>
       <c r="P37" t="n">
-        <v>1.825962575712682</v>
+        <v>-2.151981824391167</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>VISAKAIND</t>
         </is>
       </c>
     </row>
@@ -2650,51 +2835,56 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>VMM.NS</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.45</v>
+        <v>78</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>1.843966440945715</v>
+        <v>2.24851099109027</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5673753300829047</v>
+        <v>1.963255238991627</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9887030002217159</v>
+        <v>1.846545083964833</v>
       </c>
       <c r="I38" t="n">
-        <v>2.425101196949657</v>
+        <v>4.296109831420086</v>
       </c>
       <c r="J38" t="n">
-        <v>7.150000095367432</v>
+        <v>120.7900009155273</v>
       </c>
       <c r="K38" t="n">
-        <v>7.079999923706055</v>
+        <v>118.5999984741211</v>
       </c>
       <c r="L38" t="n">
-        <v>7.179999828338623</v>
+        <v>121.870002746582</v>
       </c>
       <c r="M38" t="n">
-        <v>7.010000228881836</v>
+        <v>116.8499984741211</v>
       </c>
       <c r="N38" t="n">
         <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>7.050000190734863</v>
+        <v>119.1900024414062</v>
       </c>
       <c r="P38" t="n">
-        <v>1.418438325207262</v>
+        <v>1.34239318847875</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>VMM</t>
         </is>
       </c>
     </row>
@@ -2709,51 +2899,56 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>VOLTAS.BO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>72</v>
+        <v>997.7</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.249053379274764</v>
+        <v>1.233355793817936</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.144653962633703</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9489339647684922</v>
+        <v>4.212341804272852</v>
       </c>
       <c r="I39" t="n">
-        <v>2.249053379274764</v>
+        <v>4.520152924509325</v>
       </c>
       <c r="J39" t="n">
-        <v>67.01999664306641</v>
+        <v>1235.75</v>
       </c>
       <c r="K39" t="n">
-        <v>66.38999938964844</v>
+        <v>1185.800048828125</v>
       </c>
       <c r="L39" t="n">
-        <v>67.73999786376953</v>
+        <v>1239.400024414062</v>
       </c>
       <c r="M39" t="n">
-        <v>66.25</v>
+        <v>1185.800048828125</v>
       </c>
       <c r="N39" t="n">
         <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>66.25</v>
+        <v>1224.300048828125</v>
       </c>
       <c r="P39" t="n">
-        <v>1.162259083873821</v>
+        <v>0.9352242681714062</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
@@ -2768,51 +2963,56 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>WABAG.NS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>144.59</v>
+        <v>267.8</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>3.128119850969529</v>
+        <v>-0.8430678481116396</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1469578444816008</v>
+        <v>3.318123876863923</v>
       </c>
       <c r="H40" t="n">
-        <v>1.90078297109579</v>
+        <v>1.85599609375</v>
       </c>
       <c r="I40" t="n">
-        <v>3.279897762504107</v>
+        <v>2.56</v>
       </c>
       <c r="J40" t="n">
-        <v>195.1399993896484</v>
+        <v>1273.199951171875</v>
       </c>
       <c r="K40" t="n">
-        <v>191.5</v>
+        <v>1250</v>
       </c>
       <c r="L40" t="n">
-        <v>196.4900054931641</v>
+        <v>1282</v>
       </c>
       <c r="M40" t="n">
-        <v>190.25</v>
+        <v>1250</v>
       </c>
       <c r="N40" t="n">
         <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>190.5299987792969</v>
+        <v>1292.900024414062</v>
       </c>
       <c r="P40" t="n">
-        <v>2.419566808317478</v>
+        <v>-1.523712032654304</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>WABAG</t>
         </is>
       </c>
     </row>
@@ -2827,51 +3027,56 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>WIPRO.NS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>494.85</v>
+        <v>219.32</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>2.09545983701979</v>
+        <v>0.5712586754080401</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03492290954234575</v>
+        <v>2.098773510990598</v>
       </c>
       <c r="H41" t="n">
-        <v>1.557237003377397</v>
+        <v>2.286554633880006</v>
       </c>
       <c r="I41" t="n">
-        <v>2.131126998115921</v>
+        <v>2.727271436888874</v>
       </c>
       <c r="J41" t="n">
-        <v>436.9500122070312</v>
+        <v>242.0099945068359</v>
       </c>
       <c r="K41" t="n">
-        <v>430.25</v>
+        <v>236.6000061035156</v>
       </c>
       <c r="L41" t="n">
-        <v>438.5</v>
+        <v>242.9499969482422</v>
       </c>
       <c r="M41" t="n">
-        <v>429.3500061035156</v>
+        <v>236.5</v>
       </c>
       <c r="N41" t="n">
         <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>429.5</v>
+        <v>241.5700073242188</v>
       </c>
       <c r="P41" t="n">
-        <v>1.734577929460128</v>
+        <v>0.1821365108569404</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
@@ -2886,51 +3091,56 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KALAMANDIR</t>
+          <t>YESBANK.NS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>269.35</v>
+        <v>14.57</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="F42" t="n">
-        <v>2.026856016759221</v>
+        <v>11.73889934576789</v>
       </c>
       <c r="G42" t="n">
-        <v>1.650560420883153</v>
+        <v>2.523308261236669</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3399350149598898</v>
+        <v>12.4719175048107</v>
       </c>
       <c r="I42" t="n">
-        <v>3.739133088485054</v>
+        <v>14.63140300783612</v>
       </c>
       <c r="J42" t="n">
-        <v>118.0699996948242</v>
+        <v>20.02000045776367</v>
       </c>
       <c r="K42" t="n">
-        <v>117.6699981689453</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="L42" t="n">
-        <v>119.3000030517578</v>
+        <v>20.3700008392334</v>
       </c>
       <c r="M42" t="n">
-        <v>115</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>116.9300003051758</v>
+        <v>18.22999954223633</v>
       </c>
       <c r="P42" t="n">
-        <v>0.974941748630079</v>
+        <v>9.818984972436038</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
           <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
@@ -2940,56 +3150,61 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KPIGREEN</t>
+          <t>AWHCL.NS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>692.95</v>
+        <v>673</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>5.706024954921772</v>
+        <v>0.7067843448271193</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3286878885414234</v>
+        <v>2.689704926448354</v>
       </c>
       <c r="H43" t="n">
-        <v>3.411459922790527</v>
+        <v>1.348090987330231</v>
       </c>
       <c r="I43" t="n">
-        <v>6.054613625147033</v>
+        <v>3.490369923046938</v>
       </c>
       <c r="J43" t="n">
-        <v>397.1000061035156</v>
+        <v>503.7000122070312</v>
       </c>
       <c r="K43" t="n">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="L43" t="n">
-        <v>402</v>
+        <v>512.9500122070312</v>
       </c>
       <c r="M43" t="n">
-        <v>379.0499877929688</v>
+        <v>495.6499938964844</v>
       </c>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>380.2999877929688</v>
+        <v>509.3500061035156</v>
       </c>
       <c r="P43" t="n">
-        <v>4.417570036760723</v>
+        <v>-1.109255684456814</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>AWHCL</t>
         </is>
       </c>
     </row>
@@ -2999,56 +3214,61 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>BANKINDIA.NS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>89.45</v>
+        <v>111.35</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>1.308047898643409</v>
+        <v>3.115149815815128</v>
       </c>
       <c r="G44" t="n">
-        <v>0.258015075675938</v>
+        <v>3.393290971072104</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1919660048452835</v>
+        <v>5.777355517055504</v>
       </c>
       <c r="I44" t="n">
-        <v>1.570114105416636</v>
+        <v>6.737048443435068</v>
       </c>
       <c r="J44" t="n">
-        <v>167.0200042724609</v>
+        <v>110.2200012207031</v>
       </c>
       <c r="K44" t="n">
-        <v>166.6999969482422</v>
+        <v>104.1999969482422</v>
       </c>
       <c r="L44" t="n">
-        <v>168.8399963378906</v>
+        <v>111.2200012207031</v>
       </c>
       <c r="M44" t="n">
-        <v>166.2299957275391</v>
+        <v>104.1999969482422</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>166.6600036621094</v>
+        <v>107.8600006103516</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2160090018247189</v>
+        <v>2.188022062856421</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
@@ -3058,56 +3278,61 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>357.65</v>
+        <v>592.22</v>
       </c>
       <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01295188272773925</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.500330122774043</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.111557027099933</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.577733861731605</v>
+      </c>
+      <c r="J45" t="n">
+        <v>384.4500122070312</v>
+      </c>
+      <c r="K45" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>376.2999877929688</v>
+      </c>
+      <c r="N45" t="n">
         <v>2</v>
       </c>
-      <c r="F45" t="n">
-        <v>1.727759150321226</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.6943303532578513</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-0.6912052663108882</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="J45" t="n">
-        <v>617.7999877929688</v>
-      </c>
-      <c r="K45" t="n">
-        <v>622.0999755859375</v>
-      </c>
-      <c r="L45" t="n">
-        <v>630</v>
-      </c>
-      <c r="M45" t="n">
-        <v>615</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4</v>
-      </c>
       <c r="O45" t="n">
-        <v>619.2999877929688</v>
+        <v>385.9500122070312</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.2422089503579077</v>
+        <v>-0.3886513674199265</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>BSOFT</t>
         </is>
       </c>
     </row>
@@ -3117,56 +3342,61 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>CONCOR.NS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17.02</v>
+        <v>810.2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9463687058919491</v>
+        <v>0.2662001726513118</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9033622895866886</v>
+        <v>1.840589621498486</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6837589448673433</v>
+        <v>0.5191440701171283</v>
       </c>
       <c r="I46" t="n">
-        <v>1.866593093586124</v>
+        <v>2.14629426361267</v>
       </c>
       <c r="J46" t="n">
-        <v>348.6000061035156</v>
+        <v>648.6500244140625</v>
       </c>
       <c r="K46" t="n">
-        <v>351</v>
+        <v>645.2999877929688</v>
       </c>
       <c r="L46" t="n">
-        <v>352</v>
+        <v>659.1500244140625</v>
       </c>
       <c r="M46" t="n">
-        <v>345.5499877929688</v>
+        <v>645.2999877929688</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>348.7000122070312</v>
+        <v>657.4000244140625</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.02867969601797693</v>
+        <v>-1.331000863256559</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
         </is>
       </c>
     </row>
@@ -3176,56 +3406,61 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>GAIL.NS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>122.3</v>
+        <v>189.75</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6550265966457947</v>
+        <v>-0.7434798633590252</v>
       </c>
       <c r="G47" t="n">
-        <v>3.394580747587613</v>
+        <v>3.077005501428043</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.3333346048990886</v>
+        <v>1.588728845351963</v>
       </c>
       <c r="I47" t="n">
-        <v>2.83581829274387</v>
+        <v>2.407607864512893</v>
       </c>
       <c r="J47" t="n">
-        <v>239.1999969482422</v>
+        <v>181.6000061035156</v>
       </c>
       <c r="K47" t="n">
-        <v>240</v>
+        <v>178.7599945068359</v>
       </c>
       <c r="L47" t="n">
-        <v>241.1499938964844</v>
+        <v>182.8999938964844</v>
       </c>
       <c r="M47" t="n">
-        <v>234.5</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="N47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>242.7400054931641</v>
+        <v>184.2700042724609</v>
       </c>
       <c r="P47" t="n">
-        <v>-1.458353985668657</v>
+        <v>-1.448959736820467</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
@@ -3235,56 +3470,61 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>HINDUNILVR.BO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>36.91</v>
+        <v>2411.2</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1.075376577712783</v>
+        <v>-0.647489650780172</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3015106047817211</v>
+        <v>2.260906485511092</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.4238136526717645</v>
       </c>
       <c r="I48" t="n">
-        <v>1.381051198314888</v>
+        <v>1.650738488271069</v>
       </c>
       <c r="J48" t="n">
-        <v>99.40000152587891</v>
+        <v>2333.949951171875</v>
       </c>
       <c r="K48" t="n">
-        <v>99.40000152587891</v>
+        <v>2324.10009765625</v>
       </c>
       <c r="L48" t="n">
-        <v>100.5699996948242</v>
+        <v>2340</v>
       </c>
       <c r="M48" t="n">
-        <v>99.19999694824219</v>
+        <v>2302</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>99.5</v>
+        <v>2355.25</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1005009790161746</v>
+        <v>-0.9043646673654602</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
@@ -3294,56 +3534,61 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PREMIERENE</t>
+          <t>RELIANCE.NS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>450</v>
+        <v>1298.7</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>3.609557702084393</v>
+        <v>-0.8670896355277186</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1575991655280884</v>
+        <v>2.309879175550817</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.970292296547701</v>
+        <v>-0.599065234797907</v>
       </c>
       <c r="I49" t="n">
-        <v>3.446526839018309</v>
+        <v>1.476904243588578</v>
       </c>
       <c r="J49" t="n">
-        <v>990</v>
+        <v>1377.199951171875</v>
       </c>
       <c r="K49" t="n">
-        <v>999.7000122070312</v>
+        <v>1385.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1019</v>
+        <v>1394.800048828125</v>
       </c>
       <c r="M49" t="n">
-        <v>985.0499877929688</v>
+        <v>1374.5</v>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>983.5</v>
+        <v>1407</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6609049313675649</v>
+        <v>-2.117984991337953</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
@@ -3353,941 +3598,61 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RPOWER</t>
+          <t>SOUTHBANK.BO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>23.95</v>
+        <v>24.17</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F50" t="n">
-        <v>2.411139029929017</v>
+        <v>0.9504113015920055</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8451408313612685</v>
+        <v>1.69421419209207</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1225771903366491</v>
+        <v>2.311892458573095</v>
       </c>
       <c r="I50" t="n">
-        <v>3.284034578428609</v>
+        <v>2.690203299785165</v>
       </c>
       <c r="J50" t="n">
-        <v>40.7400016784668</v>
+        <v>24.34000015258789</v>
       </c>
       <c r="K50" t="n">
-        <v>40.79000091552734</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="L50" t="n">
-        <v>41.20000076293945</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="M50" t="n">
-        <v>39.88999938964844</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>40.22999954223633</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="P50" t="n">
-        <v>1.267715988152155</v>
+        <v>0.5785098563419734</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SBIN</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>353.35</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2886893131327169</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.845112587146703</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.023017902813299</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.173913043478261</v>
-      </c>
-      <c r="J51" t="n">
-        <v>790</v>
-      </c>
-      <c r="K51" t="n">
-        <v>782</v>
-      </c>
-      <c r="L51" t="n">
-        <v>799</v>
-      </c>
-      <c r="M51" t="n">
-        <v>782</v>
-      </c>
-      <c r="N51" t="n">
-        <v>4</v>
-      </c>
-      <c r="O51" t="n">
-        <v>796.7000122070312</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-0.8409705164269757</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SUVEN</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7.662763943635848</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0.4819837596927151</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6.359644271432188</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7.146336004986026</v>
-      </c>
-      <c r="J52" t="n">
-        <v>130.9499969482422</v>
-      </c>
-      <c r="K52" t="n">
-        <v>123.120002746582</v>
-      </c>
-      <c r="L52" t="n">
-        <v>131.7899932861328</v>
-      </c>
-      <c r="M52" t="n">
-        <v>123</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4</v>
-      </c>
-      <c r="O52" t="n">
-        <v>122.4100036621094</v>
-      </c>
-      <c r="P52" t="n">
-        <v>6.976548509634814</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>TATAMOTORS</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>968.65</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.703751269175863</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1.039901441054104</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-0.2111809922744657</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.646725505856155</v>
-      </c>
-      <c r="J53" t="n">
-        <v>661.5499877929688</v>
-      </c>
-      <c r="K53" t="n">
-        <v>662.9500122070312</v>
-      </c>
-      <c r="L53" t="n">
-        <v>666.6500244140625</v>
-      </c>
-      <c r="M53" t="n">
-        <v>655.8499755859375</v>
-      </c>
-      <c r="N53" t="n">
-        <v>4</v>
-      </c>
-      <c r="O53" t="n">
-        <v>649.0999755859375</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.918042316330812</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>TECHM</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>1141.1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.8299327097706172</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.2409460976348458</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-0.2935306480361908</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.073465280107347</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1494.599975585938</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1499</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1506.5</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1490.5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1494.099975585938</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.03346496273142072</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>TFCILTD</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3.646651308691142</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.3266371806232418</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.866537985197942</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.986309257483953</v>
-      </c>
-      <c r="J55" t="n">
-        <v>210.6600036621094</v>
-      </c>
-      <c r="K55" t="n">
-        <v>206.8000030517578</v>
-      </c>
-      <c r="L55" t="n">
-        <v>212.6000061035156</v>
-      </c>
-      <c r="M55" t="n">
-        <v>204.4499969482422</v>
-      </c>
-      <c r="N55" t="n">
-        <v>4</v>
-      </c>
-      <c r="O55" t="n">
-        <v>205.1199951171875</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2.700862264430536</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>UCOBANK</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.8617952710538446</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.9575462425505799</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-0.3488760163527466</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.836930977154414</v>
-      </c>
-      <c r="J56" t="n">
-        <v>31.42000007629395</v>
-      </c>
-      <c r="K56" t="n">
-        <v>31.53000068664551</v>
-      </c>
-      <c r="L56" t="n">
-        <v>31.60000038146973</v>
-      </c>
-      <c r="M56" t="n">
-        <v>31.03000068664551</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4</v>
-      </c>
-      <c r="O56" t="n">
-        <v>31.32999992370605</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.2872650903512815</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>VAKRANGEE</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="E57" t="n">
-        <v>11</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.323830127097015</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.9164985273403479</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-1.608038698283415</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.261051154975122</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.789999961853027</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9.949999809265137</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9.949999809265137</v>
-      </c>
-      <c r="M57" t="n">
-        <v>9.729999542236328</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4</v>
-      </c>
-      <c r="O57" t="n">
-        <v>9.819999694824219</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-0.3054962719296542</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>VISAKAIND</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.500411911818039</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.368510816443314</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.070836413528513</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.908728999236933</v>
-      </c>
-      <c r="J58" t="n">
-        <v>61.34999847412109</v>
-      </c>
-      <c r="K58" t="n">
-        <v>60.70000076293945</v>
-      </c>
-      <c r="L58" t="n">
-        <v>61.56000137329102</v>
-      </c>
-      <c r="M58" t="n">
-        <v>59.81999969482422</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4</v>
-      </c>
-      <c r="O58" t="n">
-        <v>60.65000152587891</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.154158170867488</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>VMM</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>78</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4.790421023423904</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3.127074662040468</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.762440825910898</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8.173073805547515</v>
-      </c>
-      <c r="J59" t="n">
-        <v>124.1399993896484</v>
-      </c>
-      <c r="K59" t="n">
-        <v>121.9899978637695</v>
-      </c>
-      <c r="L59" t="n">
-        <v>126</v>
-      </c>
-      <c r="M59" t="n">
-        <v>116.4800033569336</v>
-      </c>
-      <c r="N59" t="n">
-        <v>4</v>
-      </c>
-      <c r="O59" t="n">
-        <v>120.2399978637695</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3.243514300705129</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3.938187551971924</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.9388541922015162</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1.747337885818294</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.971435909168597</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1240.300048828125</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1219</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1251</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1214.900024414062</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1203.599975585938</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3.04919192311558</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>WABAG</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.842468942869762</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.5834466243190944</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.7621951219512195</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.440152554898649</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1322</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1312</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1326.599975585938</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1295</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1302.599975585938</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.489330936409388</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>WIPRO</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>219.32</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.147468801179892</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.4220474608460016</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-0.1762265064677254</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.718169848116891</v>
-      </c>
-      <c r="J62" t="n">
-        <v>243.5700073242188</v>
-      </c>
-      <c r="K62" t="n">
-        <v>244</v>
-      </c>
-      <c r="L62" t="n">
-        <v>246.8699951171875</v>
-      </c>
-      <c r="M62" t="n">
-        <v>242.6999969482422</v>
-      </c>
-      <c r="N62" t="n">
-        <v>4</v>
-      </c>
-      <c r="O62" t="n">
-        <v>241.6799926757812</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.7820319040529738</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E63" t="n">
-        <v>171</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.6772056652562117</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.185096459424762</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.1694846214904517</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.884636889734227</v>
-      </c>
-      <c r="J63" t="n">
-        <v>17.72999954223633</v>
-      </c>
-      <c r="K63" t="n">
-        <v>17.70000076293945</v>
-      </c>
-      <c r="L63" t="n">
-        <v>17.84000015258789</v>
-      </c>
-      <c r="M63" t="n">
-        <v>17.51000022888184</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
-      <c r="O63" t="n">
-        <v>17.71999931335449</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.05643470242292487</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>n.v.saikumar9@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>HARSH VARDHAN</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>STERTOOLS</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>356.45</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3.077920034946162</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.9881703720336572</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.4996736724608087</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.106671316203346</v>
-      </c>
-      <c r="J64" t="n">
-        <v>311.75</v>
-      </c>
-      <c r="K64" t="n">
-        <v>310.2000122070312</v>
-      </c>
-      <c r="L64" t="n">
-        <v>318.1499938964844</v>
-      </c>
-      <c r="M64" t="n">
-        <v>305.6000061035156</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3</v>
-      </c>
-      <c r="O64" t="n">
-        <v>308.6499938964844</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.004375883628013</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>nunna.harshavardhan2001@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>HARSH VARDHAN</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TATAMOTORS</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>873.5667</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.703751269175863</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1.039901441054104</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-0.2111809922744657</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.646725505856155</v>
-      </c>
-      <c r="J65" t="n">
-        <v>661.5499877929688</v>
-      </c>
-      <c r="K65" t="n">
-        <v>662.9500122070312</v>
-      </c>
-      <c r="L65" t="n">
-        <v>666.6500244140625</v>
-      </c>
-      <c r="M65" t="n">
-        <v>655.8499755859375</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3</v>
-      </c>
-      <c r="O65" t="n">
-        <v>649.0999755859375</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.918042316330812</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>nunna.harshavardhan2001@gmail.com</t>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
         </is>
       </c>
     </row>

--- a/Portfolio_Analyser.xlsx
+++ b/Portfolio_Analyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,61 +526,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BAJAJHIND.BO</t>
+          <t>BANKINDIA.NS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.05</v>
+        <v>109.88</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>3.255072667032191</v>
+        <v>3.115149815815128</v>
       </c>
       <c r="G2" t="n">
-        <v>4.108860550523518</v>
+        <v>3.393290971072104</v>
       </c>
       <c r="H2" t="n">
-        <v>6.121315656658128</v>
+        <v>5.777355517055504</v>
       </c>
       <c r="I2" t="n">
-        <v>7.679472013611485</v>
+        <v>6.737048443435068</v>
       </c>
       <c r="J2" t="n">
-        <v>19.06999969482422</v>
+        <v>110.2200012207031</v>
       </c>
       <c r="K2" t="n">
-        <v>17.96999931335449</v>
+        <v>104.1999969482422</v>
       </c>
       <c r="L2" t="n">
-        <v>19.35000038146973</v>
+        <v>111.2200012207031</v>
       </c>
       <c r="M2" t="n">
-        <v>17.96999931335449</v>
+        <v>104.1999969482422</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>18.73999977111816</v>
+        <v>107.8600006103516</v>
       </c>
       <c r="P2" t="n">
-        <v>1.760938781945164</v>
+        <v>2.188022062856421</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>BAJAJHIND</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
@@ -590,61 +590,61 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BANDHANBNK.BO</t>
+          <t>COCHINSHIP.NS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>199.2</v>
+        <v>1443</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.367048272405725</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.766662018060553</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.094799215641297</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.22603669582126</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1484.599975585938</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1426.199951171875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1492</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1417.900024414062</v>
+      </c>
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.4132192523038297</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.701843558516388</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.180983536204356</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.201564063234494</v>
-      </c>
-      <c r="J3" t="n">
-        <v>156.9499969482422</v>
-      </c>
-      <c r="K3" t="n">
-        <v>153.6000061035156</v>
-      </c>
-      <c r="L3" t="n">
-        <v>157.9499969482422</v>
-      </c>
-      <c r="M3" t="n">
-        <v>153.0500030517578</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
       <c r="O3" t="n">
-        <v>157.3000030517578</v>
+        <v>1443.400024414062</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2225086438176733</v>
+        <v>2.854368191423567</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>COCHINSHIP</t>
         </is>
       </c>
     </row>
@@ -654,61 +654,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BANKBARODA.NS</t>
+          <t>EXCELINDUS.NS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>238.45</v>
+        <v>1051</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.486627543620141</v>
+        <v>-0.802754607996702</v>
       </c>
       <c r="G4" t="n">
-        <v>2.172412725128936</v>
+        <v>5.284790475716069</v>
       </c>
       <c r="H4" t="n">
-        <v>3.333485450778317</v>
+        <v>1.94126431060229</v>
       </c>
       <c r="I4" t="n">
-        <v>3.740294911360831</v>
+        <v>4.732118410792538</v>
       </c>
       <c r="J4" t="n">
-        <v>220.0899963378906</v>
+        <v>1024</v>
       </c>
       <c r="K4" t="n">
-        <v>212.9900054931641</v>
+        <v>1004.5</v>
       </c>
       <c r="L4" t="n">
-        <v>220.5</v>
+        <v>1038</v>
       </c>
       <c r="M4" t="n">
-        <v>212.5500030517578</v>
+        <v>991.0999755859375</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>217.2700042724609</v>
+        <v>1046.400024414062</v>
       </c>
       <c r="P4" t="n">
-        <v>1.297920564264067</v>
+        <v>-2.140675066077671</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>EXCELINDUS</t>
         </is>
       </c>
     </row>
@@ -718,61 +718,61 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BHEL.BO</t>
+          <t>EXIDEIND.NS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59.35</v>
+        <v>379.85</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2760482299875388</v>
+        <v>0.3741183540754476</v>
       </c>
       <c r="G5" t="n">
-        <v>3.19761307194131</v>
+        <v>2.868229438396229</v>
       </c>
       <c r="H5" t="n">
-        <v>3.018063824963699</v>
+        <v>2.981458546941869</v>
       </c>
       <c r="I5" t="n">
-        <v>3.588404596376734</v>
+        <v>3.338091927826319</v>
       </c>
       <c r="J5" t="n">
-        <v>216.75</v>
+        <v>360.9500122070312</v>
       </c>
       <c r="K5" t="n">
-        <v>210.3999938964844</v>
+        <v>350.5</v>
       </c>
       <c r="L5" t="n">
-        <v>217.9499969482422</v>
+        <v>362.2000122070312</v>
       </c>
       <c r="M5" t="n">
-        <v>210.3999938964844</v>
+        <v>350.5</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>217.3500061035156</v>
+        <v>360.8500061035156</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.276055250364182</v>
+        <v>0.02771403680867243</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
@@ -782,61 +782,61 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BIGBLOC.NS</t>
+          <t>HAPPSTMNDS.NS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19.95</v>
+        <v>573.6</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.8631720192011672</v>
       </c>
       <c r="G6" t="n">
-        <v>4.59824894162633</v>
+        <v>4.187676354361329</v>
       </c>
       <c r="H6" t="n">
-        <v>3.224202260999097</v>
+        <v>2.52086144412455</v>
       </c>
       <c r="I6" t="n">
-        <v>4.819878975609986</v>
+        <v>3.469808693353293</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11000061035156</v>
+        <v>577.5</v>
       </c>
       <c r="K6" t="n">
-        <v>60.16999816894531</v>
+        <v>563.2999877929688</v>
       </c>
       <c r="L6" t="n">
-        <v>62.84999847412109</v>
+        <v>580</v>
       </c>
       <c r="M6" t="n">
-        <v>59.95999908447266</v>
+        <v>560.5499877929688</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>62.84999847412109</v>
+        <v>585.0499877929688</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.177403153118978</v>
+        <v>-1.290485932911507</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>BIGBLOC</t>
+          <t>HAPPSTMNDS</t>
         </is>
       </c>
     </row>
@@ -846,61 +846,61 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CANBK.BO</t>
+          <t>HINDUNILVR.BO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>106.68</v>
+        <v>2244</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166286810049908</v>
+        <v>-0.647489650780172</v>
       </c>
       <c r="G7" t="n">
-        <v>1.803306396349217</v>
+        <v>2.260906485511092</v>
       </c>
       <c r="H7" t="n">
-        <v>4.260087238693655</v>
+        <v>0.4238136526717645</v>
       </c>
       <c r="I7" t="n">
-        <v>5.060855945372039</v>
+        <v>1.650738488271069</v>
       </c>
       <c r="J7" t="n">
-        <v>97.65000152587891</v>
+        <v>2333.949951171875</v>
       </c>
       <c r="K7" t="n">
-        <v>93.66000366210938</v>
+        <v>2324.10009765625</v>
       </c>
       <c r="L7" t="n">
-        <v>98.40000152587891</v>
+        <v>2340</v>
       </c>
       <c r="M7" t="n">
-        <v>93.66000366210938</v>
+        <v>2302</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>95.37999725341797</v>
+        <v>2355.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.379958416679019</v>
+        <v>-0.9043646673654602</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
@@ -910,61 +910,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COCHINSHIP.BO</t>
+          <t>IDFCFIRSTB.BO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1519.5</v>
+        <v>60.12</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>3.296168990420764</v>
+        <v>0.6772078228795506</v>
       </c>
       <c r="G8" t="n">
-        <v>1.983936354713798</v>
+        <v>2.407823246955648</v>
       </c>
       <c r="H8" t="n">
-        <v>3.442510412129791</v>
+        <v>2.097148253433316</v>
       </c>
       <c r="I8" t="n">
-        <v>5.386979591674812</v>
+        <v>3.16114587508569</v>
       </c>
       <c r="J8" t="n">
-        <v>1484.400024414062</v>
+        <v>66.20999908447266</v>
       </c>
       <c r="K8" t="n">
-        <v>1435</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="L8" t="n">
-        <v>1491.699951171875</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.449951171875</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1444.099975585938</v>
+        <v>66.44999694824219</v>
       </c>
       <c r="P8" t="n">
-        <v>2.790668894774645</v>
+        <v>-0.3611706166916234</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>COCHINSHIP</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
@@ -974,61 +974,61 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DELTACORP.BO</t>
+          <t>KPIGREEN.BO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>140.4</v>
+        <v>420.05</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8922531142517761</v>
+        <v>-1.992196717213266</v>
       </c>
       <c r="G9" t="n">
-        <v>7.82697112437059</v>
+        <v>6.505992337868455</v>
       </c>
       <c r="H9" t="n">
-        <v>3.908837663948778</v>
+        <v>3.873659047547859</v>
       </c>
       <c r="I9" t="n">
-        <v>7.523586991457059</v>
+        <v>4.827898315116765</v>
       </c>
       <c r="J9" t="n">
-        <v>84.80000305175781</v>
+        <v>348.6000061035156</v>
       </c>
       <c r="K9" t="n">
-        <v>81.61000061035156</v>
+        <v>335.6000061035156</v>
       </c>
       <c r="L9" t="n">
-        <v>87.75</v>
+        <v>351.75</v>
       </c>
       <c r="M9" t="n">
-        <v>81.61000061035156</v>
+        <v>335.5499877929688</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>88.54000091552734</v>
+        <v>358.8999938964844</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.224077055677604</v>
+        <v>-2.869876837038766</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DELTACORP</t>
+          <t>KPIGREEN</t>
         </is>
       </c>
     </row>
@@ -1038,61 +1038,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EMBDL.NS</t>
+          <t>MAHABANK.BO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77.15000000000001</v>
+        <v>46.28</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5788540775765122</v>
+        <v>0.4292782236922341</v>
       </c>
       <c r="G10" t="n">
-        <v>2.555697248018324</v>
+        <v>3.638591263126473</v>
       </c>
       <c r="H10" t="n">
-        <v>1.433334350585938</v>
+        <v>2.566820322739253</v>
       </c>
       <c r="I10" t="n">
-        <v>3.216762024120585</v>
+        <v>4.221471583013607</v>
       </c>
       <c r="J10" t="n">
-        <v>91.29000091552734</v>
+        <v>48.34999847412109</v>
       </c>
       <c r="K10" t="n">
-        <v>90</v>
+        <v>47.13999938964844</v>
       </c>
       <c r="L10" t="n">
-        <v>92.08999633789062</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="M10" t="n">
-        <v>89.22000122070312</v>
+        <v>47.13999938964844</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>91.55999755859375</v>
+        <v>48.91999816894531</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2948849391281625</v>
+        <v>-1.165167040390565</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>EMBDL</t>
+          <t>MAHABANK</t>
         </is>
       </c>
     </row>
@@ -1102,61 +1102,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EXIDEIND.NS</t>
+          <t>RELIANCE.BO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>316.3</v>
+        <v>1289.5</v>
       </c>
       <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.7011407450698964</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.33476366358139</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4154331816644267</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.672675948772909</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1377.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1372.050048828125</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1395</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1372.050048828125</v>
+      </c>
+      <c r="N11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.3741183540754476</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.868229438396229</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.981458546941869</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.338091927826319</v>
-      </c>
-      <c r="J11" t="n">
-        <v>360.9500122070312</v>
-      </c>
-      <c r="K11" t="n">
-        <v>350.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>362.2000122070312</v>
-      </c>
-      <c r="M11" t="n">
-        <v>350.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
       <c r="O11" t="n">
-        <v>360.8500061035156</v>
+        <v>1404.849975585938</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02771403680867243</v>
+        <v>-1.929029864888925</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
@@ -1166,61 +1166,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>SAIL.NS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>380.35</v>
+        <v>116.89</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3312476680045449</v>
+        <v>0.07323492550270441</v>
       </c>
       <c r="G12" t="n">
-        <v>2.537176642509839</v>
+        <v>2.737090738044762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2293871807795699</v>
+        <v>1.87850666937427</v>
       </c>
       <c r="I12" t="n">
-        <v>2.263354270390901</v>
+        <v>2.889411477481617</v>
       </c>
       <c r="J12" t="n">
-        <v>1398.199951171875</v>
+        <v>109.0100021362305</v>
       </c>
       <c r="K12" t="n">
-        <v>1395</v>
+        <v>107</v>
       </c>
       <c r="L12" t="n">
-        <v>1414.199951171875</v>
+        <v>109.3199996948242</v>
       </c>
       <c r="M12" t="n">
-        <v>1382.900024414062</v>
+        <v>106.25</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1418.900024414062</v>
+        <v>109.2399978637695</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.458881731342251</v>
+        <v>-0.2105416807366514</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
@@ -1230,61 +1230,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HDFCBANK.NS</t>
+          <t>SOUTHBANK.BO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1447.1</v>
+        <v>23.86</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4926108374384237</v>
+        <v>0.9504113015920055</v>
       </c>
       <c r="G13" t="n">
-        <v>2.162299775570391</v>
+        <v>1.69421419209207</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.068008202440013</v>
+        <v>2.311892458573095</v>
       </c>
       <c r="I13" t="n">
-        <v>1.706590541582512</v>
+        <v>2.690203299785165</v>
       </c>
       <c r="J13" t="n">
-        <v>1889.699951171875</v>
+        <v>24.34000015258789</v>
       </c>
       <c r="K13" t="n">
-        <v>1910.099975585938</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="L13" t="n">
-        <v>1919</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="M13" t="n">
-        <v>1886.800048828125</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1928.5</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.011928899565725</v>
+        <v>0.5785098563419734</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>SOUTHBANK</t>
         </is>
       </c>
     </row>
@@ -1294,61 +1294,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ICICIBANK.NS</t>
+          <t>TATAMOTORS.BO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1258.1</v>
+        <v>624.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.086727661855625</v>
+        <v>4.245483228534986</v>
       </c>
       <c r="G14" t="n">
-        <v>3.378613723441309</v>
+        <v>2.830334086687999</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.858389461929708</v>
+        <v>6.927260203031714</v>
       </c>
       <c r="I14" t="n">
-        <v>2.372027715505588</v>
+        <v>7.281919978540974</v>
       </c>
       <c r="J14" t="n">
-        <v>1388.900024414062</v>
+        <v>708.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.199951171875</v>
+        <v>662.5999755859375</v>
       </c>
       <c r="L14" t="n">
-        <v>1419.900024414062</v>
+        <v>710.8499755859375</v>
       </c>
       <c r="M14" t="n">
-        <v>1387</v>
+        <v>662.5999755859375</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1435.5</v>
+        <v>681.9000244140625</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.246253959312957</v>
+        <v>3.900861509543736</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
@@ -1358,61 +1358,61 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NARAVA VEERA SAI KUMAR</t>
+          <t>NILLA NAGRAJ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IDBI.NS</t>
+          <t>TCS.BO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31.55</v>
+        <v>3280.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2601854696116969</v>
+        <v>-0.06671739577664225</v>
       </c>
       <c r="G15" t="n">
-        <v>2.432682034300018</v>
+        <v>1.956517197557779</v>
       </c>
       <c r="H15" t="n">
-        <v>1.05960669106995</v>
+        <v>1.84023524177145</v>
       </c>
       <c r="I15" t="n">
-        <v>2.226664225260417</v>
+        <v>1.927511903661242</v>
       </c>
       <c r="J15" t="n">
-        <v>76.30000305175781</v>
+        <v>3442.199951171875</v>
       </c>
       <c r="K15" t="n">
-        <v>75.5</v>
+        <v>3380</v>
       </c>
       <c r="L15" t="n">
-        <v>76.66999816894531</v>
+        <v>3445.14990234375</v>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>3380</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>76.87000274658203</v>
+        <v>3447.449951171875</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.7415112195368867</v>
+        <v>-0.152286474767107</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>n.v.saikumar9@gmail.com</t>
+          <t>nillanagaraju567@gmail.com</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>IDBI</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
@@ -1427,47 +1427,47 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IDEA.BO</t>
+          <t>BAJAJHIND.BO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11.45</v>
+        <v>10.05</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8968601235628331</v>
+        <v>3.255072667032191</v>
       </c>
       <c r="G16" t="n">
-        <v>3.437967370796197</v>
+        <v>4.108860550523518</v>
       </c>
       <c r="H16" t="n">
-        <v>2.914111315587141</v>
+        <v>6.121315656658128</v>
       </c>
       <c r="I16" t="n">
-        <v>4.489163469667916</v>
+        <v>7.679472013611485</v>
       </c>
       <c r="J16" t="n">
-        <v>6.710000038146973</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="K16" t="n">
-        <v>6.519999980926514</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="L16" t="n">
-        <v>6.75</v>
+        <v>19.35000038146973</v>
       </c>
       <c r="M16" t="n">
-        <v>6.460000038146973</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="N16" t="n">
         <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>6.690000057220459</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2989533745209443</v>
+        <v>1.760938781945164</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>BAJAJHIND</t>
         </is>
       </c>
     </row>
@@ -1491,47 +1491,47 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB.BO</t>
+          <t>BANDHANBNK.BO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72.01000000000001</v>
+        <v>199.2</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6772078228795506</v>
+        <v>0.4132192523038297</v>
       </c>
       <c r="G17" t="n">
-        <v>2.407823246955648</v>
+        <v>2.701843558516388</v>
       </c>
       <c r="H17" t="n">
-        <v>2.097148253433316</v>
+        <v>2.180983536204356</v>
       </c>
       <c r="I17" t="n">
-        <v>3.16114587508569</v>
+        <v>3.201564063234494</v>
       </c>
       <c r="J17" t="n">
-        <v>66.20999908447266</v>
+        <v>156.9499969482422</v>
       </c>
       <c r="K17" t="n">
-        <v>64.84999847412109</v>
+        <v>153.6000061035156</v>
       </c>
       <c r="L17" t="n">
-        <v>66.90000152587891</v>
+        <v>157.9499969482422</v>
       </c>
       <c r="M17" t="n">
-        <v>64.84999847412109</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>66.44999694824219</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.3611706166916234</v>
+        <v>-0.2225086438176733</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
@@ -1555,47 +1555,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IEX.NS</t>
+          <t>BANKBARODA.NS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>144.59</v>
+        <v>238.45</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07899376518948621</v>
+        <v>1.486627543620141</v>
       </c>
       <c r="G18" t="n">
-        <v>4.160081174510574</v>
+        <v>2.172412725128936</v>
       </c>
       <c r="H18" t="n">
-        <v>4.054947737809066</v>
+        <v>3.333485450778317</v>
       </c>
       <c r="I18" t="n">
-        <v>4.42307859986693</v>
+        <v>3.740294911360831</v>
       </c>
       <c r="J18" t="n">
-        <v>189.3800048828125</v>
+        <v>220.0899963378906</v>
       </c>
       <c r="K18" t="n">
-        <v>182</v>
+        <v>212.9900054931641</v>
       </c>
       <c r="L18" t="n">
-        <v>190.0500030517578</v>
+        <v>220.5</v>
       </c>
       <c r="M18" t="n">
-        <v>182</v>
+        <v>212.5500030517578</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>189.8999938964844</v>
+        <v>217.2700042724609</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2738225541783451</v>
+        <v>1.297920564264067</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
@@ -1619,47 +1619,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ITC.NS</t>
+          <t>BHEL.BO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>494.85</v>
+        <v>59.35</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3367422634644991</v>
+        <v>0.2760482299875388</v>
       </c>
       <c r="G19" t="n">
-        <v>1.764980491358515</v>
+        <v>3.19761307194131</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5634521294240457</v>
+        <v>3.018063824963699</v>
       </c>
       <c r="I19" t="n">
-        <v>1.453899266308363</v>
+        <v>3.588404596376734</v>
       </c>
       <c r="J19" t="n">
-        <v>423.5499877929688</v>
+        <v>216.75</v>
       </c>
       <c r="K19" t="n">
-        <v>425.9500122070312</v>
+        <v>210.3999938964844</v>
       </c>
       <c r="L19" t="n">
-        <v>429.1499938964844</v>
+        <v>217.9499969482422</v>
       </c>
       <c r="M19" t="n">
-        <v>423</v>
+        <v>210.3999938964844</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>430.6000061035156</v>
+        <v>217.3500061035156</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.637254577477191</v>
+        <v>-0.276055250364182</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
@@ -1683,47 +1683,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JPPOWER.BO</t>
+          <t>BIGBLOC.NS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.4</v>
+        <v>19.95</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1.055802316982638</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.901965014968947</v>
+        <v>4.59824894162633</v>
       </c>
       <c r="H20" t="n">
-        <v>5.313244207260283</v>
+        <v>3.224202260999097</v>
       </c>
       <c r="I20" t="n">
-        <v>6.26486901952219</v>
+        <v>4.819878975609986</v>
       </c>
       <c r="J20" t="n">
-        <v>13.27999973297119</v>
+        <v>62.11000061035156</v>
       </c>
       <c r="K20" t="n">
-        <v>12.60999965667725</v>
+        <v>60.16999816894531</v>
       </c>
       <c r="L20" t="n">
-        <v>13.39999961853027</v>
+        <v>62.84999847412109</v>
       </c>
       <c r="M20" t="n">
-        <v>12.60999965667725</v>
+        <v>59.95999908447266</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>13.26000022888184</v>
+        <v>62.84999847412109</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1508258200915729</v>
+        <v>-1.177403153118978</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>JPPOWER</t>
+          <t>BIGBLOC</t>
         </is>
       </c>
     </row>
@@ -1747,47 +1747,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KALAMANDIR.NS</t>
+          <t>CANBK.BO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>269.35</v>
+        <v>106.68</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09583604419013425</v>
+        <v>3.166286810049908</v>
       </c>
       <c r="G21" t="n">
-        <v>1.550791774026345</v>
+        <v>1.803306396349217</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4513293240977599</v>
+        <v>4.260087238693655</v>
       </c>
       <c r="I21" t="n">
-        <v>1.67256583154729</v>
+        <v>5.060855945372039</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5100021362305</v>
+        <v>97.65000152587891</v>
       </c>
       <c r="K21" t="n">
-        <v>113</v>
+        <v>93.66000366210938</v>
       </c>
       <c r="L21" t="n">
-        <v>114.8899993896484</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="M21" t="n">
-        <v>113</v>
+        <v>93.66000366210938</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>114.7799987792969</v>
+        <v>95.37999725341797</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.106461627960462</v>
+        <v>2.379958416679019</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>KALAMANDIR</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KPIGREEN.NS</t>
+          <t>COCHINSHIP.BO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>692.95</v>
+        <v>1519.5</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.018093249826026</v>
+        <v>3.296168990420764</v>
       </c>
       <c r="G22" t="n">
-        <v>6.471816283924843</v>
+        <v>1.983936354713798</v>
       </c>
       <c r="H22" t="n">
-        <v>3.675597054617746</v>
+        <v>3.442510412129791</v>
       </c>
       <c r="I22" t="n">
-        <v>4.761904761904762</v>
+        <v>5.386979591674812</v>
       </c>
       <c r="J22" t="n">
-        <v>348.3500061035156</v>
+        <v>1484.400024414062</v>
       </c>
       <c r="K22" t="n">
-        <v>336</v>
+        <v>1435</v>
       </c>
       <c r="L22" t="n">
-        <v>352</v>
+        <v>1491.699951171875</v>
       </c>
       <c r="M22" t="n">
-        <v>336</v>
+        <v>1415.449951171875</v>
       </c>
       <c r="N22" t="n">
         <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>359.25</v>
+        <v>1444.099975585938</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.034097118019311</v>
+        <v>2.790668894774645</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>KPIGREEN</t>
+          <t>COCHINSHIP</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LTF.NS</t>
+          <t>DELTACORP.BO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>89.45</v>
+        <v>140.4</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3913651283714571</v>
+        <v>-0.8922531142517761</v>
       </c>
       <c r="G23" t="n">
-        <v>2.366535281646102</v>
+        <v>7.82697112437059</v>
       </c>
       <c r="H23" t="n">
-        <v>1.120566686226522</v>
+        <v>3.908837663948778</v>
       </c>
       <c r="I23" t="n">
-        <v>2.824749093943715</v>
+        <v>7.523586991457059</v>
       </c>
       <c r="J23" t="n">
-        <v>161.5299987792969</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="K23" t="n">
-        <v>159.7400054931641</v>
+        <v>81.61000061035156</v>
       </c>
       <c r="L23" t="n">
-        <v>164.1699981689453</v>
+        <v>87.75</v>
       </c>
       <c r="M23" t="n">
-        <v>159.6600036621094</v>
+        <v>81.61000061035156</v>
       </c>
       <c r="N23" t="n">
         <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>163.5299987792969</v>
+        <v>88.54000091552734</v>
       </c>
       <c r="P23" t="n">
-        <v>-1.223017192520889</v>
+        <v>-4.224077055677604</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>DELTACORP</t>
         </is>
       </c>
     </row>
@@ -1939,47 +1939,47 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LAURUSLABS.NS</t>
+          <t>EMBDL.NS</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>357.65</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6911831570263344</v>
+        <v>0.5788540775765122</v>
       </c>
       <c r="G24" t="n">
-        <v>2.338085488799458</v>
+        <v>2.555697248018324</v>
       </c>
       <c r="H24" t="n">
-        <v>1.868509998783521</v>
+        <v>1.433334350585938</v>
       </c>
       <c r="I24" t="n">
-        <v>3.101791175185671</v>
+        <v>3.216762024120585</v>
       </c>
       <c r="J24" t="n">
-        <v>588.7999877929688</v>
+        <v>91.29000091552734</v>
       </c>
       <c r="K24" t="n">
-        <v>578</v>
+        <v>90</v>
       </c>
       <c r="L24" t="n">
-        <v>590</v>
+        <v>92.08999633789062</v>
       </c>
       <c r="M24" t="n">
-        <v>572.25</v>
+        <v>89.22000122070312</v>
       </c>
       <c r="N24" t="n">
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>585.9500122070312</v>
+        <v>91.55999755859375</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4863854469774344</v>
+        <v>-0.2948849391281625</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>EMBDL</t>
         </is>
       </c>
     </row>
@@ -2003,47 +2003,47 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NTPC.NS</t>
+          <t>EXIDEIND.NS</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>170.2</v>
+        <v>316.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3676470588235294</v>
+        <v>0.3741183540754476</v>
       </c>
       <c r="G25" t="n">
-        <v>2.764704087201287</v>
+        <v>2.868229438396229</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1645684538838502</v>
+        <v>2.981458546941869</v>
       </c>
       <c r="I25" t="n">
-        <v>2.465212869334459</v>
+        <v>3.338091927826319</v>
       </c>
       <c r="J25" t="n">
-        <v>334.75</v>
+        <v>360.9500122070312</v>
       </c>
       <c r="K25" t="n">
-        <v>334.2000122070312</v>
+        <v>350.5</v>
       </c>
       <c r="L25" t="n">
-        <v>338.75</v>
+        <v>362.2000122070312</v>
       </c>
       <c r="M25" t="n">
-        <v>330.6000061035156</v>
+        <v>350.5</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>340</v>
+        <v>360.8500061035156</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.544117647058824</v>
+        <v>0.02771403680867243</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
@@ -2067,47 +2067,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ONGC.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>122.3</v>
+        <v>380.35</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8918625418779237</v>
+        <v>-0.3312476680045449</v>
       </c>
       <c r="G26" t="n">
-        <v>2.045280956819368</v>
+        <v>2.537176642509839</v>
       </c>
       <c r="H26" t="n">
-        <v>2.557835204816103</v>
+        <v>0.2293871807795699</v>
       </c>
       <c r="I26" t="n">
-        <v>2.99847064785366</v>
+        <v>2.263354270390901</v>
       </c>
       <c r="J26" t="n">
-        <v>234.9600067138672</v>
+        <v>1398.199951171875</v>
       </c>
       <c r="K26" t="n">
-        <v>229.1000061035156</v>
+        <v>1395</v>
       </c>
       <c r="L26" t="n">
-        <v>235.3000030517578</v>
+        <v>1414.199951171875</v>
       </c>
       <c r="M26" t="n">
-        <v>228.4499969482422</v>
+        <v>1382.900024414062</v>
       </c>
       <c r="N26" t="n">
         <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>233.2200012207031</v>
+        <v>1418.900024414062</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7460790172612352</v>
+        <v>-1.458881731342251</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
@@ -2131,47 +2131,47 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PNB.NS</t>
+          <t>HDFCBANK.NS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36.92</v>
+        <v>1447.1</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>1.083622873419026</v>
+        <v>-0.4926108374384237</v>
       </c>
       <c r="G27" t="n">
-        <v>2.090634467326133</v>
+        <v>2.162299775570391</v>
       </c>
       <c r="H27" t="n">
-        <v>2.188890245225695</v>
+        <v>-1.068008202440013</v>
       </c>
       <c r="I27" t="n">
-        <v>3.242036472686426</v>
+        <v>1.706590541582512</v>
       </c>
       <c r="J27" t="n">
-        <v>91.97000122070312</v>
+        <v>1889.699951171875</v>
       </c>
       <c r="K27" t="n">
-        <v>90</v>
+        <v>1910.099975585938</v>
       </c>
       <c r="L27" t="n">
-        <v>92.34999847412109</v>
+        <v>1919</v>
       </c>
       <c r="M27" t="n">
-        <v>89.44999694824219</v>
+        <v>1886.800048828125</v>
       </c>
       <c r="N27" t="n">
         <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>91.36000061035156</v>
+        <v>1928.5</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6676889298120761</v>
+        <v>-2.011928899565725</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
     </row>
@@ -2195,47 +2195,47 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PREMIERENE.NS</t>
+          <t>ICICIBANK.NS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>450</v>
+        <v>1258.1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9844381997245762</v>
+        <v>-1.086727661855625</v>
       </c>
       <c r="G28" t="n">
-        <v>2.926857632770199</v>
+        <v>3.378613723441309</v>
       </c>
       <c r="H28" t="n">
-        <v>2.565078569854935</v>
+        <v>-1.858389461929708</v>
       </c>
       <c r="I28" t="n">
-        <v>4.029225527384556</v>
+        <v>2.372027715505588</v>
       </c>
       <c r="J28" t="n">
-        <v>945.6500244140625</v>
+        <v>1388.900024414062</v>
       </c>
       <c r="K28" t="n">
-        <v>922</v>
+        <v>1415.199951171875</v>
       </c>
       <c r="L28" t="n">
-        <v>954</v>
+        <v>1419.900024414062</v>
       </c>
       <c r="M28" t="n">
-        <v>917.0499877929688</v>
+        <v>1387</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>944.7000122070312</v>
+        <v>1435.5</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1005623155240369</v>
+        <v>-3.246253959312957</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>PREMIERENE</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
@@ -2259,47 +2259,47 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RPOWER.BO</t>
+          <t>IDBI.NS</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23.95</v>
+        <v>31.55</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>1.462516440856652</v>
+        <v>-0.2601854696116969</v>
       </c>
       <c r="G29" t="n">
-        <v>3.369028165795168</v>
+        <v>2.432682034300018</v>
       </c>
       <c r="H29" t="n">
-        <v>4.065703179982638</v>
+        <v>1.05960669106995</v>
       </c>
       <c r="I29" t="n">
-        <v>4.999995876002957</v>
+        <v>2.226664225260417</v>
       </c>
       <c r="J29" t="n">
-        <v>38.65000152587891</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="K29" t="n">
-        <v>37.13999938964844</v>
+        <v>75.5</v>
       </c>
       <c r="L29" t="n">
-        <v>38.84999847412109</v>
+        <v>76.66999816894531</v>
       </c>
       <c r="M29" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>38.29000091552734</v>
+        <v>76.87000274658203</v>
       </c>
       <c r="P29" t="n">
-        <v>0.9401948334913077</v>
+        <v>-0.7415112195368867</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>RPOWER</t>
+          <t>IDBI</t>
         </is>
       </c>
     </row>
@@ -2323,47 +2323,47 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SBIN.NS</t>
+          <t>IDEA.BO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>353.35</v>
+        <v>11.45</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1.65149703602487</v>
+        <v>0.8968601235628331</v>
       </c>
       <c r="G30" t="n">
-        <v>1.755526657997399</v>
+        <v>3.437967370796197</v>
       </c>
       <c r="H30" t="n">
-        <v>3.007270323859881</v>
+        <v>2.914111315587141</v>
       </c>
       <c r="I30" t="n">
-        <v>3.467903667376737</v>
+        <v>4.489163469667916</v>
       </c>
       <c r="J30" t="n">
-        <v>779.25</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="K30" t="n">
-        <v>756.5</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="L30" t="n">
-        <v>781.7000122070312</v>
+        <v>6.75</v>
       </c>
       <c r="M30" t="n">
-        <v>755.5</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="N30" t="n">
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>769</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="P30" t="n">
-        <v>1.332899869960988</v>
+        <v>0.2989533745209443</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
@@ -2387,47 +2387,47 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUVEN.NS</t>
+          <t>IDFCFIRSTB.BO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>94.7</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>4.498292727182752</v>
+        <v>0.6772078228795506</v>
       </c>
       <c r="G31" t="n">
-        <v>4.237100965179561</v>
+        <v>2.407823246955648</v>
       </c>
       <c r="H31" t="n">
-        <v>3.985685988858935</v>
+        <v>2.097148253433316</v>
       </c>
       <c r="I31" t="n">
-        <v>9.121897708199111</v>
+        <v>3.16114587508569</v>
       </c>
       <c r="J31" t="n">
-        <v>142.4499969482422</v>
+        <v>66.20999908447266</v>
       </c>
       <c r="K31" t="n">
-        <v>136.9900054931641</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="L31" t="n">
-        <v>144.0299987792969</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9900054931641</v>
+        <v>64.84999847412109</v>
       </c>
       <c r="N31" t="n">
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>137.8300018310547</v>
+        <v>66.44999694824219</v>
       </c>
       <c r="P31" t="n">
-        <v>3.351951720098259</v>
+        <v>-0.3611706166916234</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>SUVEN</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
@@ -2451,47 +2451,47 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TATAMOTORS.NS</t>
+          <t>IEX.NS</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>968.65</v>
+        <v>144.59</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>4.122431781579493</v>
+        <v>0.07899376518948621</v>
       </c>
       <c r="G32" t="n">
-        <v>2.467595546368575</v>
+        <v>4.160081174510574</v>
       </c>
       <c r="H32" t="n">
-        <v>6.142322097378277</v>
+        <v>4.054947737809066</v>
       </c>
       <c r="I32" t="n">
-        <v>6.756756756756757</v>
+        <v>4.42307859986693</v>
       </c>
       <c r="J32" t="n">
-        <v>708.5</v>
+        <v>189.3800048828125</v>
       </c>
       <c r="K32" t="n">
-        <v>667.5</v>
+        <v>182</v>
       </c>
       <c r="L32" t="n">
-        <v>711</v>
+        <v>190.0500030517578</v>
       </c>
       <c r="M32" t="n">
-        <v>666</v>
+        <v>182</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>682.8499755859375</v>
+        <v>189.8999938964844</v>
       </c>
       <c r="P32" t="n">
-        <v>3.756319152249045</v>
+        <v>-0.2738225541783451</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>IEX</t>
         </is>
       </c>
     </row>
@@ -2515,47 +2515,47 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TECHM.NS</t>
+          <t>ITC.NS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1141.1</v>
+        <v>494.85</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.09981367788547063</v>
+        <v>-0.3367422634644991</v>
       </c>
       <c r="G33" t="n">
-        <v>1.643603436228824</v>
+        <v>1.764980491358515</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9256723764780406</v>
+        <v>-0.5634521294240457</v>
       </c>
       <c r="I33" t="n">
-        <v>1.569587553304079</v>
+        <v>1.453899266308363</v>
       </c>
       <c r="J33" t="n">
-        <v>1493.699951171875</v>
+        <v>423.5499877929688</v>
       </c>
       <c r="K33" t="n">
-        <v>1480</v>
+        <v>425.9500122070312</v>
       </c>
       <c r="L33" t="n">
-        <v>1501.300048828125</v>
+        <v>429.1499938964844</v>
       </c>
       <c r="M33" t="n">
-        <v>1478.099975585938</v>
+        <v>423</v>
       </c>
       <c r="N33" t="n">
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>1502.800048828125</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.6055428107915092</v>
+        <v>-1.637254577477191</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
@@ -2579,47 +2579,47 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TFCILTD.BO</t>
+          <t>JPPOWER.BO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>181.9</v>
+        <v>5.4</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3279561883359567</v>
+        <v>1.055802316982638</v>
       </c>
       <c r="G34" t="n">
-        <v>6.659938017904826</v>
+        <v>4.901965014968947</v>
       </c>
       <c r="H34" t="n">
-        <v>0.666668231670673</v>
+        <v>5.313244207260283</v>
       </c>
       <c r="I34" t="n">
-        <v>7.486489785684122</v>
+        <v>6.26486901952219</v>
       </c>
       <c r="J34" t="n">
-        <v>196.3000030517578</v>
+        <v>13.27999973297119</v>
       </c>
       <c r="K34" t="n">
-        <v>195</v>
+        <v>12.60999965667725</v>
       </c>
       <c r="L34" t="n">
-        <v>198.8500061035156</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="M34" t="n">
-        <v>185</v>
+        <v>12.60999965667725</v>
       </c>
       <c r="N34" t="n">
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>198.1999969482422</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.9586245841267789</v>
+        <v>0.1508258200915729</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>TFCILTD</t>
+          <t>JPPOWER</t>
         </is>
       </c>
     </row>
@@ -2643,47 +2643,47 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UCOBANK.BO</t>
+          <t>KALAMANDIR.NS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>269.35</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.300094203567728</v>
+        <v>0.09583604419013425</v>
       </c>
       <c r="G35" t="n">
-        <v>3.134373770144821</v>
+        <v>1.550791774026345</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7833771711681653</v>
+        <v>0.4513293240977599</v>
       </c>
       <c r="I35" t="n">
-        <v>2.925991062971658</v>
+        <v>1.67256583154729</v>
       </c>
       <c r="J35" t="n">
-        <v>29.59000015258789</v>
+        <v>113.5100021362305</v>
       </c>
       <c r="K35" t="n">
-        <v>29.36000061035156</v>
+        <v>113</v>
       </c>
       <c r="L35" t="n">
-        <v>29.89999961853027</v>
+        <v>114.8899993896484</v>
       </c>
       <c r="M35" t="n">
-        <v>29.04999923706055</v>
+        <v>113</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>29.98999786376953</v>
+        <v>114.7799987792969</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.333770389043181</v>
+        <v>-1.106461627960462</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>UCOBANK</t>
+          <t>KALAMANDIR</t>
         </is>
       </c>
     </row>
@@ -2707,47 +2707,47 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VAKRANGEE.NS</t>
+          <t>KPIGREEN.NS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.11</v>
+        <v>692.95</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5417035703171076</v>
+        <v>-2.018093249826026</v>
       </c>
       <c r="G36" t="n">
-        <v>4.44203540353341</v>
+        <v>6.471816283924843</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.777776082356771</v>
+        <v>3.675597054617746</v>
       </c>
       <c r="I36" t="n">
-        <v>4.081639714373451</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="J36" t="n">
-        <v>8.840000152587891</v>
+        <v>348.3500061035156</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>336</v>
       </c>
       <c r="L36" t="n">
-        <v>9.180000305175781</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
-        <v>8.819999694824219</v>
+        <v>336</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>9.229999542236328</v>
+        <v>359.25</v>
       </c>
       <c r="P36" t="n">
-        <v>-4.225345709539926</v>
+        <v>-3.034097118019311</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>VAKRANGEE</t>
+          <t>KPIGREEN</t>
         </is>
       </c>
     </row>
@@ -2771,47 +2771,47 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VISAKAIND.NS</t>
+          <t>LTF.NS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>92.8</v>
+        <v>89.45</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.22730253506132</v>
+        <v>0.3913651283714571</v>
       </c>
       <c r="G37" t="n">
-        <v>4.152658439328323</v>
+        <v>2.366535281646102</v>
       </c>
       <c r="H37" t="n">
-        <v>2.087357439820824</v>
+        <v>1.120566686226522</v>
       </c>
       <c r="I37" t="n">
-        <v>3.052099157507925</v>
+        <v>2.824749093943715</v>
       </c>
       <c r="J37" t="n">
-        <v>58.20000076293945</v>
+        <v>161.5299987792969</v>
       </c>
       <c r="K37" t="n">
-        <v>57.0099983215332</v>
+        <v>159.7400054931641</v>
       </c>
       <c r="L37" t="n">
-        <v>58.75</v>
+        <v>164.1699981689453</v>
       </c>
       <c r="M37" t="n">
-        <v>57.0099983215332</v>
+        <v>159.6600036621094</v>
       </c>
       <c r="N37" t="n">
         <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>59.47999954223633</v>
+        <v>163.5299987792969</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.151981824391167</v>
+        <v>-1.223017192520889</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>VISAKAIND</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
@@ -2835,47 +2835,47 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VMM.NS</t>
+          <t>LAURUSLABS.NS</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>78</v>
+        <v>357.65</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2.24851099109027</v>
+        <v>0.6911831570263344</v>
       </c>
       <c r="G38" t="n">
-        <v>1.963255238991627</v>
+        <v>2.338085488799458</v>
       </c>
       <c r="H38" t="n">
-        <v>1.846545083964833</v>
+        <v>1.868509998783521</v>
       </c>
       <c r="I38" t="n">
-        <v>4.296109831420086</v>
+        <v>3.101791175185671</v>
       </c>
       <c r="J38" t="n">
-        <v>120.7900009155273</v>
+        <v>588.7999877929688</v>
       </c>
       <c r="K38" t="n">
-        <v>118.5999984741211</v>
+        <v>578</v>
       </c>
       <c r="L38" t="n">
-        <v>121.870002746582</v>
+        <v>590</v>
       </c>
       <c r="M38" t="n">
-        <v>116.8499984741211</v>
+        <v>572.25</v>
       </c>
       <c r="N38" t="n">
         <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1900024414062</v>
+        <v>585.9500122070312</v>
       </c>
       <c r="P38" t="n">
-        <v>1.34239318847875</v>
+        <v>0.4863854469774344</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>VMM</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>
@@ -2899,47 +2899,47 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VOLTAS.BO</t>
+          <t>NTPC.NS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>997.7</v>
+        <v>170.2</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1.233355793817936</v>
+        <v>-0.3676470588235294</v>
       </c>
       <c r="G39" t="n">
-        <v>3.144653962633703</v>
+        <v>2.764704087201287</v>
       </c>
       <c r="H39" t="n">
-        <v>4.212341804272852</v>
+        <v>0.1645684538838502</v>
       </c>
       <c r="I39" t="n">
-        <v>4.520152924509325</v>
+        <v>2.465212869334459</v>
       </c>
       <c r="J39" t="n">
-        <v>1235.75</v>
+        <v>334.75</v>
       </c>
       <c r="K39" t="n">
-        <v>1185.800048828125</v>
+        <v>334.2000122070312</v>
       </c>
       <c r="L39" t="n">
-        <v>1239.400024414062</v>
+        <v>338.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1185.800048828125</v>
+        <v>330.6000061035156</v>
       </c>
       <c r="N39" t="n">
         <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.300048828125</v>
+        <v>340</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9352242681714062</v>
+        <v>-1.544117647058824</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
@@ -2963,47 +2963,47 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WABAG.NS</t>
+          <t>ONGC.NS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>267.8</v>
+        <v>122.3</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8430678481116396</v>
+        <v>0.8918625418779237</v>
       </c>
       <c r="G40" t="n">
-        <v>3.318123876863923</v>
+        <v>2.045280956819368</v>
       </c>
       <c r="H40" t="n">
-        <v>1.85599609375</v>
+        <v>2.557835204816103</v>
       </c>
       <c r="I40" t="n">
-        <v>2.56</v>
+        <v>2.99847064785366</v>
       </c>
       <c r="J40" t="n">
-        <v>1273.199951171875</v>
+        <v>234.9600067138672</v>
       </c>
       <c r="K40" t="n">
-        <v>1250</v>
+        <v>229.1000061035156</v>
       </c>
       <c r="L40" t="n">
-        <v>1282</v>
+        <v>235.3000030517578</v>
       </c>
       <c r="M40" t="n">
-        <v>1250</v>
+        <v>228.4499969482422</v>
       </c>
       <c r="N40" t="n">
         <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>1292.900024414062</v>
+        <v>233.2200012207031</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.523712032654304</v>
+        <v>0.7460790172612352</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>WABAG</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
@@ -3027,47 +3027,47 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WIPRO.NS</t>
+          <t>PNB.NS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>219.32</v>
+        <v>36.92</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5712586754080401</v>
+        <v>1.083622873419026</v>
       </c>
       <c r="G41" t="n">
-        <v>2.098773510990598</v>
+        <v>2.090634467326133</v>
       </c>
       <c r="H41" t="n">
-        <v>2.286554633880006</v>
+        <v>2.188890245225695</v>
       </c>
       <c r="I41" t="n">
-        <v>2.727271436888874</v>
+        <v>3.242036472686426</v>
       </c>
       <c r="J41" t="n">
-        <v>242.0099945068359</v>
+        <v>91.97000122070312</v>
       </c>
       <c r="K41" t="n">
-        <v>236.6000061035156</v>
+        <v>90</v>
       </c>
       <c r="L41" t="n">
-        <v>242.9499969482422</v>
+        <v>92.34999847412109</v>
       </c>
       <c r="M41" t="n">
-        <v>236.5</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="N41" t="n">
         <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>241.5700073242188</v>
+        <v>91.36000061035156</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1821365108569404</v>
+        <v>0.6676889298120761</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
@@ -3091,47 +3091,47 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YESBANK.NS</t>
+          <t>PREMIERENE.NS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14.57</v>
+        <v>450</v>
       </c>
       <c r="E42" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>11.73889934576789</v>
+        <v>0.9844381997245762</v>
       </c>
       <c r="G42" t="n">
-        <v>2.523308261236669</v>
+        <v>2.926857632770199</v>
       </c>
       <c r="H42" t="n">
-        <v>12.4719175048107</v>
+        <v>2.565078569854935</v>
       </c>
       <c r="I42" t="n">
-        <v>14.63140300783612</v>
+        <v>4.029225527384556</v>
       </c>
       <c r="J42" t="n">
-        <v>20.02000045776367</v>
+        <v>945.6500244140625</v>
       </c>
       <c r="K42" t="n">
-        <v>17.79999923706055</v>
+        <v>922</v>
       </c>
       <c r="L42" t="n">
-        <v>20.3700008392334</v>
+        <v>954</v>
       </c>
       <c r="M42" t="n">
-        <v>17.77000045776367</v>
+        <v>917.0499877929688</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>18.22999954223633</v>
+        <v>944.7000122070312</v>
       </c>
       <c r="P42" t="n">
-        <v>9.818984972436038</v>
+        <v>0.1005623155240369</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>PREMIERENE</t>
         </is>
       </c>
     </row>
@@ -3150,61 +3150,61 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AWHCL.NS</t>
+          <t>RPOWER.BO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>673</v>
+        <v>23.95</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7067843448271193</v>
+        <v>1.462516440856652</v>
       </c>
       <c r="G43" t="n">
-        <v>2.689704926448354</v>
+        <v>3.369028165795168</v>
       </c>
       <c r="H43" t="n">
-        <v>1.348090987330231</v>
+        <v>4.065703179982638</v>
       </c>
       <c r="I43" t="n">
-        <v>3.490369923046938</v>
+        <v>4.999995876002957</v>
       </c>
       <c r="J43" t="n">
-        <v>503.7000122070312</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="K43" t="n">
-        <v>497</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="L43" t="n">
-        <v>512.9500122070312</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="M43" t="n">
-        <v>495.6499938964844</v>
+        <v>37</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>509.3500061035156</v>
+        <v>38.29000091552734</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.109255684456814</v>
+        <v>0.9401948334913077</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>AWHCL</t>
+          <t>RPOWER</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3214,61 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BANKINDIA.NS</t>
+          <t>SBIN.NS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>111.35</v>
+        <v>353.35</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>3.115149815815128</v>
+        <v>1.65149703602487</v>
       </c>
       <c r="G44" t="n">
-        <v>3.393290971072104</v>
+        <v>1.755526657997399</v>
       </c>
       <c r="H44" t="n">
-        <v>5.777355517055504</v>
+        <v>3.007270323859881</v>
       </c>
       <c r="I44" t="n">
-        <v>6.737048443435068</v>
+        <v>3.467903667376737</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2200012207031</v>
+        <v>779.25</v>
       </c>
       <c r="K44" t="n">
-        <v>104.1999969482422</v>
+        <v>756.5</v>
       </c>
       <c r="L44" t="n">
-        <v>111.2200012207031</v>
+        <v>781.7000122070312</v>
       </c>
       <c r="M44" t="n">
-        <v>104.1999969482422</v>
+        <v>755.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>107.8600006103516</v>
+        <v>769</v>
       </c>
       <c r="P44" t="n">
-        <v>2.188022062856421</v>
+        <v>1.332899869960988</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
@@ -3278,61 +3278,61 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>SUVEN.NS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>592.22</v>
+        <v>94.7</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01295188272773925</v>
+        <v>4.498292727182752</v>
       </c>
       <c r="G45" t="n">
-        <v>2.500330122774043</v>
+        <v>4.237100965179561</v>
       </c>
       <c r="H45" t="n">
-        <v>2.111557027099933</v>
+        <v>3.985685988858935</v>
       </c>
       <c r="I45" t="n">
-        <v>2.577733861731605</v>
+        <v>9.121897708199111</v>
       </c>
       <c r="J45" t="n">
-        <v>384.4500122070312</v>
+        <v>142.4499969482422</v>
       </c>
       <c r="K45" t="n">
-        <v>376.5</v>
+        <v>136.9900054931641</v>
       </c>
       <c r="L45" t="n">
-        <v>386</v>
+        <v>144.0299987792969</v>
       </c>
       <c r="M45" t="n">
-        <v>376.2999877929688</v>
+        <v>131.9900054931641</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>385.9500122070312</v>
+        <v>137.8300018310547</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.3886513674199265</v>
+        <v>3.351951720098259</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>SUVEN</t>
         </is>
       </c>
     </row>
@@ -3342,61 +3342,61 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CONCOR.NS</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>810.2</v>
+        <v>968.65</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2662001726513118</v>
+        <v>4.122431781579493</v>
       </c>
       <c r="G46" t="n">
-        <v>1.840589621498486</v>
+        <v>2.467595546368575</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5191440701171283</v>
+        <v>6.142322097378277</v>
       </c>
       <c r="I46" t="n">
-        <v>2.14629426361267</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="J46" t="n">
-        <v>648.6500244140625</v>
+        <v>708.5</v>
       </c>
       <c r="K46" t="n">
-        <v>645.2999877929688</v>
+        <v>667.5</v>
       </c>
       <c r="L46" t="n">
-        <v>659.1500244140625</v>
+        <v>711</v>
       </c>
       <c r="M46" t="n">
-        <v>645.2999877929688</v>
+        <v>666</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>657.4000244140625</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.331000863256559</v>
+        <v>3.756319152249045</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
@@ -3406,61 +3406,61 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GAIL.NS</t>
+          <t>TECHM.NS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>189.75</v>
+        <v>1141.1</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7434798633590252</v>
+        <v>-0.09981367788547063</v>
       </c>
       <c r="G47" t="n">
-        <v>3.077005501428043</v>
+        <v>1.643603436228824</v>
       </c>
       <c r="H47" t="n">
-        <v>1.588728845351963</v>
+        <v>0.9256723764780406</v>
       </c>
       <c r="I47" t="n">
-        <v>2.407607864512893</v>
+        <v>1.569587553304079</v>
       </c>
       <c r="J47" t="n">
-        <v>181.6000061035156</v>
+        <v>1493.699951171875</v>
       </c>
       <c r="K47" t="n">
-        <v>178.7599945068359</v>
+        <v>1480</v>
       </c>
       <c r="L47" t="n">
-        <v>182.8999938964844</v>
+        <v>1501.300048828125</v>
       </c>
       <c r="M47" t="n">
-        <v>178.6000061035156</v>
+        <v>1478.099975585938</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O47" t="n">
-        <v>184.2700042724609</v>
+        <v>1502.800048828125</v>
       </c>
       <c r="P47" t="n">
-        <v>-1.448959736820467</v>
+        <v>-0.6055428107915092</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
@@ -3470,61 +3470,61 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HINDUNILVR.BO</t>
+          <t>TFCILTD.BO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2411.2</v>
+        <v>181.9</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.647489650780172</v>
+        <v>0.3279561883359567</v>
       </c>
       <c r="G48" t="n">
-        <v>2.260906485511092</v>
+        <v>6.659938017904826</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4238136526717645</v>
+        <v>0.666668231670673</v>
       </c>
       <c r="I48" t="n">
-        <v>1.650738488271069</v>
+        <v>7.486489785684122</v>
       </c>
       <c r="J48" t="n">
-        <v>2333.949951171875</v>
+        <v>196.3000030517578</v>
       </c>
       <c r="K48" t="n">
-        <v>2324.10009765625</v>
+        <v>195</v>
       </c>
       <c r="L48" t="n">
-        <v>2340</v>
+        <v>198.8500061035156</v>
       </c>
       <c r="M48" t="n">
-        <v>2302</v>
+        <v>185</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>2355.25</v>
+        <v>198.1999969482422</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.9043646673654602</v>
+        <v>-0.9586245841267789</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>TFCILTD</t>
         </is>
       </c>
     </row>
@@ -3534,61 +3534,61 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NARAVA GURUSWAMY SRINIVAS</t>
+          <t>NARAVA VEERA SAI KUMAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RELIANCE.NS</t>
+          <t>UCOBANK.BO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1298.7</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8670896355277186</v>
+        <v>-0.300094203567728</v>
       </c>
       <c r="G49" t="n">
-        <v>2.309879175550817</v>
+        <v>3.134373770144821</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.599065234797907</v>
+        <v>0.7833771711681653</v>
       </c>
       <c r="I49" t="n">
-        <v>1.476904243588578</v>
+        <v>2.925991062971658</v>
       </c>
       <c r="J49" t="n">
-        <v>1377.199951171875</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="K49" t="n">
-        <v>1385.5</v>
+        <v>29.36000061035156</v>
       </c>
       <c r="L49" t="n">
-        <v>1394.800048828125</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="M49" t="n">
-        <v>1374.5</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>1407</v>
+        <v>29.98999786376953</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.117984991337953</v>
+        <v>-1.333770389043181</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>naravaswamy9@gmail.com</t>
+          <t>n.v.saikumar9@gmail.com</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>UCOBANK</t>
         </is>
       </c>
     </row>
@@ -3598,59 +3598,955 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>VAKRANGEE.NS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5417035703171076</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.44203540353341</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-1.777776082356771</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.081639714373451</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.840000152587891</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9.180000305175781</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.819999694824219</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>9.229999542236328</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-4.225345709539926</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>VAKRANGEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>VISAKAIND.NS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-1.22730253506132</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.152658439328323</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.087357439820824</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.052099157507925</v>
+      </c>
+      <c r="J51" t="n">
+        <v>58.20000076293945</v>
+      </c>
+      <c r="K51" t="n">
+        <v>57.0099983215332</v>
+      </c>
+      <c r="L51" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="M51" t="n">
+        <v>57.0099983215332</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>59.47999954223633</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-2.151981824391167</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>VISAKAIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>VMM.NS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>78</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.24851099109027</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.963255238991627</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.846545083964833</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.296109831420086</v>
+      </c>
+      <c r="J52" t="n">
+        <v>120.7900009155273</v>
+      </c>
+      <c r="K52" t="n">
+        <v>118.5999984741211</v>
+      </c>
+      <c r="L52" t="n">
+        <v>121.870002746582</v>
+      </c>
+      <c r="M52" t="n">
+        <v>116.8499984741211</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>119.1900024414062</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.34239318847875</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>VMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>VOLTAS.BO</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.233355793817936</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.144653962633703</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.212341804272852</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.520152924509325</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1235.75</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1185.800048828125</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1239.400024414062</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1185.800048828125</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1224.300048828125</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.9352242681714062</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WABAG.NS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.8430678481116396</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.318123876863923</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.85599609375</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1273.199951171875</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1282</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1292.900024414062</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-1.523712032654304</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>WABAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>219.32</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5712586754080401</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.098773510990598</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.286554633880006</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.727271436888874</v>
+      </c>
+      <c r="J55" t="n">
+        <v>242.0099945068359</v>
+      </c>
+      <c r="K55" t="n">
+        <v>236.6000061035156</v>
+      </c>
+      <c r="L55" t="n">
+        <v>242.9499969482422</v>
+      </c>
+      <c r="M55" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>241.5700073242188</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.1821365108569404</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NARAVA VEERA SAI KUMAR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>YESBANK.NS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E56" t="n">
+        <v>171</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11.73889934576789</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.523308261236669</v>
+      </c>
+      <c r="H56" t="n">
+        <v>12.4719175048107</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14.63140300783612</v>
+      </c>
+      <c r="J56" t="n">
+        <v>20.02000045776367</v>
+      </c>
+      <c r="K56" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="L56" t="n">
+        <v>20.3700008392334</v>
+      </c>
+      <c r="M56" t="n">
+        <v>17.77000045776367</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>18.22999954223633</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.818984972436038</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>n.v.saikumar9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>NARAVA GURUSWAMY SRINIVAS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AWHCL.NS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>673</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7067843448271193</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.689704926448354</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.348090987330231</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.490369923046938</v>
+      </c>
+      <c r="J57" t="n">
+        <v>503.7000122070312</v>
+      </c>
+      <c r="K57" t="n">
+        <v>497</v>
+      </c>
+      <c r="L57" t="n">
+        <v>512.9500122070312</v>
+      </c>
+      <c r="M57" t="n">
+        <v>495.6499938964844</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>509.3500061035156</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-1.109255684456814</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>AWHCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BANKINDIA.NS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>111.35</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.115149815815128</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.393290971072104</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.777355517055504</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.737048443435068</v>
+      </c>
+      <c r="J58" t="n">
+        <v>110.2200012207031</v>
+      </c>
+      <c r="K58" t="n">
+        <v>104.1999969482422</v>
+      </c>
+      <c r="L58" t="n">
+        <v>111.2200012207031</v>
+      </c>
+      <c r="M58" t="n">
+        <v>104.1999969482422</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>107.8600006103516</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.188022062856421</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>592.22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01295188272773925</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.500330122774043</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.111557027099933</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.577733861731605</v>
+      </c>
+      <c r="J59" t="n">
+        <v>384.4500122070312</v>
+      </c>
+      <c r="K59" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>386</v>
+      </c>
+      <c r="M59" t="n">
+        <v>376.2999877929688</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>385.9500122070312</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.3886513674199265</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>BSOFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>810.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2662001726513118</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.840589621498486</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5191440701171283</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.14629426361267</v>
+      </c>
+      <c r="J60" t="n">
+        <v>648.6500244140625</v>
+      </c>
+      <c r="K60" t="n">
+        <v>645.2999877929688</v>
+      </c>
+      <c r="L60" t="n">
+        <v>659.1500244140625</v>
+      </c>
+      <c r="M60" t="n">
+        <v>645.2999877929688</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>657.4000244140625</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-1.331000863256559</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.7434798633590252</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.077005501428043</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.588728845351963</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.407607864512893</v>
+      </c>
+      <c r="J61" t="n">
+        <v>181.6000061035156</v>
+      </c>
+      <c r="K61" t="n">
+        <v>178.7599945068359</v>
+      </c>
+      <c r="L61" t="n">
+        <v>182.8999938964844</v>
+      </c>
+      <c r="M61" t="n">
+        <v>178.6000061035156</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>184.2700042724609</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-1.448959736820467</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>GAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.BO</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2411.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.647489650780172</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.260906485511092</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.4238136526717645</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.650738488271069</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2333.949951171875</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2324.10009765625</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2340</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2302</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2355.25</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.9043646673654602</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1298.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.8670896355277186</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.309879175550817</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.599065234797907</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.476904243588578</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1377.199951171875</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1385.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1394.800048828125</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1374.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1407</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-2.117984991337953</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>naravaswamy9@gmail.com</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NARAVA GURUSWAMY SRINIVAS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>SOUTHBANK.BO</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D64" t="n">
         <v>24.17</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E64" t="n">
         <v>80</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F64" t="n">
         <v>0.9504113015920055</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G64" t="n">
         <v>1.69421419209207</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H64" t="n">
         <v>2.311892458573095</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I64" t="n">
         <v>2.690203299785165</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J64" t="n">
         <v>24.34000015258789</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K64" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L64" t="n">
         <v>24.43000030517578</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M64" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N64" t="n">
         <v>2</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O64" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P64" t="n">
         <v>0.5785098563419734</v>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>naravaswamy9@gmail.com</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>SOUTHBANK</t>
         </is>
